--- a/exploration/esrs_datapoints.xlsx
+++ b/exploration/esrs_datapoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitc-my.sharepoint.com/personal/zxowg46_s-cloud_uni-tuebingen_de/Documents/Thesis/esg_extraction/exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="865" documentId="13_ncr:1_{E347D4F0-AB2C-4238-BBDB-200313924039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AAA6C14-CC57-4CA6-BDB6-17811E32E3E0}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{276D0863-D6FD-4884-8A2A-6E3E35E67935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00A80B9F-830B-4093-BEDF-2002BF2B9F01}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="756">
   <si>
     <t>List of ESRS Data Points</t>
   </si>
@@ -3413,6 +3413,18 @@
   </si>
   <si>
     <t>discrimination , harassment , equal opportunities, diversity , inclusion</t>
+  </si>
+  <si>
+    <t>grievance channels, raise concerns</t>
+  </si>
+  <si>
+    <t>engage, engagement, decision-making, representatives</t>
+  </si>
+  <si>
+    <t>dependencies, workforce risk, workforce opportunity, social risk, human capital, skill gap</t>
+  </si>
+  <si>
+    <t>postive impact</t>
   </si>
 </sst>
 </file>
@@ -3526,7 +3538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3536,12 +3548,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3928,7 +3934,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4296,9 +4302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4431,100 +4434,99 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4913,10 +4915,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5522,13 +5520,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92534F0-4205-4B78-B15C-3308B949B405}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="139"/>
+    <col min="1" max="1" width="10.6640625" style="138"/>
     <col min="2" max="2" width="19.53125" style="136" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="133" customWidth="1"/>
     <col min="4" max="4" width="10.3984375" style="120" customWidth="1"/>
@@ -5544,7 +5542,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="129" customFormat="1" ht="94.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="138"/>
+      <c r="A1" s="137"/>
       <c r="B1" s="134" t="s">
         <v>288</v>
       </c>
@@ -5579,39 +5577,39 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="162" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="186" t="s">
+    <row r="2" spans="1:12" s="161" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="191" t="s">
         <v>702</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="197" t="s">
         <v>701</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="156" t="s">
+      <c r="E2" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="157" t="s">
+      <c r="F2" s="156" t="s">
         <v>654</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="159" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="160"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161" t="s">
+      <c r="G2" s="157"/>
+      <c r="H2" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="159"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="161"/>
+      <c r="L2" s="160"/>
     </row>
     <row r="3" spans="1:12" s="100" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="187"/>
-      <c r="B3" s="201"/>
+      <c r="A3" s="192"/>
+      <c r="B3" s="198"/>
       <c r="C3" s="132" t="s">
         <v>71</v>
       </c>
@@ -5638,8 +5636,8 @@
       <c r="L3" s="107"/>
     </row>
     <row r="4" spans="1:12" s="100" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="187"/>
-      <c r="B4" s="201"/>
+      <c r="A4" s="192"/>
+      <c r="B4" s="198"/>
       <c r="C4" s="132" t="s">
         <v>71</v>
       </c>
@@ -5663,65 +5661,65 @@
       </c>
       <c r="L4" s="107"/>
     </row>
-    <row r="5" spans="1:12" s="153" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="188"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="145" t="s">
+    <row r="5" spans="1:12" s="152" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="193"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="145" t="s">
         <v>223</v>
       </c>
-      <c r="E5" s="147"/>
-      <c r="F5" s="148" t="s">
+      <c r="E5" s="146"/>
+      <c r="F5" s="147" t="s">
         <v>710</v>
       </c>
-      <c r="G5" s="149"/>
-      <c r="H5" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="151"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152" t="s">
+      <c r="G5" s="148"/>
+      <c r="H5" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="150"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="152"/>
-    </row>
-    <row r="6" spans="1:12" s="164" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="186" t="s">
+      <c r="L5" s="151"/>
+    </row>
+    <row r="6" spans="1:12" s="163" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="191" t="s">
         <v>704</v>
       </c>
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="188" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="155">
+      <c r="D6" s="154">
         <v>14</v>
       </c>
-      <c r="E6" s="156" t="s">
+      <c r="E6" s="155" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="157" t="s">
+      <c r="F6" s="156" t="s">
         <v>650</v>
       </c>
-      <c r="G6" s="163" t="s">
+      <c r="G6" s="162" t="s">
         <v>642</v>
       </c>
-      <c r="H6" s="164" t="s">
+      <c r="H6" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="162"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161" t="s">
+      <c r="I6" s="161"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="161"/>
+      <c r="L6" s="160"/>
     </row>
     <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="187"/>
-      <c r="B7" s="197"/>
+      <c r="A7" s="192"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="132" t="s">
         <v>71</v>
       </c>
@@ -5744,8 +5742,8 @@
       <c r="L7" s="107"/>
     </row>
     <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="187"/>
-      <c r="B8" s="197"/>
+      <c r="A8" s="192"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="132" t="s">
         <v>71</v>
       </c>
@@ -5753,7 +5751,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="108"/>
-      <c r="F8" s="191" t="s">
+      <c r="F8" s="196" t="s">
         <v>662</v>
       </c>
       <c r="G8" s="104" t="s">
@@ -5770,8 +5768,8 @@
       <c r="L8" s="107"/>
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="187"/>
-      <c r="B9" s="197"/>
+      <c r="A9" s="192"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="132" t="s">
         <v>71</v>
       </c>
@@ -5779,7 +5777,7 @@
         <v>231</v>
       </c>
       <c r="E9" s="108"/>
-      <c r="F9" s="191"/>
+      <c r="F9" s="196"/>
       <c r="G9" s="104" t="s">
         <v>663</v>
       </c>
@@ -5795,67 +5793,67 @@
       </c>
       <c r="L9" s="107"/>
     </row>
-    <row r="10" spans="1:12" s="166" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="188"/>
-      <c r="B10" s="198"/>
-      <c r="C10" s="145" t="s">
+    <row r="10" spans="1:12" s="165" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="193"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="146">
+      <c r="D10" s="145">
         <v>43</v>
       </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148" t="s">
+      <c r="E10" s="146"/>
+      <c r="F10" s="147" t="s">
         <v>660</v>
       </c>
-      <c r="G10" s="165" t="s">
+      <c r="G10" s="164" t="s">
         <v>661</v>
       </c>
-      <c r="H10" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="151"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152" t="s">
+      <c r="H10" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="150"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="152"/>
-    </row>
-    <row r="11" spans="1:12" s="164" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="186" t="s">
+      <c r="L10" s="151"/>
+    </row>
+    <row r="11" spans="1:12" s="163" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="191" t="s">
         <v>705</v>
       </c>
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="188" t="s">
         <v>714</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="155" t="s">
+      <c r="D11" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="167"/>
-      <c r="F11" s="157" t="s">
+      <c r="E11" s="166"/>
+      <c r="F11" s="156" t="s">
         <v>653</v>
       </c>
-      <c r="G11" s="168" t="s">
+      <c r="G11" s="167" t="s">
         <v>652</v>
       </c>
-      <c r="H11" s="164" t="s">
+      <c r="H11" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="169" t="s">
+      <c r="I11" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161" t="s">
+      <c r="J11" s="160"/>
+      <c r="K11" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="161"/>
+      <c r="L11" s="160"/>
     </row>
     <row r="12" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="187"/>
-      <c r="B12" s="197"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="132" t="s">
         <v>71</v>
       </c>
@@ -5880,8 +5878,8 @@
       <c r="L12" s="107"/>
     </row>
     <row r="13" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="187"/>
-      <c r="B13" s="197"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="189"/>
       <c r="C13" s="132" t="s">
         <v>71</v>
       </c>
@@ -5891,7 +5889,7 @@
       <c r="E13" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="F13" s="195" t="s">
+      <c r="F13" s="204" t="s">
         <v>713</v>
       </c>
       <c r="G13" s="104"/>
@@ -5906,8 +5904,8 @@
       <c r="L13" s="107"/>
     </row>
     <row r="14" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="187"/>
-      <c r="B14" s="197"/>
+      <c r="A14" s="192"/>
+      <c r="B14" s="189"/>
       <c r="C14" s="132" t="s">
         <v>71</v>
       </c>
@@ -5917,7 +5915,7 @@
       <c r="E14" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="195"/>
+      <c r="F14" s="204"/>
       <c r="G14" s="104"/>
       <c r="H14" s="105" t="s">
         <v>29</v>
@@ -5930,8 +5928,8 @@
       <c r="L14" s="107"/>
     </row>
     <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A15" s="187"/>
-      <c r="B15" s="197"/>
+      <c r="A15" s="192"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="132" t="s">
         <v>71</v>
       </c>
@@ -5955,67 +5953,67 @@
       </c>
       <c r="L15" s="107"/>
     </row>
-    <row r="16" spans="1:12" s="166" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="188"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="145" t="s">
+    <row r="16" spans="1:12" s="165" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="193"/>
+      <c r="B16" s="190"/>
+      <c r="C16" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="146">
+      <c r="D16" s="145">
         <v>41</v>
       </c>
-      <c r="E16" s="170" t="s">
+      <c r="E16" s="169" t="s">
         <v>226</v>
       </c>
-      <c r="F16" s="148" t="s">
+      <c r="F16" s="147" t="s">
         <v>658</v>
       </c>
-      <c r="G16" s="149" t="s">
+      <c r="G16" s="148" t="s">
         <v>659</v>
       </c>
-      <c r="H16" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152" t="s">
+      <c r="H16" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="150"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="152"/>
-    </row>
-    <row r="17" spans="1:12" s="164" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A17" s="186" t="s">
+      <c r="L16" s="151"/>
+    </row>
+    <row r="17" spans="1:12" s="163" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A17" s="191" t="s">
         <v>706</v>
       </c>
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="188" t="s">
         <v>716</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="155" t="s">
+      <c r="D17" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="157" t="s">
+      <c r="E17" s="166"/>
+      <c r="F17" s="156" t="s">
         <v>666</v>
       </c>
-      <c r="G17" s="158"/>
-      <c r="H17" s="159" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="160" t="s">
+      <c r="G17" s="157"/>
+      <c r="H17" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161" t="s">
+      <c r="J17" s="160"/>
+      <c r="K17" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="161"/>
+      <c r="L17" s="160"/>
     </row>
     <row r="18" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="187"/>
-      <c r="B18" s="197"/>
+      <c r="A18" s="192"/>
+      <c r="B18" s="189"/>
       <c r="C18" s="132" t="s">
         <v>71</v>
       </c>
@@ -6025,7 +6023,7 @@
       <c r="E18" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="F18" s="191" t="s">
+      <c r="F18" s="196" t="s">
         <v>665</v>
       </c>
       <c r="G18" s="104"/>
@@ -6039,63 +6037,63 @@
       </c>
       <c r="L18" s="107"/>
     </row>
-    <row r="19" spans="1:12" s="166" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="188"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="145" t="s">
+    <row r="19" spans="1:12" s="165" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="193"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="171" t="s">
+      <c r="D19" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="E19" s="172" t="s">
+      <c r="E19" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="199"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="151"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152" t="s">
+      <c r="F19" s="200"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="152"/>
-    </row>
-    <row r="20" spans="1:12" s="164" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="186" t="s">
+      <c r="L19" s="151"/>
+    </row>
+    <row r="20" spans="1:12" s="163" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="191" t="s">
         <v>707</v>
       </c>
-      <c r="B20" s="192" t="s">
+      <c r="B20" s="201" t="s">
         <v>718</v>
       </c>
-      <c r="C20" s="154" t="s">
+      <c r="C20" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="174">
+      <c r="D20" s="173">
         <v>20</v>
       </c>
-      <c r="E20" s="167"/>
-      <c r="F20" s="157" t="s">
+      <c r="E20" s="166"/>
+      <c r="F20" s="156" t="s">
         <v>668</v>
       </c>
-      <c r="G20" s="158"/>
-      <c r="H20" s="159" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="160"/>
-      <c r="J20" s="161" t="s">
+      <c r="G20" s="157"/>
+      <c r="H20" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="159"/>
+      <c r="J20" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="161" t="s">
+      <c r="K20" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="L20" s="161"/>
+      <c r="L20" s="160"/>
     </row>
     <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="187"/>
-      <c r="B21" s="193"/>
+      <c r="A21" s="192"/>
+      <c r="B21" s="202"/>
       <c r="C21" s="132" t="s">
         <v>71</v>
       </c>
@@ -6120,8 +6118,8 @@
       <c r="L21" s="107"/>
     </row>
     <row r="22" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="187"/>
-      <c r="B22" s="193"/>
+      <c r="A22" s="192"/>
+      <c r="B22" s="202"/>
       <c r="C22" s="132" t="s">
         <v>71</v>
       </c>
@@ -6148,8 +6146,8 @@
       <c r="L22" s="107"/>
     </row>
     <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="187"/>
-      <c r="B23" s="193"/>
+      <c r="A23" s="192"/>
+      <c r="B23" s="202"/>
       <c r="C23" s="132" t="s">
         <v>71</v>
       </c>
@@ -6175,8 +6173,8 @@
       <c r="L23" s="107"/>
     </row>
     <row r="24" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="187"/>
-      <c r="B24" s="193"/>
+      <c r="A24" s="192"/>
+      <c r="B24" s="202"/>
       <c r="C24" s="132" t="s">
         <v>71</v>
       </c>
@@ -6201,8 +6199,8 @@
       <c r="L24" s="107"/>
     </row>
     <row r="25" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="187"/>
-      <c r="B25" s="193"/>
+      <c r="A25" s="192"/>
+      <c r="B25" s="202"/>
       <c r="C25" s="132" t="s">
         <v>71</v>
       </c>
@@ -6210,7 +6208,7 @@
         <v>103</v>
       </c>
       <c r="E25" s="108"/>
-      <c r="F25" s="191" t="s">
+      <c r="F25" s="196" t="s">
         <v>673</v>
       </c>
       <c r="G25" s="104"/>
@@ -6227,8 +6225,8 @@
       <c r="L25" s="107"/>
     </row>
     <row r="26" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="187"/>
-      <c r="B26" s="193"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="202"/>
       <c r="C26" s="132" t="s">
         <v>71</v>
       </c>
@@ -6236,7 +6234,7 @@
         <v>106</v>
       </c>
       <c r="E26" s="108"/>
-      <c r="F26" s="191"/>
+      <c r="F26" s="196"/>
       <c r="G26" s="104"/>
       <c r="H26" s="105" t="s">
         <v>29</v>
@@ -6251,8 +6249,8 @@
       <c r="L26" s="107"/>
     </row>
     <row r="27" spans="1:12" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="187"/>
-      <c r="B27" s="193"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="202"/>
       <c r="C27" s="132" t="s">
         <v>71</v>
       </c>
@@ -6260,7 +6258,7 @@
         <v>109</v>
       </c>
       <c r="E27" s="108"/>
-      <c r="F27" s="191" t="s">
+      <c r="F27" s="196" t="s">
         <v>674</v>
       </c>
       <c r="G27" s="104"/>
@@ -6277,8 +6275,8 @@
       <c r="L27" s="107"/>
     </row>
     <row r="28" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="187"/>
-      <c r="B28" s="193"/>
+      <c r="A28" s="192"/>
+      <c r="B28" s="202"/>
       <c r="C28" s="132" t="s">
         <v>71</v>
       </c>
@@ -6286,7 +6284,7 @@
         <v>112</v>
       </c>
       <c r="E28" s="108"/>
-      <c r="F28" s="191"/>
+      <c r="F28" s="196"/>
       <c r="G28" s="104"/>
       <c r="H28" s="105" t="s">
         <v>29</v>
@@ -6301,8 +6299,8 @@
       <c r="L28" s="107"/>
     </row>
     <row r="29" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="187"/>
-      <c r="B29" s="193"/>
+      <c r="A29" s="192"/>
+      <c r="B29" s="202"/>
       <c r="C29" s="132" t="s">
         <v>71</v>
       </c>
@@ -6325,97 +6323,97 @@
       </c>
       <c r="L29" s="107"/>
     </row>
-    <row r="30" spans="1:12" s="166" customFormat="1" ht="57.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="188"/>
-      <c r="B30" s="194"/>
-      <c r="C30" s="145" t="s">
+    <row r="30" spans="1:12" s="165" customFormat="1" ht="57.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="193"/>
+      <c r="B30" s="203"/>
+      <c r="C30" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="175" t="s">
+      <c r="D30" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="176" t="s">
+      <c r="E30" s="175" t="s">
         <v>167</v>
       </c>
-      <c r="F30" s="148" t="s">
+      <c r="F30" s="147" t="s">
         <v>685</v>
       </c>
-      <c r="G30" s="149"/>
-      <c r="H30" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="151" t="s">
+      <c r="G30" s="148"/>
+      <c r="H30" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="152"/>
-      <c r="K30" s="152" t="s">
+      <c r="J30" s="151"/>
+      <c r="K30" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="L30" s="152"/>
-    </row>
-    <row r="31" spans="1:12" s="183" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="138" t="s">
+      <c r="L30" s="151"/>
+    </row>
+    <row r="31" spans="1:12" s="182" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="137" t="s">
         <v>708</v>
       </c>
-      <c r="B31" s="177" t="s">
+      <c r="B31" s="176" t="s">
         <v>725</v>
       </c>
-      <c r="C31" s="178" t="s">
+      <c r="C31" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="179">
+      <c r="D31" s="178">
         <v>23</v>
       </c>
-      <c r="E31" s="180"/>
-      <c r="F31" s="181" t="s">
+      <c r="E31" s="179"/>
+      <c r="F31" s="180" t="s">
         <v>671</v>
       </c>
-      <c r="G31" s="182"/>
-      <c r="H31" s="183" t="s">
+      <c r="G31" s="181"/>
+      <c r="H31" s="182" t="s">
         <v>28</v>
       </c>
       <c r="I31" s="129"/>
-      <c r="J31" s="184" t="s">
+      <c r="J31" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="184" t="s">
+      <c r="K31" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="L31" s="184"/>
-    </row>
-    <row r="32" spans="1:12" s="164" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="186" t="s">
+      <c r="L31" s="183"/>
+    </row>
+    <row r="32" spans="1:12" s="163" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="191" t="s">
         <v>721</v>
       </c>
-      <c r="B32" s="196" t="s">
+      <c r="B32" s="188" t="s">
         <v>728</v>
       </c>
-      <c r="C32" s="154" t="s">
+      <c r="C32" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="174" t="s">
+      <c r="D32" s="173" t="s">
         <v>645</v>
       </c>
-      <c r="E32" s="167"/>
-      <c r="F32" s="157" t="s">
+      <c r="E32" s="166"/>
+      <c r="F32" s="156" t="s">
         <v>677</v>
       </c>
-      <c r="G32" s="168" t="s">
+      <c r="G32" s="167" t="s">
         <v>676</v>
       </c>
-      <c r="H32" s="164" t="s">
+      <c r="H32" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="162"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161" t="s">
+      <c r="I32" s="161"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="161"/>
+      <c r="L32" s="160"/>
     </row>
     <row r="33" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A33" s="187"/>
-      <c r="B33" s="197"/>
+      <c r="A33" s="192"/>
+      <c r="B33" s="189"/>
       <c r="C33" s="132" t="s">
         <v>71</v>
       </c>
@@ -6442,8 +6440,8 @@
       <c r="L33" s="107"/>
     </row>
     <row r="34" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A34" s="187"/>
-      <c r="B34" s="197"/>
+      <c r="A34" s="192"/>
+      <c r="B34" s="189"/>
       <c r="C34" s="132" t="s">
         <v>71</v>
       </c>
@@ -6465,63 +6463,63 @@
       </c>
       <c r="L34" s="107"/>
     </row>
-    <row r="35" spans="1:12" s="166" customFormat="1" ht="71.650000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="188"/>
-      <c r="B35" s="198"/>
-      <c r="C35" s="145" t="s">
+    <row r="35" spans="1:12" s="165" customFormat="1" ht="71.650000000000006" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="193"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="175" t="s">
+      <c r="D35" s="174" t="s">
         <v>648</v>
       </c>
-      <c r="E35" s="147"/>
-      <c r="F35" s="148" t="s">
+      <c r="E35" s="146"/>
+      <c r="F35" s="147" t="s">
         <v>681</v>
       </c>
-      <c r="G35" s="149"/>
-      <c r="H35" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="151"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152" t="s">
+      <c r="G35" s="148"/>
+      <c r="H35" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="150"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="L35" s="152"/>
-    </row>
-    <row r="36" spans="1:12" s="164" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="186" t="s">
+      <c r="L35" s="151"/>
+    </row>
+    <row r="36" spans="1:12" s="163" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="191" t="s">
         <v>722</v>
       </c>
-      <c r="B36" s="196" t="s">
+      <c r="B36" s="188" t="s">
         <v>682</v>
       </c>
-      <c r="C36" s="154" t="s">
+      <c r="C36" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="174" t="s">
+      <c r="D36" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="167"/>
-      <c r="F36" s="157" t="s">
+      <c r="E36" s="166"/>
+      <c r="F36" s="156" t="s">
         <v>683</v>
       </c>
-      <c r="G36" s="158"/>
-      <c r="H36" s="159" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="160"/>
-      <c r="J36" s="161" t="s">
+      <c r="G36" s="157"/>
+      <c r="H36" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="159"/>
+      <c r="J36" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="161" t="s">
+      <c r="K36" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="L36" s="161"/>
+      <c r="L36" s="160"/>
     </row>
     <row r="37" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A37" s="187"/>
-      <c r="B37" s="197"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="189"/>
       <c r="C37" s="132" t="s">
         <v>71</v>
       </c>
@@ -6546,8 +6544,8 @@
       <c r="L37" s="107"/>
     </row>
     <row r="38" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A38" s="187"/>
-      <c r="B38" s="197"/>
+      <c r="A38" s="192"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="132" t="s">
         <v>71</v>
       </c>
@@ -6571,8 +6569,8 @@
       <c r="L38" s="107"/>
     </row>
     <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="187"/>
-      <c r="B39" s="197"/>
+      <c r="A39" s="192"/>
+      <c r="B39" s="189"/>
       <c r="C39" s="132" t="s">
         <v>71</v>
       </c>
@@ -6599,8 +6597,8 @@
       <c r="L39" s="107"/>
     </row>
     <row r="40" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A40" s="187"/>
-      <c r="B40" s="197"/>
+      <c r="A40" s="192"/>
+      <c r="B40" s="189"/>
       <c r="C40" s="132" t="s">
         <v>71</v>
       </c>
@@ -6627,8 +6625,8 @@
       <c r="L40" s="107"/>
     </row>
     <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="187"/>
-      <c r="B41" s="197"/>
+      <c r="A41" s="192"/>
+      <c r="B41" s="189"/>
       <c r="C41" s="132" t="s">
         <v>71</v>
       </c>
@@ -6653,8 +6651,8 @@
       <c r="L41" s="107"/>
     </row>
     <row r="42" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A42" s="187"/>
-      <c r="B42" s="197"/>
+      <c r="A42" s="192"/>
+      <c r="B42" s="189"/>
       <c r="C42" s="132" t="s">
         <v>71</v>
       </c>
@@ -6679,8 +6677,8 @@
       <c r="L42" s="107"/>
     </row>
     <row r="43" spans="1:12" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="187"/>
-      <c r="B43" s="197"/>
+      <c r="A43" s="192"/>
+      <c r="B43" s="189"/>
       <c r="C43" s="132" t="s">
         <v>71</v>
       </c>
@@ -6688,7 +6686,7 @@
         <v>235</v>
       </c>
       <c r="E43" s="108"/>
-      <c r="F43" s="191" t="s">
+      <c r="F43" s="196" t="s">
         <v>732</v>
       </c>
       <c r="G43" s="104"/>
@@ -6703,8 +6701,8 @@
       <c r="L43" s="107"/>
     </row>
     <row r="44" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="187"/>
-      <c r="B44" s="197"/>
+      <c r="A44" s="192"/>
+      <c r="B44" s="189"/>
       <c r="C44" s="132" t="s">
         <v>71</v>
       </c>
@@ -6712,7 +6710,7 @@
         <v>238</v>
       </c>
       <c r="E44" s="108"/>
-      <c r="F44" s="191"/>
+      <c r="F44" s="196"/>
       <c r="G44" s="104"/>
       <c r="H44" s="105" t="s">
         <v>29</v>
@@ -6724,61 +6722,61 @@
       </c>
       <c r="L44" s="107"/>
     </row>
-    <row r="45" spans="1:12" s="166" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="188"/>
-      <c r="B45" s="198"/>
-      <c r="C45" s="145" t="s">
+    <row r="45" spans="1:12" s="165" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="193"/>
+      <c r="B45" s="190"/>
+      <c r="C45" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="146" t="s">
+      <c r="D45" s="145" t="s">
         <v>241</v>
       </c>
-      <c r="E45" s="147"/>
-      <c r="F45" s="199"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="151"/>
-      <c r="J45" s="152"/>
-      <c r="K45" s="152" t="s">
+      <c r="E45" s="146"/>
+      <c r="F45" s="200"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="150"/>
+      <c r="J45" s="151"/>
+      <c r="K45" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="L45" s="152"/>
-    </row>
-    <row r="46" spans="1:12" s="164" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A46" s="186" t="s">
+      <c r="L45" s="151"/>
+    </row>
+    <row r="46" spans="1:12" s="163" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A46" s="191" t="s">
         <v>723</v>
       </c>
-      <c r="B46" s="196" t="s">
+      <c r="B46" s="188" t="s">
         <v>736</v>
       </c>
-      <c r="C46" s="154" t="s">
+      <c r="C46" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="174" t="s">
+      <c r="D46" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="167"/>
-      <c r="F46" s="157" t="s">
+      <c r="E46" s="166"/>
+      <c r="F46" s="156" t="s">
         <v>688</v>
       </c>
-      <c r="G46" s="158"/>
-      <c r="H46" s="159" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" s="160"/>
-      <c r="J46" s="161" t="s">
+      <c r="G46" s="157"/>
+      <c r="H46" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="159"/>
+      <c r="J46" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="K46" s="161" t="s">
+      <c r="K46" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="L46" s="161"/>
+      <c r="L46" s="160"/>
     </row>
     <row r="47" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A47" s="187"/>
-      <c r="B47" s="197"/>
+      <c r="A47" s="192"/>
+      <c r="B47" s="189"/>
       <c r="C47" s="132" t="s">
         <v>71</v>
       </c>
@@ -6802,63 +6800,63 @@
       </c>
       <c r="L47" s="107"/>
     </row>
-    <row r="48" spans="1:12" s="166" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="188"/>
-      <c r="B48" s="198"/>
-      <c r="C48" s="145" t="s">
+    <row r="48" spans="1:12" s="165" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="193"/>
+      <c r="B48" s="190"/>
+      <c r="C48" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="146" t="s">
+      <c r="D48" s="145" t="s">
         <v>206</v>
       </c>
-      <c r="E48" s="147"/>
-      <c r="F48" s="148" t="s">
+      <c r="E48" s="146"/>
+      <c r="F48" s="147" t="s">
         <v>690</v>
       </c>
-      <c r="G48" s="149"/>
-      <c r="H48" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="I48" s="151"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="152" t="s">
+      <c r="G48" s="148"/>
+      <c r="H48" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="150"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="L48" s="152"/>
-    </row>
-    <row r="49" spans="1:12" s="164" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A49" s="186" t="s">
+      <c r="L48" s="151"/>
+    </row>
+    <row r="49" spans="1:12" s="163" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A49" s="191" t="s">
         <v>724</v>
       </c>
-      <c r="B49" s="196" t="s">
+      <c r="B49" s="188" t="s">
         <v>738</v>
       </c>
-      <c r="C49" s="154" t="s">
+      <c r="C49" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="174" t="s">
+      <c r="D49" s="173" t="s">
         <v>180</v>
       </c>
-      <c r="E49" s="156" t="s">
+      <c r="E49" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="F49" s="157" t="s">
+      <c r="F49" s="156" t="s">
         <v>691</v>
       </c>
-      <c r="G49" s="158"/>
-      <c r="H49" s="159" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49" s="160"/>
-      <c r="J49" s="161"/>
-      <c r="K49" s="161" t="s">
+      <c r="G49" s="157"/>
+      <c r="H49" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="159"/>
+      <c r="J49" s="160"/>
+      <c r="K49" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="L49" s="161"/>
+      <c r="L49" s="160"/>
     </row>
     <row r="50" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="187"/>
-      <c r="B50" s="197"/>
+      <c r="A50" s="192"/>
+      <c r="B50" s="189"/>
       <c r="C50" s="132" t="s">
         <v>71</v>
       </c>
@@ -6882,8 +6880,8 @@
       <c r="L50" s="107"/>
     </row>
     <row r="51" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A51" s="187"/>
-      <c r="B51" s="197"/>
+      <c r="A51" s="192"/>
+      <c r="B51" s="189"/>
       <c r="C51" s="132" t="s">
         <v>71</v>
       </c>
@@ -6906,8 +6904,8 @@
       <c r="L51" s="107"/>
     </row>
     <row r="52" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A52" s="187"/>
-      <c r="B52" s="197"/>
+      <c r="A52" s="192"/>
+      <c r="B52" s="189"/>
       <c r="C52" s="132" t="s">
         <v>71</v>
       </c>
@@ -6932,8 +6930,8 @@
       <c r="L52" s="107"/>
     </row>
     <row r="53" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A53" s="187"/>
-      <c r="B53" s="197"/>
+      <c r="A53" s="192"/>
+      <c r="B53" s="189"/>
       <c r="C53" s="132" t="s">
         <v>71</v>
       </c>
@@ -6957,37 +6955,37 @@
       </c>
       <c r="L53" s="107"/>
     </row>
-    <row r="54" spans="1:12" s="166" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="188"/>
-      <c r="B54" s="198"/>
-      <c r="C54" s="145" t="s">
+    <row r="54" spans="1:12" s="165" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="193"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="175">
+      <c r="D54" s="174">
         <v>33</v>
       </c>
-      <c r="E54" s="147"/>
-      <c r="F54" s="148" t="s">
+      <c r="E54" s="146"/>
+      <c r="F54" s="147" t="s">
         <v>696</v>
       </c>
-      <c r="G54" s="165"/>
-      <c r="H54" s="166" t="s">
+      <c r="G54" s="164"/>
+      <c r="H54" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="I54" s="185" t="s">
+      <c r="I54" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="J54" s="152"/>
-      <c r="K54" s="152" t="s">
+      <c r="J54" s="151"/>
+      <c r="K54" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="L54" s="152"/>
-    </row>
-    <row r="55" spans="1:12" s="144" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="140" t="s">
+      <c r="L54" s="151"/>
+    </row>
+    <row r="55" spans="1:12" s="143" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="139" t="s">
         <v>734</v>
       </c>
-      <c r="B55" s="173" t="s">
+      <c r="B55" s="172" t="s">
         <v>742</v>
       </c>
       <c r="C55" s="131" t="s">
@@ -7002,8 +7000,8 @@
       <c r="F55" s="122" t="s">
         <v>697</v>
       </c>
-      <c r="G55" s="143"/>
-      <c r="H55" s="144" t="s">
+      <c r="G55" s="142"/>
+      <c r="H55" s="143" t="s">
         <v>28</v>
       </c>
       <c r="I55" s="124"/>
@@ -7014,10 +7012,10 @@
       <c r="L55" s="123"/>
     </row>
     <row r="56" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="189" t="s">
+      <c r="A56" s="194" t="s">
         <v>735</v>
       </c>
-      <c r="B56" s="197" t="s">
+      <c r="B56" s="189" t="s">
         <v>744</v>
       </c>
       <c r="C56" s="132" t="s">
@@ -7029,7 +7027,7 @@
       <c r="E56" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F56" s="191" t="s">
+      <c r="F56" s="196" t="s">
         <v>699</v>
       </c>
       <c r="G56" s="116" t="s">
@@ -7048,8 +7046,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="187"/>
-      <c r="B57" s="197"/>
+      <c r="A57" s="192"/>
+      <c r="B57" s="189"/>
       <c r="C57" s="132" t="s">
         <v>71</v>
       </c>
@@ -7059,7 +7057,7 @@
       <c r="E57" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F57" s="191"/>
+      <c r="F57" s="196"/>
       <c r="G57" s="119"/>
       <c r="H57" s="117" t="s">
         <v>28</v>
@@ -7074,8 +7072,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="187"/>
-      <c r="B58" s="197"/>
+      <c r="A58" s="192"/>
+      <c r="B58" s="189"/>
       <c r="C58" s="132" t="s">
         <v>71</v>
       </c>
@@ -7085,7 +7083,7 @@
       <c r="E58" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F58" s="191"/>
+      <c r="F58" s="196"/>
       <c r="G58" s="119"/>
       <c r="H58" s="117" t="s">
         <v>28</v>
@@ -7100,8 +7098,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="187"/>
-      <c r="B59" s="197"/>
+      <c r="A59" s="192"/>
+      <c r="B59" s="189"/>
       <c r="C59" s="132" t="s">
         <v>71</v>
       </c>
@@ -7111,7 +7109,7 @@
       <c r="E59" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F59" s="191"/>
+      <c r="F59" s="196"/>
       <c r="G59" s="119"/>
       <c r="H59" s="117" t="s">
         <v>28</v>
@@ -7126,8 +7124,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A60" s="187"/>
-      <c r="B60" s="197"/>
+      <c r="A60" s="192"/>
+      <c r="B60" s="189"/>
       <c r="C60" s="132" t="s">
         <v>71</v>
       </c>
@@ -7137,7 +7135,7 @@
       <c r="E60" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F60" s="191"/>
+      <c r="F60" s="196"/>
       <c r="G60" s="119"/>
       <c r="H60" s="117" t="s">
         <v>28</v>
@@ -7152,8 +7150,8 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A61" s="190"/>
-      <c r="B61" s="197"/>
+      <c r="A61" s="195"/>
+      <c r="B61" s="189"/>
       <c r="C61" s="132" t="s">
         <v>71</v>
       </c>
@@ -7184,33 +7182,33 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B2:B5"/>
     <mergeCell ref="B36:B45"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="F43:F45"/>
     <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B30"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A30"/>
-    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A36:A45"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A49:A54"/>
     <mergeCell ref="A56:A61"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D2:D13 D15:D18 D20:D28 D30:D54 D56:D60">
@@ -7323,8 +7321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442CA99-AF6D-4997-8E84-42BB9E92AEF4}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7336,47 +7334,50 @@
     <col min="6" max="6" width="56.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="141" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="142" t="s">
+    <row r="1" spans="1:6" s="140" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="141" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="141" t="s">
         <v>712</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="140" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" s="185" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="185" t="s">
         <v>702</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="186" t="s">
         <v>701</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="187" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="F2" s="185" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="185" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="185" t="s">
         <v>704</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="186" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" s="185" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="185" t="s">
         <v>705</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="186" t="s">
         <v>714</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="186" t="s">
         <v>715</v>
       </c>
     </row>
@@ -7390,116 +7391,125 @@
       <c r="C5" s="2" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="217" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="217" t="s">
+      <c r="F5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="185" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="185" t="s">
         <v>707</v>
       </c>
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="186" t="s">
         <v>718</v>
       </c>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="186" t="s">
         <v>719</v>
       </c>
-      <c r="F6" s="217" t="s">
+      <c r="F6" s="185" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="217" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="217" t="s">
+    <row r="7" spans="1:6" s="185" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="185" t="s">
         <v>708</v>
       </c>
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="186" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="186" t="s">
         <v>720</v>
       </c>
-      <c r="F7" s="218" t="s">
+      <c r="F7" s="186" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="217" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="217" t="s">
+    <row r="8" spans="1:6" s="185" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="185" t="s">
         <v>721</v>
       </c>
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="186" t="s">
         <v>728</v>
       </c>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="186" t="s">
         <v>726</v>
       </c>
-      <c r="D8" s="218" t="s">
+      <c r="D8" s="186" t="s">
         <v>727</v>
       </c>
-      <c r="F8" s="217" t="s">
+      <c r="F8" s="185" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" s="185" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="185" t="s">
         <v>722</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="186" t="s">
         <v>682</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="186" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="217" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A10" s="217" t="s">
+      <c r="F9" s="185" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="185" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A10" s="185" t="s">
         <v>723</v>
       </c>
-      <c r="B10" s="218" t="s">
+      <c r="B10" s="186" t="s">
         <v>736</v>
       </c>
-      <c r="C10" s="218" t="s">
+      <c r="C10" s="186" t="s">
         <v>737</v>
       </c>
-      <c r="F10" s="217" t="s">
+      <c r="F10" s="185" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="215" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="215" t="s">
+    <row r="11" spans="1:6" s="185" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="185" t="s">
         <v>724</v>
       </c>
-      <c r="B11" s="216" t="s">
+      <c r="B11" s="186" t="s">
         <v>738</v>
       </c>
-      <c r="C11" s="216" t="s">
+      <c r="C11" s="186" t="s">
         <v>740</v>
       </c>
-      <c r="D11" s="216" t="s">
+      <c r="D11" s="186" t="s">
         <v>739</v>
       </c>
-      <c r="E11" s="216" t="s">
+      <c r="E11" s="186" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="217" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="217" t="s">
+      <c r="F11" s="185" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="185" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="185" t="s">
         <v>734</v>
       </c>
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="186" t="s">
         <v>742</v>
       </c>
-      <c r="C12" s="218" t="s">
+      <c r="C12" s="186" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="217" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A13" s="217" t="s">
+    <row r="13" spans="1:6" s="185" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A13" s="185" t="s">
         <v>735</v>
       </c>
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="186" t="s">
         <v>744</v>
       </c>
-      <c r="C13" s="218" t="s">
+      <c r="C13" s="186" t="s">
         <v>743</v>
       </c>
-      <c r="F13" s="217" t="s">
+      <c r="F13" s="185" t="s">
         <v>750</v>
       </c>
     </row>
@@ -7512,7 +7522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612EC7FB-07B4-4895-8A1B-BC9CDD0AE99E}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -7572,7 +7582,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="32.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="205" t="s">
         <v>289</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -7605,7 +7615,7 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="204"/>
+      <c r="A3" s="206"/>
       <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
@@ -7634,7 +7644,7 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="204"/>
+      <c r="A4" s="206"/>
       <c r="B4" s="3" t="s">
         <v>95</v>
       </c>
@@ -7665,7 +7675,7 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="204"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
@@ -7694,7 +7704,7 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="204"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="3" t="s">
         <v>117</v>
       </c>
@@ -7725,7 +7735,7 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="204"/>
+      <c r="A7" s="206"/>
       <c r="B7" s="3" t="s">
         <v>218</v>
       </c>
@@ -7756,7 +7766,7 @@
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="205"/>
+      <c r="A8" s="207"/>
       <c r="B8" s="3" t="s">
         <v>222</v>
       </c>
@@ -7785,7 +7795,7 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="205" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -7818,7 +7828,7 @@
       <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A10" s="204"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="3" t="s">
         <v>114</v>
       </c>
@@ -7849,7 +7859,7 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="204"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="3" t="s">
         <v>201</v>
       </c>
@@ -7880,7 +7890,7 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="204"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="3" t="s">
         <v>211</v>
       </c>
@@ -7911,7 +7921,7 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="204"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="3" t="s">
         <v>215</v>
       </c>
@@ -7942,7 +7952,7 @@
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="204"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="3" t="s">
         <v>225</v>
       </c>
@@ -7973,7 +7983,7 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="204"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="3" t="s">
         <v>228</v>
       </c>
@@ -8002,7 +8012,7 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" s="29" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="205"/>
+      <c r="A16" s="207"/>
       <c r="B16" s="30" t="s">
         <v>230</v>
       </c>
@@ -8033,7 +8043,7 @@
       <c r="M16" s="35"/>
     </row>
     <row r="17" spans="1:13" s="44" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="205" t="s">
         <v>297</v>
       </c>
       <c r="B17" s="38" t="s">
@@ -8066,7 +8076,7 @@
       <c r="M17" s="43"/>
     </row>
     <row r="18" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="204"/>
+      <c r="A18" s="206"/>
       <c r="B18" s="3" t="s">
         <v>208</v>
       </c>
@@ -8097,7 +8107,7 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="205"/>
+      <c r="A19" s="207"/>
       <c r="B19" s="3" t="s">
         <v>211</v>
       </c>
@@ -8128,7 +8138,7 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="203" t="s">
+      <c r="A20" s="205" t="s">
         <v>294</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -8161,7 +8171,7 @@
       <c r="M20" s="43"/>
     </row>
     <row r="21" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="204"/>
+      <c r="A21" s="206"/>
       <c r="B21" s="3" t="s">
         <v>122</v>
       </c>
@@ -8192,7 +8202,7 @@
       <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="204"/>
+      <c r="A22" s="206"/>
       <c r="B22" s="3" t="s">
         <v>125</v>
       </c>
@@ -8223,7 +8233,7 @@
       <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="204"/>
+      <c r="A23" s="206"/>
       <c r="B23" s="3" t="s">
         <v>128</v>
       </c>
@@ -8254,7 +8264,7 @@
       <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="204"/>
+      <c r="A24" s="206"/>
       <c r="B24" s="3" t="s">
         <v>131</v>
       </c>
@@ -8287,7 +8297,7 @@
       <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="204"/>
+      <c r="A25" s="206"/>
       <c r="B25" s="3" t="s">
         <v>276</v>
       </c>
@@ -8320,7 +8330,7 @@
       <c r="M25" s="16"/>
     </row>
     <row r="26" spans="1:13" s="29" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A26" s="205"/>
+      <c r="A26" s="207"/>
       <c r="B26" s="30" t="s">
         <v>280</v>
       </c>
@@ -8351,7 +8361,7 @@
       <c r="M26" s="35"/>
     </row>
     <row r="27" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="204" t="s">
+      <c r="A27" s="206" t="s">
         <v>292</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -8384,7 +8394,7 @@
       <c r="M27" s="16"/>
     </row>
     <row r="28" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="204"/>
+      <c r="A28" s="206"/>
       <c r="B28" s="3" t="s">
         <v>105</v>
       </c>
@@ -8415,7 +8425,7 @@
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="205"/>
+      <c r="A29" s="207"/>
       <c r="B29" s="30" t="s">
         <v>134</v>
       </c>
@@ -8442,7 +8452,7 @@
       <c r="M29" s="35"/>
     </row>
     <row r="30" spans="1:13" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="204" t="s">
+      <c r="A30" s="206" t="s">
         <v>293</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -8475,7 +8485,7 @@
       <c r="M30" s="16"/>
     </row>
     <row r="31" spans="1:13" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="204"/>
+      <c r="A31" s="206"/>
       <c r="B31" s="3" t="s">
         <v>111</v>
       </c>
@@ -8506,7 +8516,7 @@
       <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:13" s="29" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="205"/>
+      <c r="A32" s="207"/>
       <c r="B32" s="30" t="s">
         <v>134</v>
       </c>
@@ -8570,7 +8580,7 @@
       <c r="M33" s="50"/>
     </row>
     <row r="34" spans="1:13" s="44" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="203" t="s">
+      <c r="A34" s="205" t="s">
         <v>299</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -8601,7 +8611,7 @@
       <c r="M34" s="43"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35" s="204"/>
+      <c r="A35" s="206"/>
       <c r="B35" s="3" t="s">
         <v>141</v>
       </c>
@@ -8632,7 +8642,7 @@
       <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A36" s="204"/>
+      <c r="A36" s="206"/>
       <c r="B36" s="3" t="s">
         <v>145</v>
       </c>
@@ -8661,7 +8671,7 @@
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" s="29" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A37" s="205"/>
+      <c r="A37" s="207"/>
       <c r="B37" s="30" t="s">
         <v>148</v>
       </c>
@@ -8690,7 +8700,7 @@
       <c r="M37" s="35"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A38" s="203" t="s">
+      <c r="A38" s="205" t="s">
         <v>286</v>
       </c>
       <c r="B38" s="38" t="s">
@@ -8723,7 +8733,7 @@
       <c r="M38" s="43"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39" s="204"/>
+      <c r="A39" s="206"/>
       <c r="B39" s="3" t="s">
         <v>155</v>
       </c>
@@ -8754,7 +8764,7 @@
       <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="204"/>
+      <c r="A40" s="206"/>
       <c r="B40" s="3" t="s">
         <v>158</v>
       </c>
@@ -8787,7 +8797,7 @@
       <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A41" s="204"/>
+      <c r="A41" s="206"/>
       <c r="B41" s="3" t="s">
         <v>161</v>
       </c>
@@ -8820,7 +8830,7 @@
       <c r="M41" s="16"/>
     </row>
     <row r="42" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="204"/>
+      <c r="A42" s="206"/>
       <c r="B42" s="3" t="s">
         <v>165</v>
       </c>
@@ -8853,7 +8863,7 @@
       <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="204"/>
+      <c r="A43" s="206"/>
       <c r="B43" s="3" t="s">
         <v>169</v>
       </c>
@@ -8884,7 +8894,7 @@
       <c r="M43" s="16"/>
     </row>
     <row r="44" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A44" s="204"/>
+      <c r="A44" s="206"/>
       <c r="B44" s="3" t="s">
         <v>172</v>
       </c>
@@ -8915,7 +8925,7 @@
       <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="204"/>
+      <c r="A45" s="206"/>
       <c r="B45" s="3" t="s">
         <v>234</v>
       </c>
@@ -8944,7 +8954,7 @@
       <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A46" s="204"/>
+      <c r="A46" s="206"/>
       <c r="B46" s="3" t="s">
         <v>237</v>
       </c>
@@ -8973,7 +8983,7 @@
       <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:13" s="29" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A47" s="205"/>
+      <c r="A47" s="207"/>
       <c r="B47" s="30" t="s">
         <v>240</v>
       </c>
@@ -9002,7 +9012,7 @@
       <c r="M47" s="35"/>
     </row>
     <row r="48" spans="1:13" s="44" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A48" s="203" t="s">
+      <c r="A48" s="205" t="s">
         <v>287</v>
       </c>
       <c r="B48" s="38" t="s">
@@ -9035,7 +9045,7 @@
       <c r="M48" s="43"/>
     </row>
     <row r="49" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A49" s="204"/>
+      <c r="A49" s="206"/>
       <c r="B49" s="3" t="s">
         <v>179</v>
       </c>
@@ -9066,7 +9076,7 @@
       <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="204"/>
+      <c r="A50" s="206"/>
       <c r="B50" s="3" t="s">
         <v>183</v>
       </c>
@@ -9097,7 +9107,7 @@
       <c r="M50" s="16"/>
     </row>
     <row r="51" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="204"/>
+      <c r="A51" s="206"/>
       <c r="B51" s="3" t="s">
         <v>186</v>
       </c>
@@ -9126,7 +9136,7 @@
       <c r="M51" s="16"/>
     </row>
     <row r="52" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="204"/>
+      <c r="A52" s="206"/>
       <c r="B52" s="3" t="s">
         <v>189</v>
       </c>
@@ -9157,7 +9167,7 @@
       <c r="M52" s="16"/>
     </row>
     <row r="53" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A53" s="204"/>
+      <c r="A53" s="206"/>
       <c r="B53" s="3" t="s">
         <v>193</v>
       </c>
@@ -9188,7 +9198,7 @@
       <c r="M53" s="16"/>
     </row>
     <row r="54" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="204"/>
+      <c r="A54" s="206"/>
       <c r="B54" s="3" t="s">
         <v>196</v>
       </c>
@@ -9219,7 +9229,7 @@
       <c r="M54" s="16"/>
     </row>
     <row r="55" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="204"/>
+      <c r="A55" s="206"/>
       <c r="B55" s="3" t="s">
         <v>198</v>
       </c>
@@ -9250,7 +9260,7 @@
       <c r="M55" s="16"/>
     </row>
     <row r="56" spans="1:13" s="29" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="205"/>
+      <c r="A56" s="207"/>
       <c r="B56" s="30" t="s">
         <v>205</v>
       </c>
@@ -9312,7 +9322,7 @@
       <c r="M57" s="50"/>
     </row>
     <row r="58" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A58" s="203" t="s">
+      <c r="A58" s="205" t="s">
         <v>290</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -9347,7 +9357,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A59" s="204"/>
+      <c r="A59" s="206"/>
       <c r="B59" s="3" t="s">
         <v>252</v>
       </c>
@@ -9380,7 +9390,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A60" s="204"/>
+      <c r="A60" s="206"/>
       <c r="B60" s="3" t="s">
         <v>255</v>
       </c>
@@ -9413,7 +9423,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A61" s="204"/>
+      <c r="A61" s="206"/>
       <c r="B61" s="3" t="s">
         <v>258</v>
       </c>
@@ -9446,7 +9456,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A62" s="204"/>
+      <c r="A62" s="206"/>
       <c r="B62" s="3" t="s">
         <v>261</v>
       </c>
@@ -9479,7 +9489,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A63" s="204"/>
+      <c r="A63" s="206"/>
       <c r="B63" s="3" t="s">
         <v>264</v>
       </c>
@@ -9512,7 +9522,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A64" s="204"/>
+      <c r="A64" s="206"/>
       <c r="B64" s="3" t="s">
         <v>266</v>
       </c>
@@ -9545,7 +9555,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A65" s="204"/>
+      <c r="A65" s="206"/>
       <c r="B65" s="3" t="s">
         <v>268</v>
       </c>
@@ -9578,7 +9588,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A66" s="204"/>
+      <c r="A66" s="206"/>
       <c r="B66" s="3" t="s">
         <v>270</v>
       </c>
@@ -9611,7 +9621,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" s="29" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A67" s="205"/>
+      <c r="A67" s="207"/>
       <c r="B67" s="9" t="s">
         <v>272</v>
       </c>
@@ -9850,7 +9860,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="209" t="s">
         <v>423</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -9883,7 +9893,7 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="207"/>
+      <c r="A3" s="209"/>
       <c r="B3" s="3" t="s">
         <v>306</v>
       </c>
@@ -9912,7 +9922,7 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="207"/>
+      <c r="A4" s="209"/>
       <c r="B4" s="3" t="s">
         <v>308</v>
       </c>
@@ -9941,7 +9951,7 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="207"/>
+      <c r="A5" s="209"/>
       <c r="B5" s="3" t="s">
         <v>319</v>
       </c>
@@ -9970,7 +9980,7 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="207"/>
+      <c r="A6" s="209"/>
       <c r="B6" s="3" t="s">
         <v>324</v>
       </c>
@@ -10001,7 +10011,7 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="207"/>
+      <c r="A7" s="209"/>
       <c r="B7" s="3" t="s">
         <v>402</v>
       </c>
@@ -10032,7 +10042,7 @@
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="207"/>
+      <c r="A8" s="209"/>
       <c r="B8" s="3" t="s">
         <v>406</v>
       </c>
@@ -10061,7 +10071,7 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="207"/>
+      <c r="A9" s="209"/>
       <c r="B9" s="3" t="s">
         <v>413</v>
       </c>
@@ -10090,7 +10100,7 @@
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="207"/>
+      <c r="A10" s="209"/>
       <c r="B10" s="3" t="s">
         <v>415</v>
       </c>
@@ -10119,7 +10129,7 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="207"/>
+      <c r="A11" s="209"/>
       <c r="B11" s="3" t="s">
         <v>419</v>
       </c>
@@ -10148,7 +10158,7 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="208"/>
+      <c r="A12" s="210"/>
       <c r="B12" s="3" t="s">
         <v>421</v>
       </c>
@@ -10177,7 +10187,7 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" s="38" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="208" t="s">
         <v>424</v>
       </c>
       <c r="B13" s="38" t="s">
@@ -10210,7 +10220,7 @@
       <c r="M13" s="43"/>
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="208"/>
+      <c r="A14" s="210"/>
       <c r="B14" s="3" t="s">
         <v>336</v>
       </c>
@@ -10241,7 +10251,7 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" s="38" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="208" t="s">
         <v>425</v>
       </c>
       <c r="B15" s="38" t="s">
@@ -10274,7 +10284,7 @@
       <c r="M15" s="43"/>
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="207"/>
+      <c r="A16" s="209"/>
       <c r="B16" s="3" t="s">
         <v>322</v>
       </c>
@@ -10305,7 +10315,7 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="207"/>
+      <c r="A17" s="209"/>
       <c r="B17" s="3" t="s">
         <v>379</v>
       </c>
@@ -10336,7 +10346,7 @@
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="207"/>
+      <c r="A18" s="209"/>
       <c r="B18" s="3" t="s">
         <v>389</v>
       </c>
@@ -10367,7 +10377,7 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="207"/>
+      <c r="A19" s="209"/>
       <c r="B19" s="3" t="s">
         <v>392</v>
       </c>
@@ -10398,7 +10408,7 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="207"/>
+      <c r="A20" s="209"/>
       <c r="B20" s="3" t="s">
         <v>396</v>
       </c>
@@ -10427,7 +10437,7 @@
       <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="208"/>
+      <c r="A21" s="210"/>
       <c r="B21" s="3" t="s">
         <v>409</v>
       </c>
@@ -10458,7 +10468,7 @@
       <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" s="38" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="206" t="s">
+      <c r="A22" s="208" t="s">
         <v>426</v>
       </c>
       <c r="B22" s="38" t="s">
@@ -10491,7 +10501,7 @@
       <c r="M22" s="43"/>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="207"/>
+      <c r="A23" s="209"/>
       <c r="B23" s="3" t="s">
         <v>386</v>
       </c>
@@ -10522,7 +10532,7 @@
       <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="208"/>
+      <c r="A24" s="210"/>
       <c r="B24" s="3" t="s">
         <v>389</v>
       </c>
@@ -10553,7 +10563,7 @@
       <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13" s="38" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="209" t="s">
+      <c r="A25" s="211" t="s">
         <v>294</v>
       </c>
       <c r="B25" s="38" t="s">
@@ -10586,7 +10596,7 @@
       <c r="M25" s="42"/>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="210"/>
+      <c r="A26" s="212"/>
       <c r="B26" s="3" t="s">
         <v>329</v>
       </c>
@@ -10617,7 +10627,7 @@
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="210"/>
+      <c r="A27" s="212"/>
       <c r="B27" s="3" t="s">
         <v>335</v>
       </c>
@@ -10648,7 +10658,7 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="210"/>
+      <c r="A28" s="212"/>
       <c r="B28" s="3" t="s">
         <v>339</v>
       </c>
@@ -10681,7 +10691,7 @@
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="210"/>
+      <c r="A29" s="212"/>
       <c r="B29" s="3" t="s">
         <v>340</v>
       </c>
@@ -10712,7 +10722,7 @@
       <c r="M29" s="16"/>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="211"/>
+      <c r="A30" s="213"/>
       <c r="B30" s="3" t="s">
         <v>411</v>
       </c>
@@ -10743,7 +10753,7 @@
       <c r="M30" s="70"/>
     </row>
     <row r="31" spans="1:13" s="38" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="206" t="s">
+      <c r="A31" s="208" t="s">
         <v>427</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -10776,7 +10786,7 @@
       <c r="M31" s="42"/>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="207"/>
+      <c r="A32" s="209"/>
       <c r="B32" s="3" t="s">
         <v>343</v>
       </c>
@@ -10807,7 +10817,7 @@
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="207"/>
+      <c r="A33" s="209"/>
       <c r="B33" s="3" t="s">
         <v>346</v>
       </c>
@@ -10838,7 +10848,7 @@
       <c r="M33" s="16"/>
     </row>
     <row r="34" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="207"/>
+      <c r="A34" s="209"/>
       <c r="B34" s="3" t="s">
         <v>348</v>
       </c>
@@ -10871,7 +10881,7 @@
       <c r="M34" s="16"/>
     </row>
     <row r="35" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="207"/>
+      <c r="A35" s="209"/>
       <c r="B35" s="3" t="s">
         <v>349</v>
       </c>
@@ -10904,7 +10914,7 @@
       <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="207"/>
+      <c r="A36" s="209"/>
       <c r="B36" s="3" t="s">
         <v>352</v>
       </c>
@@ -10937,7 +10947,7 @@
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="207"/>
+      <c r="A37" s="209"/>
       <c r="B37" s="3" t="s">
         <v>353</v>
       </c>
@@ -10968,7 +10978,7 @@
       <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="207"/>
+      <c r="A38" s="209"/>
       <c r="B38" s="3" t="s">
         <v>356</v>
       </c>
@@ -10999,7 +11009,7 @@
       <c r="M38" s="16"/>
     </row>
     <row r="39" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="208"/>
+      <c r="A39" s="210"/>
       <c r="B39" s="3" t="s">
         <v>358</v>
       </c>
@@ -11063,7 +11073,7 @@
       <c r="M40" s="43"/>
     </row>
     <row r="41" spans="1:13" s="38" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="206" t="s">
+      <c r="A41" s="208" t="s">
         <v>429</v>
       </c>
       <c r="B41" s="38" t="s">
@@ -11096,7 +11106,7 @@
       <c r="M41" s="43"/>
     </row>
     <row r="42" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="207"/>
+      <c r="A42" s="209"/>
       <c r="B42" s="3" t="s">
         <v>384</v>
       </c>
@@ -11125,7 +11135,7 @@
       <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="207"/>
+      <c r="A43" s="209"/>
       <c r="B43" s="3" t="s">
         <v>389</v>
       </c>
@@ -11156,7 +11166,7 @@
       <c r="M43" s="16"/>
     </row>
     <row r="44" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="208"/>
+      <c r="A44" s="210"/>
       <c r="B44" s="3" t="s">
         <v>399</v>
       </c>
@@ -11185,7 +11195,7 @@
       <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:13" s="38" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="206" t="s">
+      <c r="A45" s="208" t="s">
         <v>430</v>
       </c>
       <c r="B45" s="38" t="s">
@@ -11218,7 +11228,7 @@
       <c r="M45" s="43"/>
     </row>
     <row r="46" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="207"/>
+      <c r="A46" s="209"/>
       <c r="B46" s="3" t="s">
         <v>369</v>
       </c>
@@ -11247,7 +11257,7 @@
       <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="207"/>
+      <c r="A47" s="209"/>
       <c r="B47" s="3" t="s">
         <v>371</v>
       </c>
@@ -11278,7 +11288,7 @@
       <c r="M47" s="16"/>
     </row>
     <row r="48" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="207"/>
+      <c r="A48" s="209"/>
       <c r="B48" s="3" t="s">
         <v>373</v>
       </c>
@@ -11309,7 +11319,7 @@
       <c r="M48" s="16"/>
     </row>
     <row r="49" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="207"/>
+      <c r="A49" s="209"/>
       <c r="B49" s="3" t="s">
         <v>376</v>
       </c>
@@ -11340,7 +11350,7 @@
       <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="207"/>
+      <c r="A50" s="209"/>
       <c r="B50" s="3" t="s">
         <v>378</v>
       </c>
@@ -11545,7 +11555,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="214" t="s">
         <v>531</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -11578,7 +11588,7 @@
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="213"/>
+      <c r="A3" s="215"/>
       <c r="B3" s="3" t="s">
         <v>490</v>
       </c>
@@ -11609,7 +11619,7 @@
       <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="213"/>
+      <c r="A4" s="215"/>
       <c r="B4" s="3" t="s">
         <v>491</v>
       </c>
@@ -11640,7 +11650,7 @@
       <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="213"/>
+      <c r="A5" s="215"/>
       <c r="B5" s="3" t="s">
         <v>494</v>
       </c>
@@ -11669,7 +11679,7 @@
       <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="29.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="213"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="3" t="s">
         <v>495</v>
       </c>
@@ -11698,7 +11708,7 @@
       <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="213"/>
+      <c r="A7" s="215"/>
       <c r="B7" s="3" t="s">
         <v>496</v>
       </c>
@@ -11729,7 +11739,7 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="214"/>
+      <c r="A8" s="216"/>
       <c r="B8" s="3" t="s">
         <v>530</v>
       </c>
@@ -11758,7 +11768,7 @@
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="212" t="s">
+      <c r="A9" s="214" t="s">
         <v>537</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -11791,7 +11801,7 @@
       <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="213"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="3" t="s">
         <v>519</v>
       </c>
@@ -11822,7 +11832,7 @@
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="213"/>
+      <c r="A11" s="215"/>
       <c r="B11" s="3" t="s">
         <v>522</v>
       </c>
@@ -11853,7 +11863,7 @@
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="213"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="3" t="s">
         <v>523</v>
       </c>
@@ -11884,7 +11894,7 @@
       <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="213"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="3" t="s">
         <v>524</v>
       </c>
@@ -11913,7 +11923,7 @@
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="213"/>
+      <c r="A14" s="215"/>
       <c r="B14" s="3" t="s">
         <v>526</v>
       </c>
@@ -11944,7 +11954,7 @@
       <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="214"/>
+      <c r="A15" s="216"/>
       <c r="B15" s="3" t="s">
         <v>528</v>
       </c>
@@ -11975,7 +11985,7 @@
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="212" t="s">
+      <c r="A16" s="214" t="s">
         <v>538</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -12008,7 +12018,7 @@
       <c r="M16" s="42"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="213"/>
+      <c r="A17" s="215"/>
       <c r="B17" s="3" t="s">
         <v>521</v>
       </c>
@@ -12039,7 +12049,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="213"/>
+      <c r="A18" s="215"/>
       <c r="B18" s="3" t="s">
         <v>522</v>
       </c>
@@ -12070,7 +12080,7 @@
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="214"/>
+      <c r="A19" s="216"/>
       <c r="B19" s="3" t="s">
         <v>527</v>
       </c>
@@ -12099,7 +12109,7 @@
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" s="44" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="212" t="s">
+      <c r="A20" s="214" t="s">
         <v>532</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -12130,7 +12140,7 @@
       <c r="M20" s="42"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="213"/>
+      <c r="A21" s="215"/>
       <c r="B21" s="3" t="s">
         <v>499</v>
       </c>
@@ -12161,7 +12171,7 @@
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="214"/>
+      <c r="A22" s="216"/>
       <c r="B22" s="3" t="s">
         <v>510</v>
       </c>
@@ -12194,7 +12204,7 @@
       <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" s="44" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="212" t="s">
+      <c r="A23" s="214" t="s">
         <v>294</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -12227,7 +12237,7 @@
       <c r="M23" s="42"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="213"/>
+      <c r="A24" s="215"/>
       <c r="B24" s="3" t="s">
         <v>499</v>
       </c>
@@ -12258,7 +12268,7 @@
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="214"/>
+      <c r="A25" s="216"/>
       <c r="B25" s="3" t="s">
         <v>529</v>
       </c>
@@ -12289,7 +12299,7 @@
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="212" t="s">
+      <c r="A26" s="214" t="s">
         <v>533</v>
       </c>
       <c r="B26" s="38" t="s">
@@ -12322,7 +12332,7 @@
       <c r="M26" s="42"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="213"/>
+      <c r="A27" s="215"/>
       <c r="B27" s="3" t="s">
         <v>504</v>
       </c>
@@ -12353,7 +12363,7 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="38.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="213"/>
+      <c r="A28" s="215"/>
       <c r="B28" s="3" t="s">
         <v>505</v>
       </c>
@@ -12384,7 +12394,7 @@
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="213"/>
+      <c r="A29" s="215"/>
       <c r="B29" s="3" t="s">
         <v>506</v>
       </c>
@@ -12417,7 +12427,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="213"/>
+      <c r="A30" s="215"/>
       <c r="B30" s="3" t="s">
         <v>507</v>
       </c>
@@ -12450,7 +12460,7 @@
       <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="213"/>
+      <c r="A31" s="215"/>
       <c r="B31" s="3" t="s">
         <v>508</v>
       </c>
@@ -12481,7 +12491,7 @@
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32" s="213"/>
+      <c r="A32" s="215"/>
       <c r="B32" s="3" t="s">
         <v>511</v>
       </c>
@@ -12512,7 +12522,7 @@
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="214"/>
+      <c r="A33" s="216"/>
       <c r="B33" s="30" t="s">
         <v>509</v>
       </c>
@@ -12543,7 +12553,7 @@
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="212" t="s">
+      <c r="A34" s="214" t="s">
         <v>534</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -12576,7 +12586,7 @@
       <c r="M34" s="42"/>
     </row>
     <row r="35" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="213"/>
+      <c r="A35" s="215"/>
       <c r="B35" s="3" t="s">
         <v>512</v>
       </c>
@@ -12607,7 +12617,7 @@
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" s="213"/>
+      <c r="A36" s="215"/>
       <c r="B36" s="3" t="s">
         <v>520</v>
       </c>
@@ -12636,7 +12646,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" s="213"/>
+      <c r="A37" s="215"/>
       <c r="B37" s="3" t="s">
         <v>522</v>
       </c>
@@ -12667,7 +12677,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38" s="214"/>
+      <c r="A38" s="216"/>
       <c r="B38" s="3" t="s">
         <v>525</v>
       </c>
@@ -12696,7 +12706,7 @@
       <c r="M38" s="18"/>
     </row>
     <row r="39" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="212" t="s">
+      <c r="A39" s="214" t="s">
         <v>535</v>
       </c>
       <c r="B39" s="38" t="s">
@@ -12731,7 +12741,7 @@
       <c r="M39" s="42"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A40" s="214"/>
+      <c r="A40" s="216"/>
       <c r="B40" s="3" t="s">
         <v>503</v>
       </c>
@@ -12762,7 +12772,7 @@
       <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="212" t="s">
+      <c r="A41" s="214" t="s">
         <v>536</v>
       </c>
       <c r="B41" s="38" t="s">
@@ -12795,7 +12805,7 @@
       <c r="M41" s="42"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A42" s="213"/>
+      <c r="A42" s="215"/>
       <c r="B42" s="3" t="s">
         <v>514</v>
       </c>
@@ -12824,7 +12834,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A43" s="213"/>
+      <c r="A43" s="215"/>
       <c r="B43" s="3" t="s">
         <v>515</v>
       </c>
@@ -12855,7 +12865,7 @@
       <c r="M43" s="18"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A44" s="213"/>
+      <c r="A44" s="215"/>
       <c r="B44" s="3" t="s">
         <v>516</v>
       </c>
@@ -12886,7 +12896,7 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A45" s="213"/>
+      <c r="A45" s="215"/>
       <c r="B45" s="3" t="s">
         <v>517</v>
       </c>
@@ -12915,7 +12925,7 @@
       <c r="M45" s="18"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A46" s="214"/>
+      <c r="A46" s="216"/>
       <c r="B46" s="3" t="s">
         <v>518</v>
       </c>
@@ -13140,7 +13150,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="206" t="s">
         <v>531</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -13172,7 +13182,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="204"/>
+      <c r="A3" s="206"/>
       <c r="B3" s="3" t="s">
         <v>543</v>
       </c>
@@ -13200,7 +13210,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="204"/>
+      <c r="A4" s="206"/>
       <c r="B4" s="3" t="s">
         <v>545</v>
       </c>
@@ -13228,7 +13238,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="204"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="3" t="s">
         <v>552</v>
       </c>
@@ -13256,7 +13266,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="204"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="3" t="s">
         <v>556</v>
       </c>
@@ -13286,7 +13296,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="204"/>
+      <c r="A7" s="206"/>
       <c r="B7" s="3" t="s">
         <v>558</v>
       </c>
@@ -13314,7 +13324,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="204"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="3" t="s">
         <v>605</v>
       </c>
@@ -13344,7 +13354,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="204"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="3" t="s">
         <v>616</v>
       </c>
@@ -13374,7 +13384,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="204"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="3" t="s">
         <v>627</v>
       </c>
@@ -13404,7 +13414,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="204"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="3" t="s">
         <v>630</v>
       </c>
@@ -13432,7 +13442,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="205"/>
+      <c r="A12" s="207"/>
       <c r="B12" s="3" t="s">
         <v>636</v>
       </c>
@@ -13460,7 +13470,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="203" t="s">
+      <c r="A13" s="205" t="s">
         <v>537</v>
       </c>
       <c r="B13" s="38" t="s">
@@ -13492,7 +13502,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="204"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="3" t="s">
         <v>554</v>
       </c>
@@ -13522,7 +13532,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="204"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="3" t="s">
         <v>620</v>
       </c>
@@ -13552,7 +13562,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="204"/>
+      <c r="A16" s="206"/>
       <c r="B16" s="3" t="s">
         <v>623</v>
       </c>
@@ -13580,7 +13590,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="205"/>
+      <c r="A17" s="207"/>
       <c r="B17" s="3" t="s">
         <v>632</v>
       </c>
@@ -13610,7 +13620,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="203" t="s">
+      <c r="A18" s="205" t="s">
         <v>538</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -13642,7 +13652,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="204"/>
+      <c r="A19" s="206"/>
       <c r="B19" s="3" t="s">
         <v>612</v>
       </c>
@@ -13672,7 +13682,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="205"/>
+      <c r="A20" s="207"/>
       <c r="B20" s="3" t="s">
         <v>616</v>
       </c>
@@ -13702,7 +13712,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="203" t="s">
+      <c r="A21" s="205" t="s">
         <v>294</v>
       </c>
       <c r="B21" s="38" t="s">
@@ -13734,7 +13744,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="204"/>
+      <c r="A22" s="206"/>
       <c r="B22" s="3" t="s">
         <v>563</v>
       </c>
@@ -13764,7 +13774,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="204"/>
+      <c r="A23" s="206"/>
       <c r="B23" s="3" t="s">
         <v>568</v>
       </c>
@@ -13796,7 +13806,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="204"/>
+      <c r="A24" s="206"/>
       <c r="B24" s="3" t="s">
         <v>570</v>
       </c>
@@ -13826,7 +13836,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="205"/>
+      <c r="A25" s="207"/>
       <c r="B25" s="3" t="s">
         <v>634</v>
       </c>
@@ -13856,7 +13866,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="203" t="s">
+      <c r="A26" s="205" t="s">
         <v>637</v>
       </c>
       <c r="B26" s="38" t="s">
@@ -13888,7 +13898,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="204"/>
+      <c r="A27" s="206"/>
       <c r="B27" s="3" t="s">
         <v>572</v>
       </c>
@@ -13918,7 +13928,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="204"/>
+      <c r="A28" s="206"/>
       <c r="B28" s="3" t="s">
         <v>576</v>
       </c>
@@ -13950,7 +13960,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="204"/>
+      <c r="A29" s="206"/>
       <c r="B29" s="3" t="s">
         <v>579</v>
       </c>
@@ -13982,7 +13992,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="204"/>
+      <c r="A30" s="206"/>
       <c r="B30" s="3" t="s">
         <v>580</v>
       </c>
@@ -14014,7 +14024,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="204"/>
+      <c r="A31" s="206"/>
       <c r="B31" s="3" t="s">
         <v>582</v>
       </c>
@@ -14044,7 +14054,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="204"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="3" t="s">
         <v>585</v>
       </c>
@@ -14074,7 +14084,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="205"/>
+      <c r="A33" s="207"/>
       <c r="B33" s="3" t="s">
         <v>587</v>
       </c>
@@ -14104,7 +14114,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="203" t="s">
+      <c r="A34" s="205" t="s">
         <v>638</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -14136,7 +14146,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="204"/>
+      <c r="A35" s="206"/>
       <c r="B35" s="3" t="s">
         <v>589</v>
       </c>
@@ -14166,7 +14176,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="204"/>
+      <c r="A36" s="206"/>
       <c r="B36" s="3" t="s">
         <v>609</v>
       </c>
@@ -14194,7 +14204,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="204"/>
+      <c r="A37" s="206"/>
       <c r="B37" s="3" t="s">
         <v>616</v>
       </c>
@@ -14224,7 +14234,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="205"/>
+      <c r="A38" s="207"/>
       <c r="B38" s="3" t="s">
         <v>625</v>
       </c>
@@ -14252,7 +14262,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="203" t="s">
+      <c r="A39" s="205" t="s">
         <v>536</v>
       </c>
       <c r="B39" s="38" t="s">
@@ -14284,7 +14294,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="204"/>
+      <c r="A40" s="206"/>
       <c r="B40" s="3" t="s">
         <v>596</v>
       </c>
@@ -14312,7 +14322,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="204"/>
+      <c r="A41" s="206"/>
       <c r="B41" s="3" t="s">
         <v>598</v>
       </c>
@@ -14342,7 +14352,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="204"/>
+      <c r="A42" s="206"/>
       <c r="B42" s="3" t="s">
         <v>601</v>
       </c>
@@ -14372,7 +14382,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A43" s="204"/>
+      <c r="A43" s="206"/>
       <c r="B43" s="3" t="s">
         <v>603</v>
       </c>
@@ -14400,7 +14410,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="205"/>
+      <c r="A44" s="207"/>
       <c r="B44" s="30" t="s">
         <v>604</v>
       </c>

--- a/exploration/esrs_datapoints.xlsx
+++ b/exploration/esrs_datapoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitc-my.sharepoint.com/personal/zxowg46_s-cloud_uni-tuebingen_de/Documents/Thesis/esg_extraction/exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{276D0863-D6FD-4884-8A2A-6E3E35E67935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00A80B9F-830B-4093-BEDF-2002BF2B9F01}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{276D0863-D6FD-4884-8A2A-6E3E35E67935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD0EEB2-92B0-4186-8852-14A5AABEBE06}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="757">
   <si>
     <t>List of ESRS Data Points</t>
   </si>
@@ -3415,9 +3415,6 @@
     <t>discrimination , harassment , equal opportunities, diversity , inclusion</t>
   </si>
   <si>
-    <t>grievance channels, raise concerns</t>
-  </si>
-  <si>
     <t>engage, engagement, decision-making, representatives</t>
   </si>
   <si>
@@ -3425,6 +3422,12 @@
   </si>
   <si>
     <t>postive impact</t>
+  </si>
+  <si>
+    <t>adequat wages</t>
+  </si>
+  <si>
+    <t>grievance channels/machanism, raise concern(s), whistleblowing</t>
   </si>
 </sst>
 </file>
@@ -3934,7 +3937,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4438,8 +4441,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4450,6 +4453,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4465,33 +4492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4527,6 +4527,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4915,6 +4922,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5520,7 +5531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92534F0-4205-4B78-B15C-3308B949B405}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -5578,10 +5589,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="161" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="199" t="s">
         <v>702</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="191" t="s">
         <v>701</v>
       </c>
       <c r="C2" s="153" t="s">
@@ -5608,8 +5619,8 @@
       <c r="L2" s="160"/>
     </row>
     <row r="3" spans="1:12" s="100" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="192"/>
-      <c r="B3" s="198"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="192"/>
       <c r="C3" s="132" t="s">
         <v>71</v>
       </c>
@@ -5636,8 +5647,8 @@
       <c r="L3" s="107"/>
     </row>
     <row r="4" spans="1:12" s="100" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="192"/>
-      <c r="B4" s="198"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="192"/>
       <c r="C4" s="132" t="s">
         <v>71</v>
       </c>
@@ -5662,8 +5673,8 @@
       <c r="L4" s="107"/>
     </row>
     <row r="5" spans="1:12" s="152" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="193"/>
-      <c r="B5" s="199"/>
+      <c r="A5" s="201"/>
+      <c r="B5" s="193"/>
       <c r="C5" s="144" t="s">
         <v>71</v>
       </c>
@@ -5686,7 +5697,7 @@
       <c r="L5" s="151"/>
     </row>
     <row r="6" spans="1:12" s="163" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="199" t="s">
         <v>704</v>
       </c>
       <c r="B6" s="188" t="s">
@@ -5718,7 +5729,7 @@
       <c r="L6" s="160"/>
     </row>
     <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="192"/>
+      <c r="A7" s="200"/>
       <c r="B7" s="189"/>
       <c r="C7" s="132" t="s">
         <v>71</v>
@@ -5742,7 +5753,7 @@
       <c r="L7" s="107"/>
     </row>
     <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="192"/>
+      <c r="A8" s="200"/>
       <c r="B8" s="189"/>
       <c r="C8" s="132" t="s">
         <v>71</v>
@@ -5751,7 +5762,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="108"/>
-      <c r="F8" s="196" t="s">
+      <c r="F8" s="187" t="s">
         <v>662</v>
       </c>
       <c r="G8" s="104" t="s">
@@ -5768,7 +5779,7 @@
       <c r="L8" s="107"/>
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="192"/>
+      <c r="A9" s="200"/>
       <c r="B9" s="189"/>
       <c r="C9" s="132" t="s">
         <v>71</v>
@@ -5777,7 +5788,7 @@
         <v>231</v>
       </c>
       <c r="E9" s="108"/>
-      <c r="F9" s="196"/>
+      <c r="F9" s="187"/>
       <c r="G9" s="104" t="s">
         <v>663</v>
       </c>
@@ -5794,7 +5805,7 @@
       <c r="L9" s="107"/>
     </row>
     <row r="10" spans="1:12" s="165" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="193"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="190"/>
       <c r="C10" s="144" t="s">
         <v>71</v>
@@ -5820,7 +5831,7 @@
       <c r="L10" s="151"/>
     </row>
     <row r="11" spans="1:12" s="163" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="191" t="s">
+      <c r="A11" s="199" t="s">
         <v>705</v>
       </c>
       <c r="B11" s="188" t="s">
@@ -5852,7 +5863,7 @@
       <c r="L11" s="160"/>
     </row>
     <row r="12" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="192"/>
+      <c r="A12" s="200"/>
       <c r="B12" s="189"/>
       <c r="C12" s="132" t="s">
         <v>71</v>
@@ -5878,7 +5889,7 @@
       <c r="L12" s="107"/>
     </row>
     <row r="13" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="192"/>
+      <c r="A13" s="200"/>
       <c r="B13" s="189"/>
       <c r="C13" s="132" t="s">
         <v>71</v>
@@ -5889,7 +5900,7 @@
       <c r="E13" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="F13" s="204" t="s">
+      <c r="F13" s="198" t="s">
         <v>713</v>
       </c>
       <c r="G13" s="104"/>
@@ -5904,7 +5915,7 @@
       <c r="L13" s="107"/>
     </row>
     <row r="14" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="192"/>
+      <c r="A14" s="200"/>
       <c r="B14" s="189"/>
       <c r="C14" s="132" t="s">
         <v>71</v>
@@ -5915,7 +5926,7 @@
       <c r="E14" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="204"/>
+      <c r="F14" s="198"/>
       <c r="G14" s="104"/>
       <c r="H14" s="105" t="s">
         <v>29</v>
@@ -5928,7 +5939,7 @@
       <c r="L14" s="107"/>
     </row>
     <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A15" s="192"/>
+      <c r="A15" s="200"/>
       <c r="B15" s="189"/>
       <c r="C15" s="132" t="s">
         <v>71</v>
@@ -5954,7 +5965,7 @@
       <c r="L15" s="107"/>
     </row>
     <row r="16" spans="1:12" s="165" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="193"/>
+      <c r="A16" s="201"/>
       <c r="B16" s="190"/>
       <c r="C16" s="144" t="s">
         <v>71</v>
@@ -5982,7 +5993,7 @@
       <c r="L16" s="151"/>
     </row>
     <row r="17" spans="1:12" s="163" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A17" s="191" t="s">
+      <c r="A17" s="199" t="s">
         <v>706</v>
       </c>
       <c r="B17" s="188" t="s">
@@ -6012,7 +6023,7 @@
       <c r="L17" s="160"/>
     </row>
     <row r="18" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="192"/>
+      <c r="A18" s="200"/>
       <c r="B18" s="189"/>
       <c r="C18" s="132" t="s">
         <v>71</v>
@@ -6023,7 +6034,7 @@
       <c r="E18" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="F18" s="196" t="s">
+      <c r="F18" s="187" t="s">
         <v>665</v>
       </c>
       <c r="G18" s="104"/>
@@ -6038,7 +6049,7 @@
       <c r="L18" s="107"/>
     </row>
     <row r="19" spans="1:12" s="165" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="193"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="190"/>
       <c r="C19" s="144" t="s">
         <v>71</v>
@@ -6049,7 +6060,7 @@
       <c r="E19" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="200"/>
+      <c r="F19" s="194"/>
       <c r="G19" s="148"/>
       <c r="H19" s="149" t="s">
         <v>29</v>
@@ -6062,10 +6073,10 @@
       <c r="L19" s="151"/>
     </row>
     <row r="20" spans="1:12" s="163" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="191" t="s">
+      <c r="A20" s="199" t="s">
         <v>707</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="195" t="s">
         <v>718</v>
       </c>
       <c r="C20" s="153" t="s">
@@ -6092,8 +6103,8 @@
       <c r="L20" s="160"/>
     </row>
     <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="192"/>
-      <c r="B21" s="202"/>
+      <c r="A21" s="200"/>
+      <c r="B21" s="196"/>
       <c r="C21" s="132" t="s">
         <v>71</v>
       </c>
@@ -6118,8 +6129,8 @@
       <c r="L21" s="107"/>
     </row>
     <row r="22" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="192"/>
-      <c r="B22" s="202"/>
+      <c r="A22" s="200"/>
+      <c r="B22" s="196"/>
       <c r="C22" s="132" t="s">
         <v>71</v>
       </c>
@@ -6146,8 +6157,8 @@
       <c r="L22" s="107"/>
     </row>
     <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="192"/>
-      <c r="B23" s="202"/>
+      <c r="A23" s="200"/>
+      <c r="B23" s="196"/>
       <c r="C23" s="132" t="s">
         <v>71</v>
       </c>
@@ -6173,8 +6184,8 @@
       <c r="L23" s="107"/>
     </row>
     <row r="24" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="192"/>
-      <c r="B24" s="202"/>
+      <c r="A24" s="200"/>
+      <c r="B24" s="196"/>
       <c r="C24" s="132" t="s">
         <v>71</v>
       </c>
@@ -6199,8 +6210,8 @@
       <c r="L24" s="107"/>
     </row>
     <row r="25" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="192"/>
-      <c r="B25" s="202"/>
+      <c r="A25" s="200"/>
+      <c r="B25" s="196"/>
       <c r="C25" s="132" t="s">
         <v>71</v>
       </c>
@@ -6208,7 +6219,7 @@
         <v>103</v>
       </c>
       <c r="E25" s="108"/>
-      <c r="F25" s="196" t="s">
+      <c r="F25" s="187" t="s">
         <v>673</v>
       </c>
       <c r="G25" s="104"/>
@@ -6225,8 +6236,8 @@
       <c r="L25" s="107"/>
     </row>
     <row r="26" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="192"/>
-      <c r="B26" s="202"/>
+      <c r="A26" s="200"/>
+      <c r="B26" s="196"/>
       <c r="C26" s="132" t="s">
         <v>71</v>
       </c>
@@ -6234,7 +6245,7 @@
         <v>106</v>
       </c>
       <c r="E26" s="108"/>
-      <c r="F26" s="196"/>
+      <c r="F26" s="187"/>
       <c r="G26" s="104"/>
       <c r="H26" s="105" t="s">
         <v>29</v>
@@ -6249,8 +6260,8 @@
       <c r="L26" s="107"/>
     </row>
     <row r="27" spans="1:12" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="192"/>
-      <c r="B27" s="202"/>
+      <c r="A27" s="200"/>
+      <c r="B27" s="196"/>
       <c r="C27" s="132" t="s">
         <v>71</v>
       </c>
@@ -6258,7 +6269,7 @@
         <v>109</v>
       </c>
       <c r="E27" s="108"/>
-      <c r="F27" s="196" t="s">
+      <c r="F27" s="187" t="s">
         <v>674</v>
       </c>
       <c r="G27" s="104"/>
@@ -6275,8 +6286,8 @@
       <c r="L27" s="107"/>
     </row>
     <row r="28" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="192"/>
-      <c r="B28" s="202"/>
+      <c r="A28" s="200"/>
+      <c r="B28" s="196"/>
       <c r="C28" s="132" t="s">
         <v>71</v>
       </c>
@@ -6284,7 +6295,7 @@
         <v>112</v>
       </c>
       <c r="E28" s="108"/>
-      <c r="F28" s="196"/>
+      <c r="F28" s="187"/>
       <c r="G28" s="104"/>
       <c r="H28" s="105" t="s">
         <v>29</v>
@@ -6299,8 +6310,8 @@
       <c r="L28" s="107"/>
     </row>
     <row r="29" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="192"/>
-      <c r="B29" s="202"/>
+      <c r="A29" s="200"/>
+      <c r="B29" s="196"/>
       <c r="C29" s="132" t="s">
         <v>71</v>
       </c>
@@ -6324,8 +6335,8 @@
       <c r="L29" s="107"/>
     </row>
     <row r="30" spans="1:12" s="165" customFormat="1" ht="57.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="193"/>
-      <c r="B30" s="203"/>
+      <c r="A30" s="201"/>
+      <c r="B30" s="197"/>
       <c r="C30" s="144" t="s">
         <v>71</v>
       </c>
@@ -6382,7 +6393,7 @@
       <c r="L31" s="183"/>
     </row>
     <row r="32" spans="1:12" s="163" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="191" t="s">
+      <c r="A32" s="199" t="s">
         <v>721</v>
       </c>
       <c r="B32" s="188" t="s">
@@ -6412,7 +6423,7 @@
       <c r="L32" s="160"/>
     </row>
     <row r="33" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A33" s="192"/>
+      <c r="A33" s="200"/>
       <c r="B33" s="189"/>
       <c r="C33" s="132" t="s">
         <v>71</v>
@@ -6440,7 +6451,7 @@
       <c r="L33" s="107"/>
     </row>
     <row r="34" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A34" s="192"/>
+      <c r="A34" s="200"/>
       <c r="B34" s="189"/>
       <c r="C34" s="132" t="s">
         <v>71</v>
@@ -6464,7 +6475,7 @@
       <c r="L34" s="107"/>
     </row>
     <row r="35" spans="1:12" s="165" customFormat="1" ht="71.650000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="193"/>
+      <c r="A35" s="201"/>
       <c r="B35" s="190"/>
       <c r="C35" s="144" t="s">
         <v>71</v>
@@ -6488,7 +6499,7 @@
       <c r="L35" s="151"/>
     </row>
     <row r="36" spans="1:12" s="163" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="191" t="s">
+      <c r="A36" s="199" t="s">
         <v>722</v>
       </c>
       <c r="B36" s="188" t="s">
@@ -6518,7 +6529,7 @@
       <c r="L36" s="160"/>
     </row>
     <row r="37" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A37" s="192"/>
+      <c r="A37" s="200"/>
       <c r="B37" s="189"/>
       <c r="C37" s="132" t="s">
         <v>71</v>
@@ -6544,7 +6555,7 @@
       <c r="L37" s="107"/>
     </row>
     <row r="38" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A38" s="192"/>
+      <c r="A38" s="200"/>
       <c r="B38" s="189"/>
       <c r="C38" s="132" t="s">
         <v>71</v>
@@ -6569,7 +6580,7 @@
       <c r="L38" s="107"/>
     </row>
     <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="192"/>
+      <c r="A39" s="200"/>
       <c r="B39" s="189"/>
       <c r="C39" s="132" t="s">
         <v>71</v>
@@ -6597,7 +6608,7 @@
       <c r="L39" s="107"/>
     </row>
     <row r="40" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A40" s="192"/>
+      <c r="A40" s="200"/>
       <c r="B40" s="189"/>
       <c r="C40" s="132" t="s">
         <v>71</v>
@@ -6625,7 +6636,7 @@
       <c r="L40" s="107"/>
     </row>
     <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="192"/>
+      <c r="A41" s="200"/>
       <c r="B41" s="189"/>
       <c r="C41" s="132" t="s">
         <v>71</v>
@@ -6651,7 +6662,7 @@
       <c r="L41" s="107"/>
     </row>
     <row r="42" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A42" s="192"/>
+      <c r="A42" s="200"/>
       <c r="B42" s="189"/>
       <c r="C42" s="132" t="s">
         <v>71</v>
@@ -6677,7 +6688,7 @@
       <c r="L42" s="107"/>
     </row>
     <row r="43" spans="1:12" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="192"/>
+      <c r="A43" s="200"/>
       <c r="B43" s="189"/>
       <c r="C43" s="132" t="s">
         <v>71</v>
@@ -6686,7 +6697,7 @@
         <v>235</v>
       </c>
       <c r="E43" s="108"/>
-      <c r="F43" s="196" t="s">
+      <c r="F43" s="187" t="s">
         <v>732</v>
       </c>
       <c r="G43" s="104"/>
@@ -6701,7 +6712,7 @@
       <c r="L43" s="107"/>
     </row>
     <row r="44" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="192"/>
+      <c r="A44" s="200"/>
       <c r="B44" s="189"/>
       <c r="C44" s="132" t="s">
         <v>71</v>
@@ -6710,7 +6721,7 @@
         <v>238</v>
       </c>
       <c r="E44" s="108"/>
-      <c r="F44" s="196"/>
+      <c r="F44" s="187"/>
       <c r="G44" s="104"/>
       <c r="H44" s="105" t="s">
         <v>29</v>
@@ -6723,7 +6734,7 @@
       <c r="L44" s="107"/>
     </row>
     <row r="45" spans="1:12" s="165" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="193"/>
+      <c r="A45" s="201"/>
       <c r="B45" s="190"/>
       <c r="C45" s="144" t="s">
         <v>71</v>
@@ -6732,7 +6743,7 @@
         <v>241</v>
       </c>
       <c r="E45" s="146"/>
-      <c r="F45" s="200"/>
+      <c r="F45" s="194"/>
       <c r="G45" s="148"/>
       <c r="H45" s="149" t="s">
         <v>29</v>
@@ -6745,7 +6756,7 @@
       <c r="L45" s="151"/>
     </row>
     <row r="46" spans="1:12" s="163" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A46" s="191" t="s">
+      <c r="A46" s="199" t="s">
         <v>723</v>
       </c>
       <c r="B46" s="188" t="s">
@@ -6775,7 +6786,7 @@
       <c r="L46" s="160"/>
     </row>
     <row r="47" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A47" s="192"/>
+      <c r="A47" s="200"/>
       <c r="B47" s="189"/>
       <c r="C47" s="132" t="s">
         <v>71</v>
@@ -6801,7 +6812,7 @@
       <c r="L47" s="107"/>
     </row>
     <row r="48" spans="1:12" s="165" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="193"/>
+      <c r="A48" s="201"/>
       <c r="B48" s="190"/>
       <c r="C48" s="144" t="s">
         <v>71</v>
@@ -6825,7 +6836,7 @@
       <c r="L48" s="151"/>
     </row>
     <row r="49" spans="1:12" s="163" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A49" s="191" t="s">
+      <c r="A49" s="199" t="s">
         <v>724</v>
       </c>
       <c r="B49" s="188" t="s">
@@ -6855,7 +6866,7 @@
       <c r="L49" s="160"/>
     </row>
     <row r="50" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="192"/>
+      <c r="A50" s="200"/>
       <c r="B50" s="189"/>
       <c r="C50" s="132" t="s">
         <v>71</v>
@@ -6880,7 +6891,7 @@
       <c r="L50" s="107"/>
     </row>
     <row r="51" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A51" s="192"/>
+      <c r="A51" s="200"/>
       <c r="B51" s="189"/>
       <c r="C51" s="132" t="s">
         <v>71</v>
@@ -6904,7 +6915,7 @@
       <c r="L51" s="107"/>
     </row>
     <row r="52" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A52" s="192"/>
+      <c r="A52" s="200"/>
       <c r="B52" s="189"/>
       <c r="C52" s="132" t="s">
         <v>71</v>
@@ -6930,7 +6941,7 @@
       <c r="L52" s="107"/>
     </row>
     <row r="53" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A53" s="192"/>
+      <c r="A53" s="200"/>
       <c r="B53" s="189"/>
       <c r="C53" s="132" t="s">
         <v>71</v>
@@ -6956,7 +6967,7 @@
       <c r="L53" s="107"/>
     </row>
     <row r="54" spans="1:12" s="165" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="193"/>
+      <c r="A54" s="201"/>
       <c r="B54" s="190"/>
       <c r="C54" s="144" t="s">
         <v>71</v>
@@ -7012,7 +7023,7 @@
       <c r="L55" s="123"/>
     </row>
     <row r="56" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="194" t="s">
+      <c r="A56" s="202" t="s">
         <v>735</v>
       </c>
       <c r="B56" s="189" t="s">
@@ -7027,7 +7038,7 @@
       <c r="E56" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F56" s="196" t="s">
+      <c r="F56" s="187" t="s">
         <v>699</v>
       </c>
       <c r="G56" s="116" t="s">
@@ -7046,7 +7057,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="192"/>
+      <c r="A57" s="200"/>
       <c r="B57" s="189"/>
       <c r="C57" s="132" t="s">
         <v>71</v>
@@ -7057,7 +7068,7 @@
       <c r="E57" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F57" s="196"/>
+      <c r="F57" s="187"/>
       <c r="G57" s="119"/>
       <c r="H57" s="117" t="s">
         <v>28</v>
@@ -7072,7 +7083,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="192"/>
+      <c r="A58" s="200"/>
       <c r="B58" s="189"/>
       <c r="C58" s="132" t="s">
         <v>71</v>
@@ -7083,7 +7094,7 @@
       <c r="E58" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F58" s="196"/>
+      <c r="F58" s="187"/>
       <c r="G58" s="119"/>
       <c r="H58" s="117" t="s">
         <v>28</v>
@@ -7098,7 +7109,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="192"/>
+      <c r="A59" s="200"/>
       <c r="B59" s="189"/>
       <c r="C59" s="132" t="s">
         <v>71</v>
@@ -7109,7 +7120,7 @@
       <c r="E59" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F59" s="196"/>
+      <c r="F59" s="187"/>
       <c r="G59" s="119"/>
       <c r="H59" s="117" t="s">
         <v>28</v>
@@ -7124,7 +7135,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A60" s="192"/>
+      <c r="A60" s="200"/>
       <c r="B60" s="189"/>
       <c r="C60" s="132" t="s">
         <v>71</v>
@@ -7135,7 +7146,7 @@
       <c r="E60" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F60" s="196"/>
+      <c r="F60" s="187"/>
       <c r="G60" s="119"/>
       <c r="H60" s="117" t="s">
         <v>28</v>
@@ -7150,7 +7161,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A61" s="195"/>
+      <c r="A61" s="203"/>
       <c r="B61" s="189"/>
       <c r="C61" s="132" t="s">
         <v>71</v>
@@ -7182,6 +7193,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A30"/>
     <mergeCell ref="F56:F60"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B56:B61"/>
@@ -7198,17 +7220,6 @@
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A30"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D2:D13 D15:D18 D20:D28 D30:D54 D56:D60">
@@ -7321,8 +7332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442CA99-AF6D-4997-8E84-42BB9E92AEF4}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7345,126 +7356,126 @@
         <v>746</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="185" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="185" t="s">
+    <row r="2" spans="1:6" s="216" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="216" t="s">
         <v>702</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="217" t="s">
         <v>701</v>
       </c>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="218" t="s">
         <v>703</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="216" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="216" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="216" t="s">
+        <v>704</v>
+      </c>
+      <c r="B3" s="217" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="217" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="216" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="216" t="s">
+        <v>705</v>
+      </c>
+      <c r="B4" s="217" t="s">
+        <v>714</v>
+      </c>
+      <c r="C4" s="217" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="216" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="216" t="s">
+        <v>706</v>
+      </c>
+      <c r="B5" s="217" t="s">
+        <v>716</v>
+      </c>
+      <c r="C5" s="217" t="s">
+        <v>717</v>
+      </c>
+      <c r="F5" s="216" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="185" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="185" t="s">
-        <v>704</v>
-      </c>
-      <c r="B3" s="186" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="186" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="185" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="185" t="s">
-        <v>705</v>
-      </c>
-      <c r="B4" s="186" t="s">
-        <v>714</v>
-      </c>
-      <c r="C4" s="186" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>706</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="F5" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="185" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="185" t="s">
+    <row r="6" spans="1:6" s="216" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="216" t="s">
         <v>707</v>
       </c>
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="217" t="s">
         <v>718</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="217" t="s">
         <v>719</v>
       </c>
-      <c r="F6" s="185" t="s">
+      <c r="F6" s="216" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="185" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="185" t="s">
+    <row r="7" spans="1:6" s="216" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="216" t="s">
         <v>708</v>
       </c>
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="217" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="217" t="s">
         <v>720</v>
       </c>
-      <c r="F7" s="186" t="s">
+      <c r="F7" s="217" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="185" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="185" t="s">
+    <row r="8" spans="1:6" s="216" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="216" t="s">
         <v>721</v>
       </c>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="217" t="s">
         <v>728</v>
       </c>
-      <c r="C8" s="186" t="s">
+      <c r="C8" s="217" t="s">
         <v>726</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="217" t="s">
         <v>727</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="216" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="185" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="185" t="s">
+    <row r="9" spans="1:6" s="216" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="216" t="s">
         <v>722</v>
       </c>
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="217" t="s">
         <v>682</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="217" t="s">
         <v>733</v>
       </c>
-      <c r="F9" s="185" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="185" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A10" s="185" t="s">
+      <c r="F9" s="216" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="216" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A10" s="216" t="s">
         <v>723</v>
       </c>
-      <c r="B10" s="186" t="s">
+      <c r="B10" s="217" t="s">
         <v>736</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="217" t="s">
         <v>737</v>
       </c>
-      <c r="F10" s="185" t="s">
+      <c r="F10" s="216" t="s">
         <v>749</v>
       </c>
     </row>
@@ -7485,7 +7496,7 @@
         <v>741</v>
       </c>
       <c r="F11" s="185" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="185" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -7498,18 +7509,21 @@
       <c r="C12" s="186" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="185" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A13" s="185" t="s">
+      <c r="F12" s="185" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="216" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A13" s="216" t="s">
         <v>735</v>
       </c>
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="217" t="s">
         <v>744</v>
       </c>
-      <c r="C13" s="186" t="s">
+      <c r="C13" s="217" t="s">
         <v>743</v>
       </c>
-      <c r="F13" s="185" t="s">
+      <c r="F13" s="216" t="s">
         <v>750</v>
       </c>
     </row>
@@ -7582,7 +7596,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="32.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="204" t="s">
         <v>289</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -7615,7 +7629,7 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="206"/>
+      <c r="A3" s="205"/>
       <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
@@ -7644,7 +7658,7 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="206"/>
+      <c r="A4" s="205"/>
       <c r="B4" s="3" t="s">
         <v>95</v>
       </c>
@@ -7675,7 +7689,7 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="206"/>
+      <c r="A5" s="205"/>
       <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
@@ -7704,7 +7718,7 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="206"/>
+      <c r="A6" s="205"/>
       <c r="B6" s="3" t="s">
         <v>117</v>
       </c>
@@ -7735,7 +7749,7 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="206"/>
+      <c r="A7" s="205"/>
       <c r="B7" s="3" t="s">
         <v>218</v>
       </c>
@@ -7766,7 +7780,7 @@
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="207"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="3" t="s">
         <v>222</v>
       </c>
@@ -7795,7 +7809,7 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="205" t="s">
+      <c r="A9" s="204" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -7828,7 +7842,7 @@
       <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A10" s="206"/>
+      <c r="A10" s="205"/>
       <c r="B10" s="3" t="s">
         <v>114</v>
       </c>
@@ -7859,7 +7873,7 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="206"/>
+      <c r="A11" s="205"/>
       <c r="B11" s="3" t="s">
         <v>201</v>
       </c>
@@ -7890,7 +7904,7 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="206"/>
+      <c r="A12" s="205"/>
       <c r="B12" s="3" t="s">
         <v>211</v>
       </c>
@@ -7921,7 +7935,7 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="206"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="3" t="s">
         <v>215</v>
       </c>
@@ -7952,7 +7966,7 @@
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="206"/>
+      <c r="A14" s="205"/>
       <c r="B14" s="3" t="s">
         <v>225</v>
       </c>
@@ -7983,7 +7997,7 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="206"/>
+      <c r="A15" s="205"/>
       <c r="B15" s="3" t="s">
         <v>228</v>
       </c>
@@ -8012,7 +8026,7 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" s="29" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="207"/>
+      <c r="A16" s="206"/>
       <c r="B16" s="30" t="s">
         <v>230</v>
       </c>
@@ -8043,7 +8057,7 @@
       <c r="M16" s="35"/>
     </row>
     <row r="17" spans="1:13" s="44" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="205" t="s">
+      <c r="A17" s="204" t="s">
         <v>297</v>
       </c>
       <c r="B17" s="38" t="s">
@@ -8076,7 +8090,7 @@
       <c r="M17" s="43"/>
     </row>
     <row r="18" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="206"/>
+      <c r="A18" s="205"/>
       <c r="B18" s="3" t="s">
         <v>208</v>
       </c>
@@ -8107,7 +8121,7 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="207"/>
+      <c r="A19" s="206"/>
       <c r="B19" s="3" t="s">
         <v>211</v>
       </c>
@@ -8138,7 +8152,7 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="205" t="s">
+      <c r="A20" s="204" t="s">
         <v>294</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -8171,7 +8185,7 @@
       <c r="M20" s="43"/>
     </row>
     <row r="21" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="206"/>
+      <c r="A21" s="205"/>
       <c r="B21" s="3" t="s">
         <v>122</v>
       </c>
@@ -8202,7 +8216,7 @@
       <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="206"/>
+      <c r="A22" s="205"/>
       <c r="B22" s="3" t="s">
         <v>125</v>
       </c>
@@ -8233,7 +8247,7 @@
       <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="206"/>
+      <c r="A23" s="205"/>
       <c r="B23" s="3" t="s">
         <v>128</v>
       </c>
@@ -8264,7 +8278,7 @@
       <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="206"/>
+      <c r="A24" s="205"/>
       <c r="B24" s="3" t="s">
         <v>131</v>
       </c>
@@ -8297,7 +8311,7 @@
       <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="206"/>
+      <c r="A25" s="205"/>
       <c r="B25" s="3" t="s">
         <v>276</v>
       </c>
@@ -8330,7 +8344,7 @@
       <c r="M25" s="16"/>
     </row>
     <row r="26" spans="1:13" s="29" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A26" s="207"/>
+      <c r="A26" s="206"/>
       <c r="B26" s="30" t="s">
         <v>280</v>
       </c>
@@ -8361,7 +8375,7 @@
       <c r="M26" s="35"/>
     </row>
     <row r="27" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="206" t="s">
+      <c r="A27" s="205" t="s">
         <v>292</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -8394,7 +8408,7 @@
       <c r="M27" s="16"/>
     </row>
     <row r="28" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="206"/>
+      <c r="A28" s="205"/>
       <c r="B28" s="3" t="s">
         <v>105</v>
       </c>
@@ -8425,7 +8439,7 @@
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="207"/>
+      <c r="A29" s="206"/>
       <c r="B29" s="30" t="s">
         <v>134</v>
       </c>
@@ -8452,7 +8466,7 @@
       <c r="M29" s="35"/>
     </row>
     <row r="30" spans="1:13" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="206" t="s">
+      <c r="A30" s="205" t="s">
         <v>293</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -8485,7 +8499,7 @@
       <c r="M30" s="16"/>
     </row>
     <row r="31" spans="1:13" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="206"/>
+      <c r="A31" s="205"/>
       <c r="B31" s="3" t="s">
         <v>111</v>
       </c>
@@ -8516,7 +8530,7 @@
       <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:13" s="29" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="207"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="30" t="s">
         <v>134</v>
       </c>
@@ -8580,7 +8594,7 @@
       <c r="M33" s="50"/>
     </row>
     <row r="34" spans="1:13" s="44" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="205" t="s">
+      <c r="A34" s="204" t="s">
         <v>299</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -8611,7 +8625,7 @@
       <c r="M34" s="43"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35" s="206"/>
+      <c r="A35" s="205"/>
       <c r="B35" s="3" t="s">
         <v>141</v>
       </c>
@@ -8642,7 +8656,7 @@
       <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A36" s="206"/>
+      <c r="A36" s="205"/>
       <c r="B36" s="3" t="s">
         <v>145</v>
       </c>
@@ -8671,7 +8685,7 @@
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" s="29" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A37" s="207"/>
+      <c r="A37" s="206"/>
       <c r="B37" s="30" t="s">
         <v>148</v>
       </c>
@@ -8700,7 +8714,7 @@
       <c r="M37" s="35"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A38" s="205" t="s">
+      <c r="A38" s="204" t="s">
         <v>286</v>
       </c>
       <c r="B38" s="38" t="s">
@@ -8733,7 +8747,7 @@
       <c r="M38" s="43"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39" s="206"/>
+      <c r="A39" s="205"/>
       <c r="B39" s="3" t="s">
         <v>155</v>
       </c>
@@ -8764,7 +8778,7 @@
       <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="206"/>
+      <c r="A40" s="205"/>
       <c r="B40" s="3" t="s">
         <v>158</v>
       </c>
@@ -8797,7 +8811,7 @@
       <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A41" s="206"/>
+      <c r="A41" s="205"/>
       <c r="B41" s="3" t="s">
         <v>161</v>
       </c>
@@ -8830,7 +8844,7 @@
       <c r="M41" s="16"/>
     </row>
     <row r="42" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="206"/>
+      <c r="A42" s="205"/>
       <c r="B42" s="3" t="s">
         <v>165</v>
       </c>
@@ -8863,7 +8877,7 @@
       <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="206"/>
+      <c r="A43" s="205"/>
       <c r="B43" s="3" t="s">
         <v>169</v>
       </c>
@@ -8894,7 +8908,7 @@
       <c r="M43" s="16"/>
     </row>
     <row r="44" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A44" s="206"/>
+      <c r="A44" s="205"/>
       <c r="B44" s="3" t="s">
         <v>172</v>
       </c>
@@ -8925,7 +8939,7 @@
       <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="206"/>
+      <c r="A45" s="205"/>
       <c r="B45" s="3" t="s">
         <v>234</v>
       </c>
@@ -8954,7 +8968,7 @@
       <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A46" s="206"/>
+      <c r="A46" s="205"/>
       <c r="B46" s="3" t="s">
         <v>237</v>
       </c>
@@ -8983,7 +8997,7 @@
       <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:13" s="29" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A47" s="207"/>
+      <c r="A47" s="206"/>
       <c r="B47" s="30" t="s">
         <v>240</v>
       </c>
@@ -9012,7 +9026,7 @@
       <c r="M47" s="35"/>
     </row>
     <row r="48" spans="1:13" s="44" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A48" s="205" t="s">
+      <c r="A48" s="204" t="s">
         <v>287</v>
       </c>
       <c r="B48" s="38" t="s">
@@ -9045,7 +9059,7 @@
       <c r="M48" s="43"/>
     </row>
     <row r="49" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A49" s="206"/>
+      <c r="A49" s="205"/>
       <c r="B49" s="3" t="s">
         <v>179</v>
       </c>
@@ -9076,7 +9090,7 @@
       <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="206"/>
+      <c r="A50" s="205"/>
       <c r="B50" s="3" t="s">
         <v>183</v>
       </c>
@@ -9107,7 +9121,7 @@
       <c r="M50" s="16"/>
     </row>
     <row r="51" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="206"/>
+      <c r="A51" s="205"/>
       <c r="B51" s="3" t="s">
         <v>186</v>
       </c>
@@ -9136,7 +9150,7 @@
       <c r="M51" s="16"/>
     </row>
     <row r="52" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="206"/>
+      <c r="A52" s="205"/>
       <c r="B52" s="3" t="s">
         <v>189</v>
       </c>
@@ -9167,7 +9181,7 @@
       <c r="M52" s="16"/>
     </row>
     <row r="53" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A53" s="206"/>
+      <c r="A53" s="205"/>
       <c r="B53" s="3" t="s">
         <v>193</v>
       </c>
@@ -9198,7 +9212,7 @@
       <c r="M53" s="16"/>
     </row>
     <row r="54" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="206"/>
+      <c r="A54" s="205"/>
       <c r="B54" s="3" t="s">
         <v>196</v>
       </c>
@@ -9229,7 +9243,7 @@
       <c r="M54" s="16"/>
     </row>
     <row r="55" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="206"/>
+      <c r="A55" s="205"/>
       <c r="B55" s="3" t="s">
         <v>198</v>
       </c>
@@ -9260,7 +9274,7 @@
       <c r="M55" s="16"/>
     </row>
     <row r="56" spans="1:13" s="29" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="207"/>
+      <c r="A56" s="206"/>
       <c r="B56" s="30" t="s">
         <v>205</v>
       </c>
@@ -9322,7 +9336,7 @@
       <c r="M57" s="50"/>
     </row>
     <row r="58" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A58" s="205" t="s">
+      <c r="A58" s="204" t="s">
         <v>290</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -9357,7 +9371,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A59" s="206"/>
+      <c r="A59" s="205"/>
       <c r="B59" s="3" t="s">
         <v>252</v>
       </c>
@@ -9390,7 +9404,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A60" s="206"/>
+      <c r="A60" s="205"/>
       <c r="B60" s="3" t="s">
         <v>255</v>
       </c>
@@ -9423,7 +9437,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A61" s="206"/>
+      <c r="A61" s="205"/>
       <c r="B61" s="3" t="s">
         <v>258</v>
       </c>
@@ -9456,7 +9470,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A62" s="206"/>
+      <c r="A62" s="205"/>
       <c r="B62" s="3" t="s">
         <v>261</v>
       </c>
@@ -9489,7 +9503,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A63" s="206"/>
+      <c r="A63" s="205"/>
       <c r="B63" s="3" t="s">
         <v>264</v>
       </c>
@@ -9522,7 +9536,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A64" s="206"/>
+      <c r="A64" s="205"/>
       <c r="B64" s="3" t="s">
         <v>266</v>
       </c>
@@ -9555,7 +9569,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A65" s="206"/>
+      <c r="A65" s="205"/>
       <c r="B65" s="3" t="s">
         <v>268</v>
       </c>
@@ -9588,7 +9602,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A66" s="206"/>
+      <c r="A66" s="205"/>
       <c r="B66" s="3" t="s">
         <v>270</v>
       </c>
@@ -9621,7 +9635,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" s="29" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A67" s="207"/>
+      <c r="A67" s="206"/>
       <c r="B67" s="9" t="s">
         <v>272</v>
       </c>
@@ -9860,7 +9874,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="208" t="s">
         <v>423</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -9893,7 +9907,7 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="209"/>
+      <c r="A3" s="208"/>
       <c r="B3" s="3" t="s">
         <v>306</v>
       </c>
@@ -9922,7 +9936,7 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="209"/>
+      <c r="A4" s="208"/>
       <c r="B4" s="3" t="s">
         <v>308</v>
       </c>
@@ -9951,7 +9965,7 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="209"/>
+      <c r="A5" s="208"/>
       <c r="B5" s="3" t="s">
         <v>319</v>
       </c>
@@ -9980,7 +9994,7 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="209"/>
+      <c r="A6" s="208"/>
       <c r="B6" s="3" t="s">
         <v>324</v>
       </c>
@@ -10011,7 +10025,7 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="209"/>
+      <c r="A7" s="208"/>
       <c r="B7" s="3" t="s">
         <v>402</v>
       </c>
@@ -10042,7 +10056,7 @@
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="209"/>
+      <c r="A8" s="208"/>
       <c r="B8" s="3" t="s">
         <v>406</v>
       </c>
@@ -10071,7 +10085,7 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="209"/>
+      <c r="A9" s="208"/>
       <c r="B9" s="3" t="s">
         <v>413</v>
       </c>
@@ -10100,7 +10114,7 @@
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="209"/>
+      <c r="A10" s="208"/>
       <c r="B10" s="3" t="s">
         <v>415</v>
       </c>
@@ -10129,7 +10143,7 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="209"/>
+      <c r="A11" s="208"/>
       <c r="B11" s="3" t="s">
         <v>419</v>
       </c>
@@ -10158,7 +10172,7 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="210"/>
+      <c r="A12" s="209"/>
       <c r="B12" s="3" t="s">
         <v>421</v>
       </c>
@@ -10187,7 +10201,7 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" s="38" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="208" t="s">
+      <c r="A13" s="207" t="s">
         <v>424</v>
       </c>
       <c r="B13" s="38" t="s">
@@ -10220,7 +10234,7 @@
       <c r="M13" s="43"/>
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="210"/>
+      <c r="A14" s="209"/>
       <c r="B14" s="3" t="s">
         <v>336</v>
       </c>
@@ -10251,7 +10265,7 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" s="38" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="208" t="s">
+      <c r="A15" s="207" t="s">
         <v>425</v>
       </c>
       <c r="B15" s="38" t="s">
@@ -10284,7 +10298,7 @@
       <c r="M15" s="43"/>
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="209"/>
+      <c r="A16" s="208"/>
       <c r="B16" s="3" t="s">
         <v>322</v>
       </c>
@@ -10315,7 +10329,7 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="209"/>
+      <c r="A17" s="208"/>
       <c r="B17" s="3" t="s">
         <v>379</v>
       </c>
@@ -10346,7 +10360,7 @@
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="209"/>
+      <c r="A18" s="208"/>
       <c r="B18" s="3" t="s">
         <v>389</v>
       </c>
@@ -10377,7 +10391,7 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="209"/>
+      <c r="A19" s="208"/>
       <c r="B19" s="3" t="s">
         <v>392</v>
       </c>
@@ -10408,7 +10422,7 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="209"/>
+      <c r="A20" s="208"/>
       <c r="B20" s="3" t="s">
         <v>396</v>
       </c>
@@ -10437,7 +10451,7 @@
       <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="210"/>
+      <c r="A21" s="209"/>
       <c r="B21" s="3" t="s">
         <v>409</v>
       </c>
@@ -10468,7 +10482,7 @@
       <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" s="38" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="208" t="s">
+      <c r="A22" s="207" t="s">
         <v>426</v>
       </c>
       <c r="B22" s="38" t="s">
@@ -10501,7 +10515,7 @@
       <c r="M22" s="43"/>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="209"/>
+      <c r="A23" s="208"/>
       <c r="B23" s="3" t="s">
         <v>386</v>
       </c>
@@ -10532,7 +10546,7 @@
       <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="210"/>
+      <c r="A24" s="209"/>
       <c r="B24" s="3" t="s">
         <v>389</v>
       </c>
@@ -10563,7 +10577,7 @@
       <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13" s="38" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="211" t="s">
+      <c r="A25" s="210" t="s">
         <v>294</v>
       </c>
       <c r="B25" s="38" t="s">
@@ -10596,7 +10610,7 @@
       <c r="M25" s="42"/>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="212"/>
+      <c r="A26" s="211"/>
       <c r="B26" s="3" t="s">
         <v>329</v>
       </c>
@@ -10627,7 +10641,7 @@
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="212"/>
+      <c r="A27" s="211"/>
       <c r="B27" s="3" t="s">
         <v>335</v>
       </c>
@@ -10658,7 +10672,7 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="212"/>
+      <c r="A28" s="211"/>
       <c r="B28" s="3" t="s">
         <v>339</v>
       </c>
@@ -10691,7 +10705,7 @@
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="212"/>
+      <c r="A29" s="211"/>
       <c r="B29" s="3" t="s">
         <v>340</v>
       </c>
@@ -10722,7 +10736,7 @@
       <c r="M29" s="16"/>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="213"/>
+      <c r="A30" s="212"/>
       <c r="B30" s="3" t="s">
         <v>411</v>
       </c>
@@ -10753,7 +10767,7 @@
       <c r="M30" s="70"/>
     </row>
     <row r="31" spans="1:13" s="38" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="208" t="s">
+      <c r="A31" s="207" t="s">
         <v>427</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -10786,7 +10800,7 @@
       <c r="M31" s="42"/>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="209"/>
+      <c r="A32" s="208"/>
       <c r="B32" s="3" t="s">
         <v>343</v>
       </c>
@@ -10817,7 +10831,7 @@
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="209"/>
+      <c r="A33" s="208"/>
       <c r="B33" s="3" t="s">
         <v>346</v>
       </c>
@@ -10848,7 +10862,7 @@
       <c r="M33" s="16"/>
     </row>
     <row r="34" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="209"/>
+      <c r="A34" s="208"/>
       <c r="B34" s="3" t="s">
         <v>348</v>
       </c>
@@ -10881,7 +10895,7 @@
       <c r="M34" s="16"/>
     </row>
     <row r="35" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="209"/>
+      <c r="A35" s="208"/>
       <c r="B35" s="3" t="s">
         <v>349</v>
       </c>
@@ -10914,7 +10928,7 @@
       <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="209"/>
+      <c r="A36" s="208"/>
       <c r="B36" s="3" t="s">
         <v>352</v>
       </c>
@@ -10947,7 +10961,7 @@
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="209"/>
+      <c r="A37" s="208"/>
       <c r="B37" s="3" t="s">
         <v>353</v>
       </c>
@@ -10978,7 +10992,7 @@
       <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="209"/>
+      <c r="A38" s="208"/>
       <c r="B38" s="3" t="s">
         <v>356</v>
       </c>
@@ -11009,7 +11023,7 @@
       <c r="M38" s="16"/>
     </row>
     <row r="39" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="210"/>
+      <c r="A39" s="209"/>
       <c r="B39" s="3" t="s">
         <v>358</v>
       </c>
@@ -11073,7 +11087,7 @@
       <c r="M40" s="43"/>
     </row>
     <row r="41" spans="1:13" s="38" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="208" t="s">
+      <c r="A41" s="207" t="s">
         <v>429</v>
       </c>
       <c r="B41" s="38" t="s">
@@ -11106,7 +11120,7 @@
       <c r="M41" s="43"/>
     </row>
     <row r="42" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="209"/>
+      <c r="A42" s="208"/>
       <c r="B42" s="3" t="s">
         <v>384</v>
       </c>
@@ -11135,7 +11149,7 @@
       <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="209"/>
+      <c r="A43" s="208"/>
       <c r="B43" s="3" t="s">
         <v>389</v>
       </c>
@@ -11166,7 +11180,7 @@
       <c r="M43" s="16"/>
     </row>
     <row r="44" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="210"/>
+      <c r="A44" s="209"/>
       <c r="B44" s="3" t="s">
         <v>399</v>
       </c>
@@ -11195,7 +11209,7 @@
       <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:13" s="38" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="208" t="s">
+      <c r="A45" s="207" t="s">
         <v>430</v>
       </c>
       <c r="B45" s="38" t="s">
@@ -11228,7 +11242,7 @@
       <c r="M45" s="43"/>
     </row>
     <row r="46" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="209"/>
+      <c r="A46" s="208"/>
       <c r="B46" s="3" t="s">
         <v>369</v>
       </c>
@@ -11257,7 +11271,7 @@
       <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="209"/>
+      <c r="A47" s="208"/>
       <c r="B47" s="3" t="s">
         <v>371</v>
       </c>
@@ -11288,7 +11302,7 @@
       <c r="M47" s="16"/>
     </row>
     <row r="48" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="209"/>
+      <c r="A48" s="208"/>
       <c r="B48" s="3" t="s">
         <v>373</v>
       </c>
@@ -11319,7 +11333,7 @@
       <c r="M48" s="16"/>
     </row>
     <row r="49" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="209"/>
+      <c r="A49" s="208"/>
       <c r="B49" s="3" t="s">
         <v>376</v>
       </c>
@@ -11350,7 +11364,7 @@
       <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="209"/>
+      <c r="A50" s="208"/>
       <c r="B50" s="3" t="s">
         <v>378</v>
       </c>
@@ -11555,7 +11569,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="213" t="s">
         <v>531</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -11588,7 +11602,7 @@
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="215"/>
+      <c r="A3" s="214"/>
       <c r="B3" s="3" t="s">
         <v>490</v>
       </c>
@@ -11619,7 +11633,7 @@
       <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="215"/>
+      <c r="A4" s="214"/>
       <c r="B4" s="3" t="s">
         <v>491</v>
       </c>
@@ -11650,7 +11664,7 @@
       <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="215"/>
+      <c r="A5" s="214"/>
       <c r="B5" s="3" t="s">
         <v>494</v>
       </c>
@@ -11679,7 +11693,7 @@
       <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="29.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="215"/>
+      <c r="A6" s="214"/>
       <c r="B6" s="3" t="s">
         <v>495</v>
       </c>
@@ -11708,7 +11722,7 @@
       <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="215"/>
+      <c r="A7" s="214"/>
       <c r="B7" s="3" t="s">
         <v>496</v>
       </c>
@@ -11739,7 +11753,7 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="216"/>
+      <c r="A8" s="215"/>
       <c r="B8" s="3" t="s">
         <v>530</v>
       </c>
@@ -11768,7 +11782,7 @@
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="214" t="s">
+      <c r="A9" s="213" t="s">
         <v>537</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -11801,7 +11815,7 @@
       <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="215"/>
+      <c r="A10" s="214"/>
       <c r="B10" s="3" t="s">
         <v>519</v>
       </c>
@@ -11832,7 +11846,7 @@
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="215"/>
+      <c r="A11" s="214"/>
       <c r="B11" s="3" t="s">
         <v>522</v>
       </c>
@@ -11863,7 +11877,7 @@
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="215"/>
+      <c r="A12" s="214"/>
       <c r="B12" s="3" t="s">
         <v>523</v>
       </c>
@@ -11894,7 +11908,7 @@
       <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="215"/>
+      <c r="A13" s="214"/>
       <c r="B13" s="3" t="s">
         <v>524</v>
       </c>
@@ -11923,7 +11937,7 @@
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="215"/>
+      <c r="A14" s="214"/>
       <c r="B14" s="3" t="s">
         <v>526</v>
       </c>
@@ -11954,7 +11968,7 @@
       <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="216"/>
+      <c r="A15" s="215"/>
       <c r="B15" s="3" t="s">
         <v>528</v>
       </c>
@@ -11985,7 +11999,7 @@
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="213" t="s">
         <v>538</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -12018,7 +12032,7 @@
       <c r="M16" s="42"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="215"/>
+      <c r="A17" s="214"/>
       <c r="B17" s="3" t="s">
         <v>521</v>
       </c>
@@ -12049,7 +12063,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="215"/>
+      <c r="A18" s="214"/>
       <c r="B18" s="3" t="s">
         <v>522</v>
       </c>
@@ -12080,7 +12094,7 @@
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="216"/>
+      <c r="A19" s="215"/>
       <c r="B19" s="3" t="s">
         <v>527</v>
       </c>
@@ -12109,7 +12123,7 @@
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" s="44" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="213" t="s">
         <v>532</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -12140,7 +12154,7 @@
       <c r="M20" s="42"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="215"/>
+      <c r="A21" s="214"/>
       <c r="B21" s="3" t="s">
         <v>499</v>
       </c>
@@ -12171,7 +12185,7 @@
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="216"/>
+      <c r="A22" s="215"/>
       <c r="B22" s="3" t="s">
         <v>510</v>
       </c>
@@ -12204,7 +12218,7 @@
       <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" s="44" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="214" t="s">
+      <c r="A23" s="213" t="s">
         <v>294</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -12237,7 +12251,7 @@
       <c r="M23" s="42"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="215"/>
+      <c r="A24" s="214"/>
       <c r="B24" s="3" t="s">
         <v>499</v>
       </c>
@@ -12268,7 +12282,7 @@
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="216"/>
+      <c r="A25" s="215"/>
       <c r="B25" s="3" t="s">
         <v>529</v>
       </c>
@@ -12299,7 +12313,7 @@
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="214" t="s">
+      <c r="A26" s="213" t="s">
         <v>533</v>
       </c>
       <c r="B26" s="38" t="s">
@@ -12332,7 +12346,7 @@
       <c r="M26" s="42"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="215"/>
+      <c r="A27" s="214"/>
       <c r="B27" s="3" t="s">
         <v>504</v>
       </c>
@@ -12363,7 +12377,7 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="38.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="215"/>
+      <c r="A28" s="214"/>
       <c r="B28" s="3" t="s">
         <v>505</v>
       </c>
@@ -12394,7 +12408,7 @@
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="215"/>
+      <c r="A29" s="214"/>
       <c r="B29" s="3" t="s">
         <v>506</v>
       </c>
@@ -12427,7 +12441,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="215"/>
+      <c r="A30" s="214"/>
       <c r="B30" s="3" t="s">
         <v>507</v>
       </c>
@@ -12460,7 +12474,7 @@
       <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="215"/>
+      <c r="A31" s="214"/>
       <c r="B31" s="3" t="s">
         <v>508</v>
       </c>
@@ -12491,7 +12505,7 @@
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32" s="215"/>
+      <c r="A32" s="214"/>
       <c r="B32" s="3" t="s">
         <v>511</v>
       </c>
@@ -12522,7 +12536,7 @@
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="216"/>
+      <c r="A33" s="215"/>
       <c r="B33" s="30" t="s">
         <v>509</v>
       </c>
@@ -12553,7 +12567,7 @@
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="214" t="s">
+      <c r="A34" s="213" t="s">
         <v>534</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -12586,7 +12600,7 @@
       <c r="M34" s="42"/>
     </row>
     <row r="35" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="215"/>
+      <c r="A35" s="214"/>
       <c r="B35" s="3" t="s">
         <v>512</v>
       </c>
@@ -12617,7 +12631,7 @@
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" s="215"/>
+      <c r="A36" s="214"/>
       <c r="B36" s="3" t="s">
         <v>520</v>
       </c>
@@ -12646,7 +12660,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" s="215"/>
+      <c r="A37" s="214"/>
       <c r="B37" s="3" t="s">
         <v>522</v>
       </c>
@@ -12677,7 +12691,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38" s="216"/>
+      <c r="A38" s="215"/>
       <c r="B38" s="3" t="s">
         <v>525</v>
       </c>
@@ -12706,7 +12720,7 @@
       <c r="M38" s="18"/>
     </row>
     <row r="39" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="214" t="s">
+      <c r="A39" s="213" t="s">
         <v>535</v>
       </c>
       <c r="B39" s="38" t="s">
@@ -12741,7 +12755,7 @@
       <c r="M39" s="42"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A40" s="216"/>
+      <c r="A40" s="215"/>
       <c r="B40" s="3" t="s">
         <v>503</v>
       </c>
@@ -12772,7 +12786,7 @@
       <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="214" t="s">
+      <c r="A41" s="213" t="s">
         <v>536</v>
       </c>
       <c r="B41" s="38" t="s">
@@ -12805,7 +12819,7 @@
       <c r="M41" s="42"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A42" s="215"/>
+      <c r="A42" s="214"/>
       <c r="B42" s="3" t="s">
         <v>514</v>
       </c>
@@ -12834,7 +12848,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A43" s="215"/>
+      <c r="A43" s="214"/>
       <c r="B43" s="3" t="s">
         <v>515</v>
       </c>
@@ -12865,7 +12879,7 @@
       <c r="M43" s="18"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A44" s="215"/>
+      <c r="A44" s="214"/>
       <c r="B44" s="3" t="s">
         <v>516</v>
       </c>
@@ -12896,7 +12910,7 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A45" s="215"/>
+      <c r="A45" s="214"/>
       <c r="B45" s="3" t="s">
         <v>517</v>
       </c>
@@ -12925,7 +12939,7 @@
       <c r="M45" s="18"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A46" s="216"/>
+      <c r="A46" s="215"/>
       <c r="B46" s="3" t="s">
         <v>518</v>
       </c>
@@ -13150,7 +13164,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="205" t="s">
         <v>531</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -13182,7 +13196,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="206"/>
+      <c r="A3" s="205"/>
       <c r="B3" s="3" t="s">
         <v>543</v>
       </c>
@@ -13210,7 +13224,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="206"/>
+      <c r="A4" s="205"/>
       <c r="B4" s="3" t="s">
         <v>545</v>
       </c>
@@ -13238,7 +13252,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="206"/>
+      <c r="A5" s="205"/>
       <c r="B5" s="3" t="s">
         <v>552</v>
       </c>
@@ -13266,7 +13280,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="206"/>
+      <c r="A6" s="205"/>
       <c r="B6" s="3" t="s">
         <v>556</v>
       </c>
@@ -13296,7 +13310,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="206"/>
+      <c r="A7" s="205"/>
       <c r="B7" s="3" t="s">
         <v>558</v>
       </c>
@@ -13324,7 +13338,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="206"/>
+      <c r="A8" s="205"/>
       <c r="B8" s="3" t="s">
         <v>605</v>
       </c>
@@ -13354,7 +13368,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="206"/>
+      <c r="A9" s="205"/>
       <c r="B9" s="3" t="s">
         <v>616</v>
       </c>
@@ -13384,7 +13398,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="206"/>
+      <c r="A10" s="205"/>
       <c r="B10" s="3" t="s">
         <v>627</v>
       </c>
@@ -13414,7 +13428,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="206"/>
+      <c r="A11" s="205"/>
       <c r="B11" s="3" t="s">
         <v>630</v>
       </c>
@@ -13442,7 +13456,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="207"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="3" t="s">
         <v>636</v>
       </c>
@@ -13470,7 +13484,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="205" t="s">
+      <c r="A13" s="204" t="s">
         <v>537</v>
       </c>
       <c r="B13" s="38" t="s">
@@ -13502,7 +13516,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="206"/>
+      <c r="A14" s="205"/>
       <c r="B14" s="3" t="s">
         <v>554</v>
       </c>
@@ -13532,7 +13546,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="206"/>
+      <c r="A15" s="205"/>
       <c r="B15" s="3" t="s">
         <v>620</v>
       </c>
@@ -13562,7 +13576,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="206"/>
+      <c r="A16" s="205"/>
       <c r="B16" s="3" t="s">
         <v>623</v>
       </c>
@@ -13590,7 +13604,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="207"/>
+      <c r="A17" s="206"/>
       <c r="B17" s="3" t="s">
         <v>632</v>
       </c>
@@ -13620,7 +13634,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="205" t="s">
+      <c r="A18" s="204" t="s">
         <v>538</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -13652,7 +13666,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="206"/>
+      <c r="A19" s="205"/>
       <c r="B19" s="3" t="s">
         <v>612</v>
       </c>
@@ -13682,7 +13696,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="207"/>
+      <c r="A20" s="206"/>
       <c r="B20" s="3" t="s">
         <v>616</v>
       </c>
@@ -13712,7 +13726,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="205" t="s">
+      <c r="A21" s="204" t="s">
         <v>294</v>
       </c>
       <c r="B21" s="38" t="s">
@@ -13744,7 +13758,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="206"/>
+      <c r="A22" s="205"/>
       <c r="B22" s="3" t="s">
         <v>563</v>
       </c>
@@ -13774,7 +13788,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="206"/>
+      <c r="A23" s="205"/>
       <c r="B23" s="3" t="s">
         <v>568</v>
       </c>
@@ -13806,7 +13820,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="206"/>
+      <c r="A24" s="205"/>
       <c r="B24" s="3" t="s">
         <v>570</v>
       </c>
@@ -13836,7 +13850,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="207"/>
+      <c r="A25" s="206"/>
       <c r="B25" s="3" t="s">
         <v>634</v>
       </c>
@@ -13866,7 +13880,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="205" t="s">
+      <c r="A26" s="204" t="s">
         <v>637</v>
       </c>
       <c r="B26" s="38" t="s">
@@ -13898,7 +13912,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="206"/>
+      <c r="A27" s="205"/>
       <c r="B27" s="3" t="s">
         <v>572</v>
       </c>
@@ -13928,7 +13942,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="206"/>
+      <c r="A28" s="205"/>
       <c r="B28" s="3" t="s">
         <v>576</v>
       </c>
@@ -13960,7 +13974,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="206"/>
+      <c r="A29" s="205"/>
       <c r="B29" s="3" t="s">
         <v>579</v>
       </c>
@@ -13992,7 +14006,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="206"/>
+      <c r="A30" s="205"/>
       <c r="B30" s="3" t="s">
         <v>580</v>
       </c>
@@ -14024,7 +14038,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="206"/>
+      <c r="A31" s="205"/>
       <c r="B31" s="3" t="s">
         <v>582</v>
       </c>
@@ -14054,7 +14068,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="206"/>
+      <c r="A32" s="205"/>
       <c r="B32" s="3" t="s">
         <v>585</v>
       </c>
@@ -14084,7 +14098,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="207"/>
+      <c r="A33" s="206"/>
       <c r="B33" s="3" t="s">
         <v>587</v>
       </c>
@@ -14114,7 +14128,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="205" t="s">
+      <c r="A34" s="204" t="s">
         <v>638</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -14146,7 +14160,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="206"/>
+      <c r="A35" s="205"/>
       <c r="B35" s="3" t="s">
         <v>589</v>
       </c>
@@ -14176,7 +14190,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="206"/>
+      <c r="A36" s="205"/>
       <c r="B36" s="3" t="s">
         <v>609</v>
       </c>
@@ -14204,7 +14218,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="206"/>
+      <c r="A37" s="205"/>
       <c r="B37" s="3" t="s">
         <v>616</v>
       </c>
@@ -14234,7 +14248,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="207"/>
+      <c r="A38" s="206"/>
       <c r="B38" s="3" t="s">
         <v>625</v>
       </c>
@@ -14262,7 +14276,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="205" t="s">
+      <c r="A39" s="204" t="s">
         <v>536</v>
       </c>
       <c r="B39" s="38" t="s">
@@ -14294,7 +14308,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="206"/>
+      <c r="A40" s="205"/>
       <c r="B40" s="3" t="s">
         <v>596</v>
       </c>
@@ -14322,7 +14336,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="206"/>
+      <c r="A41" s="205"/>
       <c r="B41" s="3" t="s">
         <v>598</v>
       </c>
@@ -14352,7 +14366,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="206"/>
+      <c r="A42" s="205"/>
       <c r="B42" s="3" t="s">
         <v>601</v>
       </c>
@@ -14382,7 +14396,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A43" s="206"/>
+      <c r="A43" s="205"/>
       <c r="B43" s="3" t="s">
         <v>603</v>
       </c>
@@ -14410,7 +14424,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="207"/>
+      <c r="A44" s="206"/>
       <c r="B44" s="30" t="s">
         <v>604</v>
       </c>

--- a/exploration/esrs_datapoints.xlsx
+++ b/exploration/esrs_datapoints.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitc-my.sharepoint.com/personal/zxowg46_s-cloud_uni-tuebingen_de/Documents/Thesis/esg_extraction/exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{276D0863-D6FD-4884-8A2A-6E3E35E67935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD0EEB2-92B0-4186-8852-14A5AABEBE06}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="13_ncr:1_{276D0863-D6FD-4884-8A2A-6E3E35E67935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5381500-C681-482D-B4E4-F06878D46903}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
     <sheet name="Index" sheetId="1" r:id="rId2"/>
     <sheet name="S1 - Own Workforce" sheetId="13" r:id="rId3"/>
-    <sheet name="prompts" sheetId="14" r:id="rId4"/>
-    <sheet name="ESRS_S1" sheetId="7" r:id="rId5"/>
-    <sheet name="ESRS_S2" sheetId="9" r:id="rId6"/>
-    <sheet name="ESRS_S3" sheetId="10" r:id="rId7"/>
-    <sheet name="ESRS_S4" sheetId="12" r:id="rId8"/>
+    <sheet name="S1 - implementation comparison" sheetId="15" r:id="rId4"/>
+    <sheet name="prompts" sheetId="14" r:id="rId5"/>
+    <sheet name="ESRS_S1" sheetId="7" r:id="rId6"/>
+    <sheet name="ESRS_S2" sheetId="9" r:id="rId7"/>
+    <sheet name="ESRS_S3" sheetId="10" r:id="rId8"/>
+    <sheet name="ESRS_S4" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="843">
   <si>
     <t>List of ESRS Data Points</t>
   </si>
@@ -3409,9 +3410,6 @@
     <t>remedy, remediation</t>
   </si>
   <si>
-    <t>social protection, social security</t>
-  </si>
-  <si>
     <t>discrimination , harassment , equal opportunities, diversity , inclusion</t>
   </si>
   <si>
@@ -3428,13 +3426,452 @@
   </si>
   <si>
     <t>grievance channels/machanism, raise concern(s), whistleblowing</t>
+  </si>
+  <si>
+    <t>social protection, social security, retirement, parental leave</t>
+  </si>
+  <si>
+    <t>Schneider Electics 2025</t>
+  </si>
+  <si>
+    <t>S1-1 – Policies related to own workforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.2.3.1 Great People making Schneider Electric a great company (ESRS S1)</t>
+  </si>
+  <si>
+    <t>S1-2 – Processes for engaging with own workers and workers’ representatives about impacts</t>
+  </si>
+  <si>
+    <t>2.2.3.1.2 Working conditions, sub-section about Social Dialogue</t>
+  </si>
+  <si>
+    <t>S1-3 – Processes to remediate negative impacts and channels for own workers to raise concerns</t>
+  </si>
+  <si>
+    <t>2.2.1.1.3 Trust with stakeholders , sub-section "Whistleblowing Policy and grievance mechanisms"</t>
+  </si>
+  <si>
+    <t>S1-4 – Taking action on material impacts on own workforce, and approaches to mitigating material risks and pursuing material opportunities related to own workforce, and effectiveness of those actions</t>
+  </si>
+  <si>
+    <t>2.2.3.1 Great People making Schneider Electric a great company (ESRS S1)</t>
+  </si>
+  <si>
+    <t>S1-5 – Targets related to managing material negative impacts, advancing positive impacts, and managing material risks and opportunities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1-6 – Characteristics of the undertaking’s employees </t>
+  </si>
+  <si>
+    <t>S1-7 – Characteristics of non-employees in the undertaking’s own workforce</t>
+  </si>
+  <si>
+    <t>S1-8 – Collective bargaining coverage and social dialogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1-9 – Diversity metrics </t>
+  </si>
+  <si>
+    <t>S1-10 – Adequate wages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1-11 – Social protection </t>
+  </si>
+  <si>
+    <t>S1-12– Persons with disabilities</t>
+  </si>
+  <si>
+    <t>S1-13 – Training and skills development metrics</t>
+  </si>
+  <si>
+    <t>S1-14 – Health and safety metrics</t>
+  </si>
+  <si>
+    <t>S1-15 – Work-life balance metrics</t>
+  </si>
+  <si>
+    <t>S1-16 – Remuneration metrics (pay gap and total remuneration)</t>
+  </si>
+  <si>
+    <t>S1-17 – Incidents, complaints and severe human rights impacts</t>
+  </si>
+  <si>
+    <t>2.2.3.1.2 Working conditions, sub-section
+"Characteristics of Schneider Electric’s
+employees"</t>
+  </si>
+  <si>
+    <t>2.2.3.1.2 Working conditions, sub-section "Social Dialogue"</t>
+  </si>
+  <si>
+    <t>2.2.3.1.4 Equal treatment</t>
+  </si>
+  <si>
+    <t>2.2.3.1.2 Working conditions, sub-section
+"Adequate wage"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.3.1.3 Employee health and safety </t>
+  </si>
+  <si>
+    <t>2.2.3.1.4 Equal treatment, sub-section
+"Gender Pay Gap"</t>
+  </si>
+  <si>
+    <t>2.2.3.1.3 Employee health and safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESRS </t>
+  </si>
+  <si>
+    <t>Continental 2024</t>
+  </si>
+  <si>
+    <t>Management approaches to own workforce</t>
+  </si>
+  <si>
+    <t>Processes for engaging with own workers and workers’ representatives about impacts</t>
+  </si>
+  <si>
+    <t>Processes to remediate negative impacts and channels for own workforce to raise concerns</t>
+  </si>
+  <si>
+    <t>Collective bargaining coverage and social dialogue</t>
+  </si>
+  <si>
+    <t>Adequate wages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key actions for target achievement </t>
+  </si>
+  <si>
+    <t>Targets related to own workforce</t>
+  </si>
+  <si>
+    <t>Characteristics of the company’s employees</t>
+  </si>
+  <si>
+    <t>Diversity</t>
+  </si>
+  <si>
+    <t>Occupational safety and health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remuneration metrics </t>
+  </si>
+  <si>
+    <t>Incidents, complaints and severe human rights impacts</t>
+  </si>
+  <si>
+    <t>Philips 2024</t>
+  </si>
+  <si>
+    <t>Double Materiality Assessment: Policy Overview 
+Social information: Policies, metrics and targets</t>
+  </si>
+  <si>
+    <t>Social: Our organization, people and culture
+Own workforce: Workforce of the future
+Own workforce: Employee engagement</t>
+  </si>
+  <si>
+    <t>Sustainability statement: Tracking our 2025 ESG program
+Social information: Policies, metrics and targets</t>
+  </si>
+  <si>
+    <t>Social statements: Workforce details</t>
+  </si>
+  <si>
+    <t>Social information: Workforce details</t>
+  </si>
+  <si>
+    <t>Social information: Diversity, Inclusion and Well-being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social information: Living Wage and Adequate Wage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workforce details: Social protection </t>
+  </si>
+  <si>
+    <t>Workforce of the future: Career development
+Workforce of the future: Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social information: Health and Safety </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social information: Diversity, Inclusion and Well-being </t>
+  </si>
+  <si>
+    <t>Supervisory Board: Remuneration report 2024
+Social information: Equal opportunities and equal pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governance information: Philips SpeakUp (Ethics Line) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Governance: General Business Principles (GBP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Governance information: Philips SpeakUp (Ethics Line)</t>
+    </r>
+  </si>
+  <si>
+    <t>Workforce details: Collective bargaining coverage and social dialogue</t>
+  </si>
+  <si>
+    <t>S1_K adequat wages of the employees</t>
+  </si>
+  <si>
+    <t>SBM-2 – Interests and views of stakeholders</t>
+  </si>
+  <si>
+    <t>SBM-3 – Material impacts, risks and opportunities and their interaction with strategy and business model</t>
+  </si>
+  <si>
+    <t>ESG governance, strategy and policies: Strategy
+Social: Our organization, people and culture</t>
+  </si>
+  <si>
+    <t>Interests and views of stakeholders relating to own workforce</t>
+  </si>
+  <si>
+    <t>Further information on the IRO assessment in relation to the own workforce</t>
+  </si>
+  <si>
+    <t>S1_E human rights and labor rights commitments for the own workforce</t>
+  </si>
+  <si>
+    <t>S1_E human rights and labor rights commitments for the own workforce
+S1_H engagement with people of own workforce</t>
+  </si>
+  <si>
+    <t>S1_H engagement with people of own workforce</t>
+  </si>
+  <si>
+    <t>S1_I enable remedy for negative impacts on ist workforce
+S1_J channels for own workforce to raise concerns or needs</t>
+  </si>
+  <si>
+    <t>S1_L employees coverage by social protection</t>
+  </si>
+  <si>
+    <t>Datapoints</t>
+  </si>
+  <si>
+    <t>Datapoints_new</t>
+  </si>
+  <si>
+    <t>Social: Human rights
+ESG governance, strategy and policies: Strategy
+Sustainability statement: IRO Table
+Social information: Management of key material people topics (Impacts, Risks and Opportunities)
+Social information: Human rights</t>
+  </si>
+  <si>
+    <t>x engagement</t>
+  </si>
+  <si>
+    <t>x remedy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x human rights
+x accident prevention
+x diversity
+x engagement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x remedy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S1_E human rights and labor rights commitments for the own workforce
+S1_F accident prevention for the own workforce
+S1_G prevent discrimination and advance diversity and inclusion within the own workforce
+S1_H engagement with people of own workforce
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S1_I enable remedy for negative impacts on ist workforce</t>
+    </r>
+  </si>
+  <si>
+    <t>x material impacts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x human rights
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x material impacts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+( x material risks form dependence on own workforce)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S1_A material risks and opportunities arising from impacts and dependencies on own workforce
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S1_B material impact on own workforce
+S1_C negative impact on own workforce
+S1_D positive impact on own workforce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+S1_E human rights and labor rights commitments for the own workforce</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x material impacts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">( x material risks form dependence on own workforce)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x remedy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S1_A material risks and opportunities arising from impacts and dependencies on own workforce
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">S1_B material impact on own workforce
+S1_C negative impact on own workforce
+S1_D positive impact on own workforce
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S1_I enable remedy for negative impacts on ist workforce</t>
+    </r>
+  </si>
+  <si>
+    <t>x diversity</t>
+  </si>
+  <si>
+    <t>x adequate wages</t>
+  </si>
+  <si>
+    <t>x social protection</t>
+  </si>
+  <si>
+    <t>x human rights</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3540,8 +3977,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3560,8 +4017,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -3928,6 +4391,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3937,7 +4409,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4441,18 +4913,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4477,21 +4967,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4528,13 +5003,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -5531,8 +6020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92534F0-4205-4B78-B15C-3308B949B405}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5589,10 +6078,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="161" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="191" t="s">
         <v>702</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="197" t="s">
         <v>701</v>
       </c>
       <c r="C2" s="153" t="s">
@@ -5619,8 +6108,8 @@
       <c r="L2" s="160"/>
     </row>
     <row r="3" spans="1:12" s="100" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="200"/>
-      <c r="B3" s="192"/>
+      <c r="A3" s="192"/>
+      <c r="B3" s="198"/>
       <c r="C3" s="132" t="s">
         <v>71</v>
       </c>
@@ -5647,8 +6136,8 @@
       <c r="L3" s="107"/>
     </row>
     <row r="4" spans="1:12" s="100" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="200"/>
-      <c r="B4" s="192"/>
+      <c r="A4" s="192"/>
+      <c r="B4" s="198"/>
       <c r="C4" s="132" t="s">
         <v>71</v>
       </c>
@@ -5673,8 +6162,8 @@
       <c r="L4" s="107"/>
     </row>
     <row r="5" spans="1:12" s="152" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="201"/>
-      <c r="B5" s="193"/>
+      <c r="A5" s="193"/>
+      <c r="B5" s="199"/>
       <c r="C5" s="144" t="s">
         <v>71</v>
       </c>
@@ -5697,7 +6186,7 @@
       <c r="L5" s="151"/>
     </row>
     <row r="6" spans="1:12" s="163" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="191" t="s">
         <v>704</v>
       </c>
       <c r="B6" s="188" t="s">
@@ -5729,7 +6218,7 @@
       <c r="L6" s="160"/>
     </row>
     <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="200"/>
+      <c r="A7" s="192"/>
       <c r="B7" s="189"/>
       <c r="C7" s="132" t="s">
         <v>71</v>
@@ -5753,7 +6242,7 @@
       <c r="L7" s="107"/>
     </row>
     <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="200"/>
+      <c r="A8" s="192"/>
       <c r="B8" s="189"/>
       <c r="C8" s="132" t="s">
         <v>71</v>
@@ -5762,7 +6251,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="108"/>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="196" t="s">
         <v>662</v>
       </c>
       <c r="G8" s="104" t="s">
@@ -5779,7 +6268,7 @@
       <c r="L8" s="107"/>
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="200"/>
+      <c r="A9" s="192"/>
       <c r="B9" s="189"/>
       <c r="C9" s="132" t="s">
         <v>71</v>
@@ -5788,7 +6277,7 @@
         <v>231</v>
       </c>
       <c r="E9" s="108"/>
-      <c r="F9" s="187"/>
+      <c r="F9" s="196"/>
       <c r="G9" s="104" t="s">
         <v>663</v>
       </c>
@@ -5805,7 +6294,7 @@
       <c r="L9" s="107"/>
     </row>
     <row r="10" spans="1:12" s="165" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="201"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="190"/>
       <c r="C10" s="144" t="s">
         <v>71</v>
@@ -5831,7 +6320,7 @@
       <c r="L10" s="151"/>
     </row>
     <row r="11" spans="1:12" s="163" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="191" t="s">
         <v>705</v>
       </c>
       <c r="B11" s="188" t="s">
@@ -5863,7 +6352,7 @@
       <c r="L11" s="160"/>
     </row>
     <row r="12" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="200"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="189"/>
       <c r="C12" s="132" t="s">
         <v>71</v>
@@ -5889,7 +6378,7 @@
       <c r="L12" s="107"/>
     </row>
     <row r="13" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="200"/>
+      <c r="A13" s="192"/>
       <c r="B13" s="189"/>
       <c r="C13" s="132" t="s">
         <v>71</v>
@@ -5900,7 +6389,7 @@
       <c r="E13" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="F13" s="198" t="s">
+      <c r="F13" s="204" t="s">
         <v>713</v>
       </c>
       <c r="G13" s="104"/>
@@ -5915,7 +6404,7 @@
       <c r="L13" s="107"/>
     </row>
     <row r="14" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="200"/>
+      <c r="A14" s="192"/>
       <c r="B14" s="189"/>
       <c r="C14" s="132" t="s">
         <v>71</v>
@@ -5926,7 +6415,7 @@
       <c r="E14" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="198"/>
+      <c r="F14" s="204"/>
       <c r="G14" s="104"/>
       <c r="H14" s="105" t="s">
         <v>29</v>
@@ -5939,7 +6428,7 @@
       <c r="L14" s="107"/>
     </row>
     <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A15" s="200"/>
+      <c r="A15" s="192"/>
       <c r="B15" s="189"/>
       <c r="C15" s="132" t="s">
         <v>71</v>
@@ -5965,7 +6454,7 @@
       <c r="L15" s="107"/>
     </row>
     <row r="16" spans="1:12" s="165" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="201"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="190"/>
       <c r="C16" s="144" t="s">
         <v>71</v>
@@ -5993,7 +6482,7 @@
       <c r="L16" s="151"/>
     </row>
     <row r="17" spans="1:12" s="163" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A17" s="199" t="s">
+      <c r="A17" s="191" t="s">
         <v>706</v>
       </c>
       <c r="B17" s="188" t="s">
@@ -6023,7 +6512,7 @@
       <c r="L17" s="160"/>
     </row>
     <row r="18" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="200"/>
+      <c r="A18" s="192"/>
       <c r="B18" s="189"/>
       <c r="C18" s="132" t="s">
         <v>71</v>
@@ -6034,7 +6523,7 @@
       <c r="E18" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="F18" s="187" t="s">
+      <c r="F18" s="196" t="s">
         <v>665</v>
       </c>
       <c r="G18" s="104"/>
@@ -6049,7 +6538,7 @@
       <c r="L18" s="107"/>
     </row>
     <row r="19" spans="1:12" s="165" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="201"/>
+      <c r="A19" s="193"/>
       <c r="B19" s="190"/>
       <c r="C19" s="144" t="s">
         <v>71</v>
@@ -6060,7 +6549,7 @@
       <c r="E19" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="194"/>
+      <c r="F19" s="200"/>
       <c r="G19" s="148"/>
       <c r="H19" s="149" t="s">
         <v>29</v>
@@ -6073,10 +6562,10 @@
       <c r="L19" s="151"/>
     </row>
     <row r="20" spans="1:12" s="163" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="199" t="s">
+      <c r="A20" s="191" t="s">
         <v>707</v>
       </c>
-      <c r="B20" s="195" t="s">
+      <c r="B20" s="201" t="s">
         <v>718</v>
       </c>
       <c r="C20" s="153" t="s">
@@ -6103,8 +6592,8 @@
       <c r="L20" s="160"/>
     </row>
     <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="200"/>
-      <c r="B21" s="196"/>
+      <c r="A21" s="192"/>
+      <c r="B21" s="202"/>
       <c r="C21" s="132" t="s">
         <v>71</v>
       </c>
@@ -6129,8 +6618,8 @@
       <c r="L21" s="107"/>
     </row>
     <row r="22" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="200"/>
-      <c r="B22" s="196"/>
+      <c r="A22" s="192"/>
+      <c r="B22" s="202"/>
       <c r="C22" s="132" t="s">
         <v>71</v>
       </c>
@@ -6157,8 +6646,8 @@
       <c r="L22" s="107"/>
     </row>
     <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="200"/>
-      <c r="B23" s="196"/>
+      <c r="A23" s="192"/>
+      <c r="B23" s="202"/>
       <c r="C23" s="132" t="s">
         <v>71</v>
       </c>
@@ -6184,8 +6673,8 @@
       <c r="L23" s="107"/>
     </row>
     <row r="24" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="200"/>
-      <c r="B24" s="196"/>
+      <c r="A24" s="192"/>
+      <c r="B24" s="202"/>
       <c r="C24" s="132" t="s">
         <v>71</v>
       </c>
@@ -6210,8 +6699,8 @@
       <c r="L24" s="107"/>
     </row>
     <row r="25" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="200"/>
-      <c r="B25" s="196"/>
+      <c r="A25" s="192"/>
+      <c r="B25" s="202"/>
       <c r="C25" s="132" t="s">
         <v>71</v>
       </c>
@@ -6219,7 +6708,7 @@
         <v>103</v>
       </c>
       <c r="E25" s="108"/>
-      <c r="F25" s="187" t="s">
+      <c r="F25" s="196" t="s">
         <v>673</v>
       </c>
       <c r="G25" s="104"/>
@@ -6236,8 +6725,8 @@
       <c r="L25" s="107"/>
     </row>
     <row r="26" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="200"/>
-      <c r="B26" s="196"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="202"/>
       <c r="C26" s="132" t="s">
         <v>71</v>
       </c>
@@ -6245,7 +6734,7 @@
         <v>106</v>
       </c>
       <c r="E26" s="108"/>
-      <c r="F26" s="187"/>
+      <c r="F26" s="196"/>
       <c r="G26" s="104"/>
       <c r="H26" s="105" t="s">
         <v>29</v>
@@ -6260,8 +6749,8 @@
       <c r="L26" s="107"/>
     </row>
     <row r="27" spans="1:12" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="200"/>
-      <c r="B27" s="196"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="202"/>
       <c r="C27" s="132" t="s">
         <v>71</v>
       </c>
@@ -6269,7 +6758,7 @@
         <v>109</v>
       </c>
       <c r="E27" s="108"/>
-      <c r="F27" s="187" t="s">
+      <c r="F27" s="196" t="s">
         <v>674</v>
       </c>
       <c r="G27" s="104"/>
@@ -6286,8 +6775,8 @@
       <c r="L27" s="107"/>
     </row>
     <row r="28" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="200"/>
-      <c r="B28" s="196"/>
+      <c r="A28" s="192"/>
+      <c r="B28" s="202"/>
       <c r="C28" s="132" t="s">
         <v>71</v>
       </c>
@@ -6295,7 +6784,7 @@
         <v>112</v>
       </c>
       <c r="E28" s="108"/>
-      <c r="F28" s="187"/>
+      <c r="F28" s="196"/>
       <c r="G28" s="104"/>
       <c r="H28" s="105" t="s">
         <v>29</v>
@@ -6310,8 +6799,8 @@
       <c r="L28" s="107"/>
     </row>
     <row r="29" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="200"/>
-      <c r="B29" s="196"/>
+      <c r="A29" s="192"/>
+      <c r="B29" s="202"/>
       <c r="C29" s="132" t="s">
         <v>71</v>
       </c>
@@ -6335,8 +6824,8 @@
       <c r="L29" s="107"/>
     </row>
     <row r="30" spans="1:12" s="165" customFormat="1" ht="57.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="201"/>
-      <c r="B30" s="197"/>
+      <c r="A30" s="193"/>
+      <c r="B30" s="203"/>
       <c r="C30" s="144" t="s">
         <v>71</v>
       </c>
@@ -6393,7 +6882,7 @@
       <c r="L31" s="183"/>
     </row>
     <row r="32" spans="1:12" s="163" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="199" t="s">
+      <c r="A32" s="191" t="s">
         <v>721</v>
       </c>
       <c r="B32" s="188" t="s">
@@ -6423,7 +6912,7 @@
       <c r="L32" s="160"/>
     </row>
     <row r="33" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A33" s="200"/>
+      <c r="A33" s="192"/>
       <c r="B33" s="189"/>
       <c r="C33" s="132" t="s">
         <v>71</v>
@@ -6451,7 +6940,7 @@
       <c r="L33" s="107"/>
     </row>
     <row r="34" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A34" s="200"/>
+      <c r="A34" s="192"/>
       <c r="B34" s="189"/>
       <c r="C34" s="132" t="s">
         <v>71</v>
@@ -6475,7 +6964,7 @@
       <c r="L34" s="107"/>
     </row>
     <row r="35" spans="1:12" s="165" customFormat="1" ht="71.650000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="201"/>
+      <c r="A35" s="193"/>
       <c r="B35" s="190"/>
       <c r="C35" s="144" t="s">
         <v>71</v>
@@ -6499,7 +6988,7 @@
       <c r="L35" s="151"/>
     </row>
     <row r="36" spans="1:12" s="163" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="199" t="s">
+      <c r="A36" s="191" t="s">
         <v>722</v>
       </c>
       <c r="B36" s="188" t="s">
@@ -6529,7 +7018,7 @@
       <c r="L36" s="160"/>
     </row>
     <row r="37" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A37" s="200"/>
+      <c r="A37" s="192"/>
       <c r="B37" s="189"/>
       <c r="C37" s="132" t="s">
         <v>71</v>
@@ -6555,7 +7044,7 @@
       <c r="L37" s="107"/>
     </row>
     <row r="38" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A38" s="200"/>
+      <c r="A38" s="192"/>
       <c r="B38" s="189"/>
       <c r="C38" s="132" t="s">
         <v>71</v>
@@ -6580,7 +7069,7 @@
       <c r="L38" s="107"/>
     </row>
     <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="200"/>
+      <c r="A39" s="192"/>
       <c r="B39" s="189"/>
       <c r="C39" s="132" t="s">
         <v>71</v>
@@ -6608,7 +7097,7 @@
       <c r="L39" s="107"/>
     </row>
     <row r="40" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A40" s="200"/>
+      <c r="A40" s="192"/>
       <c r="B40" s="189"/>
       <c r="C40" s="132" t="s">
         <v>71</v>
@@ -6636,7 +7125,7 @@
       <c r="L40" s="107"/>
     </row>
     <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="200"/>
+      <c r="A41" s="192"/>
       <c r="B41" s="189"/>
       <c r="C41" s="132" t="s">
         <v>71</v>
@@ -6662,7 +7151,7 @@
       <c r="L41" s="107"/>
     </row>
     <row r="42" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A42" s="200"/>
+      <c r="A42" s="192"/>
       <c r="B42" s="189"/>
       <c r="C42" s="132" t="s">
         <v>71</v>
@@ -6688,7 +7177,7 @@
       <c r="L42" s="107"/>
     </row>
     <row r="43" spans="1:12" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="200"/>
+      <c r="A43" s="192"/>
       <c r="B43" s="189"/>
       <c r="C43" s="132" t="s">
         <v>71</v>
@@ -6697,7 +7186,7 @@
         <v>235</v>
       </c>
       <c r="E43" s="108"/>
-      <c r="F43" s="187" t="s">
+      <c r="F43" s="196" t="s">
         <v>732</v>
       </c>
       <c r="G43" s="104"/>
@@ -6712,7 +7201,7 @@
       <c r="L43" s="107"/>
     </row>
     <row r="44" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="200"/>
+      <c r="A44" s="192"/>
       <c r="B44" s="189"/>
       <c r="C44" s="132" t="s">
         <v>71</v>
@@ -6721,7 +7210,7 @@
         <v>238</v>
       </c>
       <c r="E44" s="108"/>
-      <c r="F44" s="187"/>
+      <c r="F44" s="196"/>
       <c r="G44" s="104"/>
       <c r="H44" s="105" t="s">
         <v>29</v>
@@ -6734,7 +7223,7 @@
       <c r="L44" s="107"/>
     </row>
     <row r="45" spans="1:12" s="165" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="201"/>
+      <c r="A45" s="193"/>
       <c r="B45" s="190"/>
       <c r="C45" s="144" t="s">
         <v>71</v>
@@ -6743,7 +7232,7 @@
         <v>241</v>
       </c>
       <c r="E45" s="146"/>
-      <c r="F45" s="194"/>
+      <c r="F45" s="200"/>
       <c r="G45" s="148"/>
       <c r="H45" s="149" t="s">
         <v>29</v>
@@ -6756,7 +7245,7 @@
       <c r="L45" s="151"/>
     </row>
     <row r="46" spans="1:12" s="163" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A46" s="199" t="s">
+      <c r="A46" s="191" t="s">
         <v>723</v>
       </c>
       <c r="B46" s="188" t="s">
@@ -6786,7 +7275,7 @@
       <c r="L46" s="160"/>
     </row>
     <row r="47" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A47" s="200"/>
+      <c r="A47" s="192"/>
       <c r="B47" s="189"/>
       <c r="C47" s="132" t="s">
         <v>71</v>
@@ -6812,7 +7301,7 @@
       <c r="L47" s="107"/>
     </row>
     <row r="48" spans="1:12" s="165" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="201"/>
+      <c r="A48" s="193"/>
       <c r="B48" s="190"/>
       <c r="C48" s="144" t="s">
         <v>71</v>
@@ -6836,7 +7325,7 @@
       <c r="L48" s="151"/>
     </row>
     <row r="49" spans="1:12" s="163" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A49" s="199" t="s">
+      <c r="A49" s="191" t="s">
         <v>724</v>
       </c>
       <c r="B49" s="188" t="s">
@@ -6866,7 +7355,7 @@
       <c r="L49" s="160"/>
     </row>
     <row r="50" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="200"/>
+      <c r="A50" s="192"/>
       <c r="B50" s="189"/>
       <c r="C50" s="132" t="s">
         <v>71</v>
@@ -6891,7 +7380,7 @@
       <c r="L50" s="107"/>
     </row>
     <row r="51" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A51" s="200"/>
+      <c r="A51" s="192"/>
       <c r="B51" s="189"/>
       <c r="C51" s="132" t="s">
         <v>71</v>
@@ -6915,7 +7404,7 @@
       <c r="L51" s="107"/>
     </row>
     <row r="52" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A52" s="200"/>
+      <c r="A52" s="192"/>
       <c r="B52" s="189"/>
       <c r="C52" s="132" t="s">
         <v>71</v>
@@ -6941,7 +7430,7 @@
       <c r="L52" s="107"/>
     </row>
     <row r="53" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A53" s="200"/>
+      <c r="A53" s="192"/>
       <c r="B53" s="189"/>
       <c r="C53" s="132" t="s">
         <v>71</v>
@@ -6967,7 +7456,7 @@
       <c r="L53" s="107"/>
     </row>
     <row r="54" spans="1:12" s="165" customFormat="1" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="201"/>
+      <c r="A54" s="193"/>
       <c r="B54" s="190"/>
       <c r="C54" s="144" t="s">
         <v>71</v>
@@ -7023,7 +7512,7 @@
       <c r="L55" s="123"/>
     </row>
     <row r="56" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="202" t="s">
+      <c r="A56" s="194" t="s">
         <v>735</v>
       </c>
       <c r="B56" s="189" t="s">
@@ -7038,7 +7527,7 @@
       <c r="E56" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F56" s="187" t="s">
+      <c r="F56" s="196" t="s">
         <v>699</v>
       </c>
       <c r="G56" s="116" t="s">
@@ -7057,7 +7546,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="200"/>
+      <c r="A57" s="192"/>
       <c r="B57" s="189"/>
       <c r="C57" s="132" t="s">
         <v>71</v>
@@ -7068,7 +7557,7 @@
       <c r="E57" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F57" s="187"/>
+      <c r="F57" s="196"/>
       <c r="G57" s="119"/>
       <c r="H57" s="117" t="s">
         <v>28</v>
@@ -7083,7 +7572,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="200"/>
+      <c r="A58" s="192"/>
       <c r="B58" s="189"/>
       <c r="C58" s="132" t="s">
         <v>71</v>
@@ -7094,7 +7583,7 @@
       <c r="E58" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F58" s="187"/>
+      <c r="F58" s="196"/>
       <c r="G58" s="119"/>
       <c r="H58" s="117" t="s">
         <v>28</v>
@@ -7109,7 +7598,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="200"/>
+      <c r="A59" s="192"/>
       <c r="B59" s="189"/>
       <c r="C59" s="132" t="s">
         <v>71</v>
@@ -7120,7 +7609,7 @@
       <c r="E59" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F59" s="187"/>
+      <c r="F59" s="196"/>
       <c r="G59" s="119"/>
       <c r="H59" s="117" t="s">
         <v>28</v>
@@ -7135,7 +7624,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A60" s="200"/>
+      <c r="A60" s="192"/>
       <c r="B60" s="189"/>
       <c r="C60" s="132" t="s">
         <v>71</v>
@@ -7146,7 +7635,7 @@
       <c r="E60" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="F60" s="187"/>
+      <c r="F60" s="196"/>
       <c r="G60" s="119"/>
       <c r="H60" s="117" t="s">
         <v>28</v>
@@ -7161,7 +7650,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A61" s="203"/>
+      <c r="A61" s="195"/>
       <c r="B61" s="189"/>
       <c r="C61" s="132" t="s">
         <v>71</v>
@@ -7193,17 +7682,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A30"/>
     <mergeCell ref="F56:F60"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B56:B61"/>
@@ -7220,6 +7698,17 @@
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D2:D13 D15:D18 D20:D28 D30:D54 D56:D60">
@@ -7329,11 +7818,349 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7780DA-3E65-42FB-96C1-7D63BB4AB7B9}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.265625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="28.73046875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.06640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.9296875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="219" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="220" t="s">
+        <v>786</v>
+      </c>
+      <c r="B1" s="220" t="s">
+        <v>827</v>
+      </c>
+      <c r="C1" s="220" t="s">
+        <v>828</v>
+      </c>
+      <c r="D1" s="220" t="s">
+        <v>800</v>
+      </c>
+      <c r="E1" s="220" t="s">
+        <v>787</v>
+      </c>
+      <c r="F1" s="220" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="225" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="F2" s="224"/>
+    </row>
+    <row r="3" spans="1:6" s="225" customFormat="1" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="F3" s="224"/>
+    </row>
+    <row r="4" spans="1:6" ht="171" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="F4" s="223" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="F5" s="222" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B6" s="221" t="s">
+        <v>825</v>
+      </c>
+      <c r="C6" s="221" t="s">
+        <v>831</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="171" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C7" s="223" t="s">
+        <v>837</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="F7" s="223" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C8" s="223" t="s">
+        <v>834</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="F8" s="223" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D9" s="221" t="s">
+        <v>804</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D10" s="221" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="F11" s="222" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F17" s="221" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D20" s="222" t="s">
+        <v>813</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F20" s="221" t="s">
+        <v>785</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442CA99-AF6D-4997-8E84-42BB9E92AEF4}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7356,126 +8183,126 @@
         <v>746</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="216" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="216" t="s">
+    <row r="2" spans="1:6" s="185" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="185" t="s">
         <v>702</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="186" t="s">
         <v>701</v>
       </c>
-      <c r="C2" s="218" t="s">
+      <c r="C2" s="187" t="s">
         <v>703</v>
       </c>
-      <c r="F2" s="216" t="s">
+      <c r="F2" s="185" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="185" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="185" t="s">
+        <v>705</v>
+      </c>
+      <c r="B4" s="186" t="s">
+        <v>714</v>
+      </c>
+      <c r="C4" s="186" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="185" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="185" t="s">
+        <v>706</v>
+      </c>
+      <c r="B5" s="186" t="s">
+        <v>716</v>
+      </c>
+      <c r="C5" s="186" t="s">
+        <v>717</v>
+      </c>
+      <c r="F5" s="185" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="216" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="216" t="s">
-        <v>704</v>
-      </c>
-      <c r="B3" s="217" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="217" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="216" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="216" t="s">
-        <v>705</v>
-      </c>
-      <c r="B4" s="217" t="s">
-        <v>714</v>
-      </c>
-      <c r="C4" s="217" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="216" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="216" t="s">
-        <v>706</v>
-      </c>
-      <c r="B5" s="217" t="s">
-        <v>716</v>
-      </c>
-      <c r="C5" s="217" t="s">
-        <v>717</v>
-      </c>
-      <c r="F5" s="216" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="216" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="216" t="s">
+    <row r="6" spans="1:6" s="217" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="217" t="s">
         <v>707</v>
       </c>
-      <c r="B6" s="217" t="s">
+      <c r="B6" s="218" t="s">
         <v>718</v>
       </c>
-      <c r="C6" s="217" t="s">
+      <c r="C6" s="218" t="s">
         <v>719</v>
       </c>
-      <c r="F6" s="216" t="s">
+      <c r="F6" s="217" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="216" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="216" t="s">
+    <row r="7" spans="1:6" s="185" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="185" t="s">
         <v>708</v>
       </c>
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="186" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="217" t="s">
+      <c r="C7" s="186" t="s">
         <v>720</v>
       </c>
-      <c r="F7" s="217" t="s">
+      <c r="F7" s="186" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="216" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="216" t="s">
+    <row r="8" spans="1:6" s="185" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="185" t="s">
         <v>721</v>
       </c>
-      <c r="B8" s="217" t="s">
+      <c r="B8" s="186" t="s">
         <v>728</v>
       </c>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="186" t="s">
         <v>726</v>
       </c>
-      <c r="D8" s="217" t="s">
+      <c r="D8" s="186" t="s">
         <v>727</v>
       </c>
-      <c r="F8" s="216" t="s">
+      <c r="F8" s="185" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="185" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="185" t="s">
+        <v>722</v>
+      </c>
+      <c r="B9" s="186" t="s">
+        <v>682</v>
+      </c>
+      <c r="C9" s="186" t="s">
+        <v>733</v>
+      </c>
+      <c r="F9" s="185" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="216" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="216" t="s">
-        <v>722</v>
-      </c>
-      <c r="B9" s="217" t="s">
-        <v>682</v>
-      </c>
-      <c r="C9" s="217" t="s">
-        <v>733</v>
-      </c>
-      <c r="F9" s="216" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="216" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A10" s="216" t="s">
+    <row r="10" spans="1:6" s="185" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A10" s="185" t="s">
         <v>723</v>
       </c>
-      <c r="B10" s="217" t="s">
+      <c r="B10" s="186" t="s">
         <v>736</v>
       </c>
-      <c r="C10" s="217" t="s">
+      <c r="C10" s="186" t="s">
         <v>737</v>
       </c>
-      <c r="F10" s="216" t="s">
+      <c r="F10" s="185" t="s">
         <v>749</v>
       </c>
     </row>
@@ -7496,7 +8323,7 @@
         <v>741</v>
       </c>
       <c r="F11" s="185" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="185" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -7510,21 +8337,21 @@
         <v>745</v>
       </c>
       <c r="F12" s="185" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="216" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A13" s="216" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="185" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A13" s="185" t="s">
         <v>735</v>
       </c>
-      <c r="B13" s="217" t="s">
+      <c r="B13" s="186" t="s">
         <v>744</v>
       </c>
-      <c r="C13" s="217" t="s">
+      <c r="C13" s="186" t="s">
         <v>743</v>
       </c>
-      <c r="F13" s="216" t="s">
-        <v>750</v>
+      <c r="F13" s="185" t="s">
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -7532,7 +8359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612EC7FB-07B4-4895-8A1B-BC9CDD0AE99E}">
   <dimension ref="A1:M68"/>
   <sheetViews>
@@ -7596,7 +8423,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="32.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="205" t="s">
         <v>289</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -7629,7 +8456,7 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="205"/>
+      <c r="A3" s="206"/>
       <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
@@ -7658,7 +8485,7 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="205"/>
+      <c r="A4" s="206"/>
       <c r="B4" s="3" t="s">
         <v>95</v>
       </c>
@@ -7689,7 +8516,7 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="205"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
@@ -7718,7 +8545,7 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="205"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="3" t="s">
         <v>117</v>
       </c>
@@ -7749,7 +8576,7 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="205"/>
+      <c r="A7" s="206"/>
       <c r="B7" s="3" t="s">
         <v>218</v>
       </c>
@@ -7780,7 +8607,7 @@
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="206"/>
+      <c r="A8" s="207"/>
       <c r="B8" s="3" t="s">
         <v>222</v>
       </c>
@@ -7809,7 +8636,7 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="204" t="s">
+      <c r="A9" s="205" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -7842,7 +8669,7 @@
       <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A10" s="205"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="3" t="s">
         <v>114</v>
       </c>
@@ -7873,7 +8700,7 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="205"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="3" t="s">
         <v>201</v>
       </c>
@@ -7904,7 +8731,7 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="205"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="3" t="s">
         <v>211</v>
       </c>
@@ -7935,7 +8762,7 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="205"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="3" t="s">
         <v>215</v>
       </c>
@@ -7966,7 +8793,7 @@
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="205"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="3" t="s">
         <v>225</v>
       </c>
@@ -7997,7 +8824,7 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="205"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="3" t="s">
         <v>228</v>
       </c>
@@ -8026,7 +8853,7 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" s="29" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="206"/>
+      <c r="A16" s="207"/>
       <c r="B16" s="30" t="s">
         <v>230</v>
       </c>
@@ -8057,7 +8884,7 @@
       <c r="M16" s="35"/>
     </row>
     <row r="17" spans="1:13" s="44" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="204" t="s">
+      <c r="A17" s="205" t="s">
         <v>297</v>
       </c>
       <c r="B17" s="38" t="s">
@@ -8090,7 +8917,7 @@
       <c r="M17" s="43"/>
     </row>
     <row r="18" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="205"/>
+      <c r="A18" s="206"/>
       <c r="B18" s="3" t="s">
         <v>208</v>
       </c>
@@ -8121,7 +8948,7 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="206"/>
+      <c r="A19" s="207"/>
       <c r="B19" s="3" t="s">
         <v>211</v>
       </c>
@@ -8152,7 +8979,7 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" s="44" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="204" t="s">
+      <c r="A20" s="205" t="s">
         <v>294</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -8185,7 +9012,7 @@
       <c r="M20" s="43"/>
     </row>
     <row r="21" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="205"/>
+      <c r="A21" s="206"/>
       <c r="B21" s="3" t="s">
         <v>122</v>
       </c>
@@ -8216,7 +9043,7 @@
       <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="205"/>
+      <c r="A22" s="206"/>
       <c r="B22" s="3" t="s">
         <v>125</v>
       </c>
@@ -8247,7 +9074,7 @@
       <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="205"/>
+      <c r="A23" s="206"/>
       <c r="B23" s="3" t="s">
         <v>128</v>
       </c>
@@ -8278,7 +9105,7 @@
       <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="205"/>
+      <c r="A24" s="206"/>
       <c r="B24" s="3" t="s">
         <v>131</v>
       </c>
@@ -8311,7 +9138,7 @@
       <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="205"/>
+      <c r="A25" s="206"/>
       <c r="B25" s="3" t="s">
         <v>276</v>
       </c>
@@ -8344,7 +9171,7 @@
       <c r="M25" s="16"/>
     </row>
     <row r="26" spans="1:13" s="29" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A26" s="206"/>
+      <c r="A26" s="207"/>
       <c r="B26" s="30" t="s">
         <v>280</v>
       </c>
@@ -8375,7 +9202,7 @@
       <c r="M26" s="35"/>
     </row>
     <row r="27" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="205" t="s">
+      <c r="A27" s="206" t="s">
         <v>292</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -8408,7 +9235,7 @@
       <c r="M27" s="16"/>
     </row>
     <row r="28" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="205"/>
+      <c r="A28" s="206"/>
       <c r="B28" s="3" t="s">
         <v>105</v>
       </c>
@@ -8439,7 +9266,7 @@
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="206"/>
+      <c r="A29" s="207"/>
       <c r="B29" s="30" t="s">
         <v>134</v>
       </c>
@@ -8466,7 +9293,7 @@
       <c r="M29" s="35"/>
     </row>
     <row r="30" spans="1:13" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="205" t="s">
+      <c r="A30" s="206" t="s">
         <v>293</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -8499,7 +9326,7 @@
       <c r="M30" s="16"/>
     </row>
     <row r="31" spans="1:13" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="205"/>
+      <c r="A31" s="206"/>
       <c r="B31" s="3" t="s">
         <v>111</v>
       </c>
@@ -8530,7 +9357,7 @@
       <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:13" s="29" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="206"/>
+      <c r="A32" s="207"/>
       <c r="B32" s="30" t="s">
         <v>134</v>
       </c>
@@ -8594,7 +9421,7 @@
       <c r="M33" s="50"/>
     </row>
     <row r="34" spans="1:13" s="44" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="204" t="s">
+      <c r="A34" s="205" t="s">
         <v>299</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -8625,7 +9452,7 @@
       <c r="M34" s="43"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35" s="205"/>
+      <c r="A35" s="206"/>
       <c r="B35" s="3" t="s">
         <v>141</v>
       </c>
@@ -8656,7 +9483,7 @@
       <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A36" s="205"/>
+      <c r="A36" s="206"/>
       <c r="B36" s="3" t="s">
         <v>145</v>
       </c>
@@ -8685,7 +9512,7 @@
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" s="29" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A37" s="206"/>
+      <c r="A37" s="207"/>
       <c r="B37" s="30" t="s">
         <v>148</v>
       </c>
@@ -8714,7 +9541,7 @@
       <c r="M37" s="35"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A38" s="204" t="s">
+      <c r="A38" s="205" t="s">
         <v>286</v>
       </c>
       <c r="B38" s="38" t="s">
@@ -8747,7 +9574,7 @@
       <c r="M38" s="43"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39" s="205"/>
+      <c r="A39" s="206"/>
       <c r="B39" s="3" t="s">
         <v>155</v>
       </c>
@@ -8778,7 +9605,7 @@
       <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="205"/>
+      <c r="A40" s="206"/>
       <c r="B40" s="3" t="s">
         <v>158</v>
       </c>
@@ -8811,7 +9638,7 @@
       <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A41" s="205"/>
+      <c r="A41" s="206"/>
       <c r="B41" s="3" t="s">
         <v>161</v>
       </c>
@@ -8844,7 +9671,7 @@
       <c r="M41" s="16"/>
     </row>
     <row r="42" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="205"/>
+      <c r="A42" s="206"/>
       <c r="B42" s="3" t="s">
         <v>165</v>
       </c>
@@ -8877,7 +9704,7 @@
       <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="205"/>
+      <c r="A43" s="206"/>
       <c r="B43" s="3" t="s">
         <v>169</v>
       </c>
@@ -8908,7 +9735,7 @@
       <c r="M43" s="16"/>
     </row>
     <row r="44" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A44" s="205"/>
+      <c r="A44" s="206"/>
       <c r="B44" s="3" t="s">
         <v>172</v>
       </c>
@@ -8939,7 +9766,7 @@
       <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="205"/>
+      <c r="A45" s="206"/>
       <c r="B45" s="3" t="s">
         <v>234</v>
       </c>
@@ -8968,7 +9795,7 @@
       <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A46" s="205"/>
+      <c r="A46" s="206"/>
       <c r="B46" s="3" t="s">
         <v>237</v>
       </c>
@@ -8997,7 +9824,7 @@
       <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:13" s="29" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A47" s="206"/>
+      <c r="A47" s="207"/>
       <c r="B47" s="30" t="s">
         <v>240</v>
       </c>
@@ -9026,7 +9853,7 @@
       <c r="M47" s="35"/>
     </row>
     <row r="48" spans="1:13" s="44" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A48" s="204" t="s">
+      <c r="A48" s="205" t="s">
         <v>287</v>
       </c>
       <c r="B48" s="38" t="s">
@@ -9059,7 +9886,7 @@
       <c r="M48" s="43"/>
     </row>
     <row r="49" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A49" s="205"/>
+      <c r="A49" s="206"/>
       <c r="B49" s="3" t="s">
         <v>179</v>
       </c>
@@ -9090,7 +9917,7 @@
       <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="205"/>
+      <c r="A50" s="206"/>
       <c r="B50" s="3" t="s">
         <v>183</v>
       </c>
@@ -9121,7 +9948,7 @@
       <c r="M50" s="16"/>
     </row>
     <row r="51" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="205"/>
+      <c r="A51" s="206"/>
       <c r="B51" s="3" t="s">
         <v>186</v>
       </c>
@@ -9150,7 +9977,7 @@
       <c r="M51" s="16"/>
     </row>
     <row r="52" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="205"/>
+      <c r="A52" s="206"/>
       <c r="B52" s="3" t="s">
         <v>189</v>
       </c>
@@ -9181,7 +10008,7 @@
       <c r="M52" s="16"/>
     </row>
     <row r="53" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A53" s="205"/>
+      <c r="A53" s="206"/>
       <c r="B53" s="3" t="s">
         <v>193</v>
       </c>
@@ -9212,7 +10039,7 @@
       <c r="M53" s="16"/>
     </row>
     <row r="54" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="205"/>
+      <c r="A54" s="206"/>
       <c r="B54" s="3" t="s">
         <v>196</v>
       </c>
@@ -9243,7 +10070,7 @@
       <c r="M54" s="16"/>
     </row>
     <row r="55" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="205"/>
+      <c r="A55" s="206"/>
       <c r="B55" s="3" t="s">
         <v>198</v>
       </c>
@@ -9274,7 +10101,7 @@
       <c r="M55" s="16"/>
     </row>
     <row r="56" spans="1:13" s="29" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="206"/>
+      <c r="A56" s="207"/>
       <c r="B56" s="30" t="s">
         <v>205</v>
       </c>
@@ -9336,7 +10163,7 @@
       <c r="M57" s="50"/>
     </row>
     <row r="58" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A58" s="204" t="s">
+      <c r="A58" s="205" t="s">
         <v>290</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -9371,7 +10198,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A59" s="205"/>
+      <c r="A59" s="206"/>
       <c r="B59" s="3" t="s">
         <v>252</v>
       </c>
@@ -9404,7 +10231,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A60" s="205"/>
+      <c r="A60" s="206"/>
       <c r="B60" s="3" t="s">
         <v>255</v>
       </c>
@@ -9437,7 +10264,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A61" s="205"/>
+      <c r="A61" s="206"/>
       <c r="B61" s="3" t="s">
         <v>258</v>
       </c>
@@ -9470,7 +10297,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A62" s="205"/>
+      <c r="A62" s="206"/>
       <c r="B62" s="3" t="s">
         <v>261</v>
       </c>
@@ -9503,7 +10330,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A63" s="205"/>
+      <c r="A63" s="206"/>
       <c r="B63" s="3" t="s">
         <v>264</v>
       </c>
@@ -9536,7 +10363,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A64" s="205"/>
+      <c r="A64" s="206"/>
       <c r="B64" s="3" t="s">
         <v>266</v>
       </c>
@@ -9569,7 +10396,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="57" x14ac:dyDescent="0.45">
-      <c r="A65" s="205"/>
+      <c r="A65" s="206"/>
       <c r="B65" s="3" t="s">
         <v>268</v>
       </c>
@@ -9602,7 +10429,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A66" s="205"/>
+      <c r="A66" s="206"/>
       <c r="B66" s="3" t="s">
         <v>270</v>
       </c>
@@ -9635,7 +10462,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" s="29" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A67" s="206"/>
+      <c r="A67" s="207"/>
       <c r="B67" s="9" t="s">
         <v>272</v>
       </c>
@@ -9815,7 +10642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269DAF3E-ED1F-433E-91D6-144D6BBBD2E7}">
   <dimension ref="A1:M51"/>
   <sheetViews>
@@ -9874,7 +10701,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="209" t="s">
         <v>423</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -9907,7 +10734,7 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="208"/>
+      <c r="A3" s="209"/>
       <c r="B3" s="3" t="s">
         <v>306</v>
       </c>
@@ -9936,7 +10763,7 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="208"/>
+      <c r="A4" s="209"/>
       <c r="B4" s="3" t="s">
         <v>308</v>
       </c>
@@ -9965,7 +10792,7 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="208"/>
+      <c r="A5" s="209"/>
       <c r="B5" s="3" t="s">
         <v>319</v>
       </c>
@@ -9994,7 +10821,7 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="208"/>
+      <c r="A6" s="209"/>
       <c r="B6" s="3" t="s">
         <v>324</v>
       </c>
@@ -10025,7 +10852,7 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="208"/>
+      <c r="A7" s="209"/>
       <c r="B7" s="3" t="s">
         <v>402</v>
       </c>
@@ -10056,7 +10883,7 @@
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="208"/>
+      <c r="A8" s="209"/>
       <c r="B8" s="3" t="s">
         <v>406</v>
       </c>
@@ -10085,7 +10912,7 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="208"/>
+      <c r="A9" s="209"/>
       <c r="B9" s="3" t="s">
         <v>413</v>
       </c>
@@ -10114,7 +10941,7 @@
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="208"/>
+      <c r="A10" s="209"/>
       <c r="B10" s="3" t="s">
         <v>415</v>
       </c>
@@ -10143,7 +10970,7 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="208"/>
+      <c r="A11" s="209"/>
       <c r="B11" s="3" t="s">
         <v>419</v>
       </c>
@@ -10172,7 +10999,7 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="209"/>
+      <c r="A12" s="210"/>
       <c r="B12" s="3" t="s">
         <v>421</v>
       </c>
@@ -10201,7 +11028,7 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" s="38" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="207" t="s">
+      <c r="A13" s="208" t="s">
         <v>424</v>
       </c>
       <c r="B13" s="38" t="s">
@@ -10234,7 +11061,7 @@
       <c r="M13" s="43"/>
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="209"/>
+      <c r="A14" s="210"/>
       <c r="B14" s="3" t="s">
         <v>336</v>
       </c>
@@ -10265,7 +11092,7 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" s="38" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="208" t="s">
         <v>425</v>
       </c>
       <c r="B15" s="38" t="s">
@@ -10298,7 +11125,7 @@
       <c r="M15" s="43"/>
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="208"/>
+      <c r="A16" s="209"/>
       <c r="B16" s="3" t="s">
         <v>322</v>
       </c>
@@ -10329,7 +11156,7 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="208"/>
+      <c r="A17" s="209"/>
       <c r="B17" s="3" t="s">
         <v>379</v>
       </c>
@@ -10360,7 +11187,7 @@
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="208"/>
+      <c r="A18" s="209"/>
       <c r="B18" s="3" t="s">
         <v>389</v>
       </c>
@@ -10391,7 +11218,7 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="208"/>
+      <c r="A19" s="209"/>
       <c r="B19" s="3" t="s">
         <v>392</v>
       </c>
@@ -10422,7 +11249,7 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="208"/>
+      <c r="A20" s="209"/>
       <c r="B20" s="3" t="s">
         <v>396</v>
       </c>
@@ -10451,7 +11278,7 @@
       <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="209"/>
+      <c r="A21" s="210"/>
       <c r="B21" s="3" t="s">
         <v>409</v>
       </c>
@@ -10482,7 +11309,7 @@
       <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" s="38" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="207" t="s">
+      <c r="A22" s="208" t="s">
         <v>426</v>
       </c>
       <c r="B22" s="38" t="s">
@@ -10515,7 +11342,7 @@
       <c r="M22" s="43"/>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="208"/>
+      <c r="A23" s="209"/>
       <c r="B23" s="3" t="s">
         <v>386</v>
       </c>
@@ -10546,7 +11373,7 @@
       <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="209"/>
+      <c r="A24" s="210"/>
       <c r="B24" s="3" t="s">
         <v>389</v>
       </c>
@@ -10577,7 +11404,7 @@
       <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13" s="38" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="210" t="s">
+      <c r="A25" s="211" t="s">
         <v>294</v>
       </c>
       <c r="B25" s="38" t="s">
@@ -10610,7 +11437,7 @@
       <c r="M25" s="42"/>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="211"/>
+      <c r="A26" s="212"/>
       <c r="B26" s="3" t="s">
         <v>329</v>
       </c>
@@ -10641,7 +11468,7 @@
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="211"/>
+      <c r="A27" s="212"/>
       <c r="B27" s="3" t="s">
         <v>335</v>
       </c>
@@ -10672,7 +11499,7 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="211"/>
+      <c r="A28" s="212"/>
       <c r="B28" s="3" t="s">
         <v>339</v>
       </c>
@@ -10705,7 +11532,7 @@
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="211"/>
+      <c r="A29" s="212"/>
       <c r="B29" s="3" t="s">
         <v>340</v>
       </c>
@@ -10736,7 +11563,7 @@
       <c r="M29" s="16"/>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="212"/>
+      <c r="A30" s="213"/>
       <c r="B30" s="3" t="s">
         <v>411</v>
       </c>
@@ -10767,7 +11594,7 @@
       <c r="M30" s="70"/>
     </row>
     <row r="31" spans="1:13" s="38" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="207" t="s">
+      <c r="A31" s="208" t="s">
         <v>427</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -10800,7 +11627,7 @@
       <c r="M31" s="42"/>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="208"/>
+      <c r="A32" s="209"/>
       <c r="B32" s="3" t="s">
         <v>343</v>
       </c>
@@ -10831,7 +11658,7 @@
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="208"/>
+      <c r="A33" s="209"/>
       <c r="B33" s="3" t="s">
         <v>346</v>
       </c>
@@ -10862,7 +11689,7 @@
       <c r="M33" s="16"/>
     </row>
     <row r="34" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="208"/>
+      <c r="A34" s="209"/>
       <c r="B34" s="3" t="s">
         <v>348</v>
       </c>
@@ -10895,7 +11722,7 @@
       <c r="M34" s="16"/>
     </row>
     <row r="35" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="208"/>
+      <c r="A35" s="209"/>
       <c r="B35" s="3" t="s">
         <v>349</v>
       </c>
@@ -10928,7 +11755,7 @@
       <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="208"/>
+      <c r="A36" s="209"/>
       <c r="B36" s="3" t="s">
         <v>352</v>
       </c>
@@ -10961,7 +11788,7 @@
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="208"/>
+      <c r="A37" s="209"/>
       <c r="B37" s="3" t="s">
         <v>353</v>
       </c>
@@ -10992,7 +11819,7 @@
       <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="208"/>
+      <c r="A38" s="209"/>
       <c r="B38" s="3" t="s">
         <v>356</v>
       </c>
@@ -11023,7 +11850,7 @@
       <c r="M38" s="16"/>
     </row>
     <row r="39" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="209"/>
+      <c r="A39" s="210"/>
       <c r="B39" s="3" t="s">
         <v>358</v>
       </c>
@@ -11087,7 +11914,7 @@
       <c r="M40" s="43"/>
     </row>
     <row r="41" spans="1:13" s="38" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="207" t="s">
+      <c r="A41" s="208" t="s">
         <v>429</v>
       </c>
       <c r="B41" s="38" t="s">
@@ -11120,7 +11947,7 @@
       <c r="M41" s="43"/>
     </row>
     <row r="42" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="208"/>
+      <c r="A42" s="209"/>
       <c r="B42" s="3" t="s">
         <v>384</v>
       </c>
@@ -11149,7 +11976,7 @@
       <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="208"/>
+      <c r="A43" s="209"/>
       <c r="B43" s="3" t="s">
         <v>389</v>
       </c>
@@ -11180,7 +12007,7 @@
       <c r="M43" s="16"/>
     </row>
     <row r="44" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="209"/>
+      <c r="A44" s="210"/>
       <c r="B44" s="3" t="s">
         <v>399</v>
       </c>
@@ -11209,7 +12036,7 @@
       <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:13" s="38" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="207" t="s">
+      <c r="A45" s="208" t="s">
         <v>430</v>
       </c>
       <c r="B45" s="38" t="s">
@@ -11242,7 +12069,7 @@
       <c r="M45" s="43"/>
     </row>
     <row r="46" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="208"/>
+      <c r="A46" s="209"/>
       <c r="B46" s="3" t="s">
         <v>369</v>
       </c>
@@ -11271,7 +12098,7 @@
       <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="208"/>
+      <c r="A47" s="209"/>
       <c r="B47" s="3" t="s">
         <v>371</v>
       </c>
@@ -11302,7 +12129,7 @@
       <c r="M47" s="16"/>
     </row>
     <row r="48" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="208"/>
+      <c r="A48" s="209"/>
       <c r="B48" s="3" t="s">
         <v>373</v>
       </c>
@@ -11333,7 +12160,7 @@
       <c r="M48" s="16"/>
     </row>
     <row r="49" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="208"/>
+      <c r="A49" s="209"/>
       <c r="B49" s="3" t="s">
         <v>376</v>
       </c>
@@ -11364,7 +12191,7 @@
       <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:13" s="3" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="208"/>
+      <c r="A50" s="209"/>
       <c r="B50" s="3" t="s">
         <v>378</v>
       </c>
@@ -11506,7 +12333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677AE264-0D17-408D-9D0A-C18BB6BBDE5B}">
   <dimension ref="A1:M47"/>
   <sheetViews>
@@ -11569,7 +12396,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="214" t="s">
         <v>531</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -11602,7 +12429,7 @@
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="214"/>
+      <c r="A3" s="215"/>
       <c r="B3" s="3" t="s">
         <v>490</v>
       </c>
@@ -11633,7 +12460,7 @@
       <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="214"/>
+      <c r="A4" s="215"/>
       <c r="B4" s="3" t="s">
         <v>491</v>
       </c>
@@ -11664,7 +12491,7 @@
       <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="214"/>
+      <c r="A5" s="215"/>
       <c r="B5" s="3" t="s">
         <v>494</v>
       </c>
@@ -11693,7 +12520,7 @@
       <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="29.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="214"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="3" t="s">
         <v>495</v>
       </c>
@@ -11722,7 +12549,7 @@
       <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="214"/>
+      <c r="A7" s="215"/>
       <c r="B7" s="3" t="s">
         <v>496</v>
       </c>
@@ -11753,7 +12580,7 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="215"/>
+      <c r="A8" s="216"/>
       <c r="B8" s="3" t="s">
         <v>530</v>
       </c>
@@ -11782,7 +12609,7 @@
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="213" t="s">
+      <c r="A9" s="214" t="s">
         <v>537</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -11815,7 +12642,7 @@
       <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="214"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="3" t="s">
         <v>519</v>
       </c>
@@ -11846,7 +12673,7 @@
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="214"/>
+      <c r="A11" s="215"/>
       <c r="B11" s="3" t="s">
         <v>522</v>
       </c>
@@ -11877,7 +12704,7 @@
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="214"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="3" t="s">
         <v>523</v>
       </c>
@@ -11908,7 +12735,7 @@
       <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="214"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="3" t="s">
         <v>524</v>
       </c>
@@ -11937,7 +12764,7 @@
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="214"/>
+      <c r="A14" s="215"/>
       <c r="B14" s="3" t="s">
         <v>526</v>
       </c>
@@ -11968,7 +12795,7 @@
       <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="215"/>
+      <c r="A15" s="216"/>
       <c r="B15" s="3" t="s">
         <v>528</v>
       </c>
@@ -11999,7 +12826,7 @@
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="213" t="s">
+      <c r="A16" s="214" t="s">
         <v>538</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -12032,7 +12859,7 @@
       <c r="M16" s="42"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="214"/>
+      <c r="A17" s="215"/>
       <c r="B17" s="3" t="s">
         <v>521</v>
       </c>
@@ -12063,7 +12890,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="214"/>
+      <c r="A18" s="215"/>
       <c r="B18" s="3" t="s">
         <v>522</v>
       </c>
@@ -12094,7 +12921,7 @@
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="215"/>
+      <c r="A19" s="216"/>
       <c r="B19" s="3" t="s">
         <v>527</v>
       </c>
@@ -12123,7 +12950,7 @@
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" s="44" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="213" t="s">
+      <c r="A20" s="214" t="s">
         <v>532</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -12154,7 +12981,7 @@
       <c r="M20" s="42"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="214"/>
+      <c r="A21" s="215"/>
       <c r="B21" s="3" t="s">
         <v>499</v>
       </c>
@@ -12185,7 +13012,7 @@
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="215"/>
+      <c r="A22" s="216"/>
       <c r="B22" s="3" t="s">
         <v>510</v>
       </c>
@@ -12218,7 +13045,7 @@
       <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" s="44" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="213" t="s">
+      <c r="A23" s="214" t="s">
         <v>294</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -12251,7 +13078,7 @@
       <c r="M23" s="42"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="214"/>
+      <c r="A24" s="215"/>
       <c r="B24" s="3" t="s">
         <v>499</v>
       </c>
@@ -12282,7 +13109,7 @@
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="215"/>
+      <c r="A25" s="216"/>
       <c r="B25" s="3" t="s">
         <v>529</v>
       </c>
@@ -12313,7 +13140,7 @@
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="214" t="s">
         <v>533</v>
       </c>
       <c r="B26" s="38" t="s">
@@ -12346,7 +13173,7 @@
       <c r="M26" s="42"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="214"/>
+      <c r="A27" s="215"/>
       <c r="B27" s="3" t="s">
         <v>504</v>
       </c>
@@ -12377,7 +13204,7 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="38.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="214"/>
+      <c r="A28" s="215"/>
       <c r="B28" s="3" t="s">
         <v>505</v>
       </c>
@@ -12408,7 +13235,7 @@
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="214"/>
+      <c r="A29" s="215"/>
       <c r="B29" s="3" t="s">
         <v>506</v>
       </c>
@@ -12441,7 +13268,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="214"/>
+      <c r="A30" s="215"/>
       <c r="B30" s="3" t="s">
         <v>507</v>
       </c>
@@ -12474,7 +13301,7 @@
       <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="214"/>
+      <c r="A31" s="215"/>
       <c r="B31" s="3" t="s">
         <v>508</v>
       </c>
@@ -12505,7 +13332,7 @@
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32" s="214"/>
+      <c r="A32" s="215"/>
       <c r="B32" s="3" t="s">
         <v>511</v>
       </c>
@@ -12536,7 +13363,7 @@
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="215"/>
+      <c r="A33" s="216"/>
       <c r="B33" s="30" t="s">
         <v>509</v>
       </c>
@@ -12567,7 +13394,7 @@
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="213" t="s">
+      <c r="A34" s="214" t="s">
         <v>534</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -12600,7 +13427,7 @@
       <c r="M34" s="42"/>
     </row>
     <row r="35" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="214"/>
+      <c r="A35" s="215"/>
       <c r="B35" s="3" t="s">
         <v>512</v>
       </c>
@@ -12631,7 +13458,7 @@
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" s="214"/>
+      <c r="A36" s="215"/>
       <c r="B36" s="3" t="s">
         <v>520</v>
       </c>
@@ -12660,7 +13487,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" s="214"/>
+      <c r="A37" s="215"/>
       <c r="B37" s="3" t="s">
         <v>522</v>
       </c>
@@ -12691,7 +13518,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38" s="215"/>
+      <c r="A38" s="216"/>
       <c r="B38" s="3" t="s">
         <v>525</v>
       </c>
@@ -12720,7 +13547,7 @@
       <c r="M38" s="18"/>
     </row>
     <row r="39" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="213" t="s">
+      <c r="A39" s="214" t="s">
         <v>535</v>
       </c>
       <c r="B39" s="38" t="s">
@@ -12755,7 +13582,7 @@
       <c r="M39" s="42"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A40" s="215"/>
+      <c r="A40" s="216"/>
       <c r="B40" s="3" t="s">
         <v>503</v>
       </c>
@@ -12786,7 +13613,7 @@
       <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="213" t="s">
+      <c r="A41" s="214" t="s">
         <v>536</v>
       </c>
       <c r="B41" s="38" t="s">
@@ -12819,7 +13646,7 @@
       <c r="M41" s="42"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A42" s="214"/>
+      <c r="A42" s="215"/>
       <c r="B42" s="3" t="s">
         <v>514</v>
       </c>
@@ -12848,7 +13675,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A43" s="214"/>
+      <c r="A43" s="215"/>
       <c r="B43" s="3" t="s">
         <v>515</v>
       </c>
@@ -12879,7 +13706,7 @@
       <c r="M43" s="18"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A44" s="214"/>
+      <c r="A44" s="215"/>
       <c r="B44" s="3" t="s">
         <v>516</v>
       </c>
@@ -12910,7 +13737,7 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A45" s="214"/>
+      <c r="A45" s="215"/>
       <c r="B45" s="3" t="s">
         <v>517</v>
       </c>
@@ -12939,7 +13766,7 @@
       <c r="M45" s="18"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A46" s="215"/>
+      <c r="A46" s="216"/>
       <c r="B46" s="3" t="s">
         <v>518</v>
       </c>
@@ -13100,7 +13927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EFEE97-C3D2-460B-8310-A99EBC6DA256}">
   <dimension ref="A1:M44"/>
   <sheetViews>
@@ -13164,7 +13991,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="206" t="s">
         <v>531</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -13196,7 +14023,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="205"/>
+      <c r="A3" s="206"/>
       <c r="B3" s="3" t="s">
         <v>543</v>
       </c>
@@ -13224,7 +14051,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="205"/>
+      <c r="A4" s="206"/>
       <c r="B4" s="3" t="s">
         <v>545</v>
       </c>
@@ -13252,7 +14079,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="205"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="3" t="s">
         <v>552</v>
       </c>
@@ -13280,7 +14107,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="205"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="3" t="s">
         <v>556</v>
       </c>
@@ -13310,7 +14137,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="205"/>
+      <c r="A7" s="206"/>
       <c r="B7" s="3" t="s">
         <v>558</v>
       </c>
@@ -13338,7 +14165,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="205"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="3" t="s">
         <v>605</v>
       </c>
@@ -13368,7 +14195,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="205"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="3" t="s">
         <v>616</v>
       </c>
@@ -13398,7 +14225,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="205"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="3" t="s">
         <v>627</v>
       </c>
@@ -13428,7 +14255,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="205"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="3" t="s">
         <v>630</v>
       </c>
@@ -13456,7 +14283,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="206"/>
+      <c r="A12" s="207"/>
       <c r="B12" s="3" t="s">
         <v>636</v>
       </c>
@@ -13484,7 +14311,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="204" t="s">
+      <c r="A13" s="205" t="s">
         <v>537</v>
       </c>
       <c r="B13" s="38" t="s">
@@ -13516,7 +14343,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="205"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="3" t="s">
         <v>554</v>
       </c>
@@ -13546,7 +14373,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="205"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="3" t="s">
         <v>620</v>
       </c>
@@ -13576,7 +14403,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="205"/>
+      <c r="A16" s="206"/>
       <c r="B16" s="3" t="s">
         <v>623</v>
       </c>
@@ -13604,7 +14431,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="206"/>
+      <c r="A17" s="207"/>
       <c r="B17" s="3" t="s">
         <v>632</v>
       </c>
@@ -13634,7 +14461,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="204" t="s">
+      <c r="A18" s="205" t="s">
         <v>538</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -13666,7 +14493,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="205"/>
+      <c r="A19" s="206"/>
       <c r="B19" s="3" t="s">
         <v>612</v>
       </c>
@@ -13696,7 +14523,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="206"/>
+      <c r="A20" s="207"/>
       <c r="B20" s="3" t="s">
         <v>616</v>
       </c>
@@ -13726,7 +14553,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="204" t="s">
+      <c r="A21" s="205" t="s">
         <v>294</v>
       </c>
       <c r="B21" s="38" t="s">
@@ -13758,7 +14585,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="205"/>
+      <c r="A22" s="206"/>
       <c r="B22" s="3" t="s">
         <v>563</v>
       </c>
@@ -13788,7 +14615,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="205"/>
+      <c r="A23" s="206"/>
       <c r="B23" s="3" t="s">
         <v>568</v>
       </c>
@@ -13820,7 +14647,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="205"/>
+      <c r="A24" s="206"/>
       <c r="B24" s="3" t="s">
         <v>570</v>
       </c>
@@ -13850,7 +14677,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="206"/>
+      <c r="A25" s="207"/>
       <c r="B25" s="3" t="s">
         <v>634</v>
       </c>
@@ -13880,7 +14707,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="204" t="s">
+      <c r="A26" s="205" t="s">
         <v>637</v>
       </c>
       <c r="B26" s="38" t="s">
@@ -13912,7 +14739,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="205"/>
+      <c r="A27" s="206"/>
       <c r="B27" s="3" t="s">
         <v>572</v>
       </c>
@@ -13942,7 +14769,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="205"/>
+      <c r="A28" s="206"/>
       <c r="B28" s="3" t="s">
         <v>576</v>
       </c>
@@ -13974,7 +14801,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="205"/>
+      <c r="A29" s="206"/>
       <c r="B29" s="3" t="s">
         <v>579</v>
       </c>
@@ -14006,7 +14833,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="205"/>
+      <c r="A30" s="206"/>
       <c r="B30" s="3" t="s">
         <v>580</v>
       </c>
@@ -14038,7 +14865,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="205"/>
+      <c r="A31" s="206"/>
       <c r="B31" s="3" t="s">
         <v>582</v>
       </c>
@@ -14068,7 +14895,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="205"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="3" t="s">
         <v>585</v>
       </c>
@@ -14098,7 +14925,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="206"/>
+      <c r="A33" s="207"/>
       <c r="B33" s="3" t="s">
         <v>587</v>
       </c>
@@ -14128,7 +14955,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="204" t="s">
+      <c r="A34" s="205" t="s">
         <v>638</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -14160,7 +14987,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="205"/>
+      <c r="A35" s="206"/>
       <c r="B35" s="3" t="s">
         <v>589</v>
       </c>
@@ -14190,7 +15017,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="205"/>
+      <c r="A36" s="206"/>
       <c r="B36" s="3" t="s">
         <v>609</v>
       </c>
@@ -14218,7 +15045,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="205"/>
+      <c r="A37" s="206"/>
       <c r="B37" s="3" t="s">
         <v>616</v>
       </c>
@@ -14248,7 +15075,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="206"/>
+      <c r="A38" s="207"/>
       <c r="B38" s="3" t="s">
         <v>625</v>
       </c>
@@ -14276,7 +15103,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="204" t="s">
+      <c r="A39" s="205" t="s">
         <v>536</v>
       </c>
       <c r="B39" s="38" t="s">
@@ -14308,7 +15135,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="205"/>
+      <c r="A40" s="206"/>
       <c r="B40" s="3" t="s">
         <v>596</v>
       </c>
@@ -14336,7 +15163,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="205"/>
+      <c r="A41" s="206"/>
       <c r="B41" s="3" t="s">
         <v>598</v>
       </c>
@@ -14366,7 +15193,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="205"/>
+      <c r="A42" s="206"/>
       <c r="B42" s="3" t="s">
         <v>601</v>
       </c>
@@ -14396,7 +15223,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A43" s="205"/>
+      <c r="A43" s="206"/>
       <c r="B43" s="3" t="s">
         <v>603</v>
       </c>
@@ -14424,7 +15251,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="206"/>
+      <c r="A44" s="207"/>
       <c r="B44" s="30" t="s">
         <v>604</v>
       </c>
